--- a/Other/Saved_Results_3_2_hidden_space_test_NOT NORMALIZED.xlsx
+++ b/Other/Saved_Results_3_2_hidden_space_test_NOT NORMALIZED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albi2\Documents\GitHub\Variational-Autoencoder-for-EEG-analysis\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DAC746-62FD-440C-8D67-0761B83AE3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9F5B31-9A17-4375-A6ED-EC22416D637E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D2A (2)(TEST)" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="29">
   <si>
     <t>Subject</t>
   </si>
@@ -124,7 +124,10 @@
     <t>Train for 500 epoch, exp lr scheduler, VERY BAD RESULTS</t>
   </si>
   <si>
-    <t>Exoponential  Schedure (gamma = 0.95)</t>
+    <t>Validation set used (train percentage = 0.9), wieght decay AdamW = 1e-5</t>
+  </si>
+  <si>
+    <t>Validation set used (train percentage = 0.9), wieght decay AdamW = 1e-2</t>
   </si>
 </sst>
 </file>
@@ -236,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -350,19 +353,542 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="956">
+  <dxfs count="1008">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -10427,11 +10953,11 @@
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
     </row>
     <row r="7" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -11071,11 +11597,11 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -11715,11 +12241,11 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -12359,11 +12885,11 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
@@ -13003,12 +13529,12 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
@@ -13024,152 +13550,152 @@
     <mergeCell ref="B63:E63"/>
   </mergeCells>
   <conditionalFormatting sqref="D8:S8">
-    <cfRule type="top10" dxfId="955" priority="73" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="954" priority="74" rank="2"/>
+    <cfRule type="top10" dxfId="1007" priority="73" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1006" priority="74" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="top10" dxfId="953" priority="71" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="952" priority="72" rank="2"/>
+    <cfRule type="top10" dxfId="1005" priority="71" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1004" priority="72" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:S10">
-    <cfRule type="top10" dxfId="951" priority="69" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="950" priority="70" rank="2"/>
+    <cfRule type="top10" dxfId="1003" priority="69" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1002" priority="70" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="top10" dxfId="949" priority="67" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="948" priority="68" rank="2"/>
+    <cfRule type="top10" dxfId="1001" priority="67" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1000" priority="68" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:S12">
-    <cfRule type="top10" dxfId="947" priority="65" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="946" priority="66" rank="2"/>
+    <cfRule type="top10" dxfId="999" priority="65" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="998" priority="66" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="top10" dxfId="945" priority="63" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="944" priority="64" rank="2"/>
+    <cfRule type="top10" dxfId="997" priority="63" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="996" priority="64" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:S14">
-    <cfRule type="top10" dxfId="943" priority="61" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="942" priority="62" rank="2"/>
+    <cfRule type="top10" dxfId="995" priority="61" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="994" priority="62" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="top10" dxfId="941" priority="59" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="940" priority="60" rank="2"/>
+    <cfRule type="top10" dxfId="993" priority="59" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="992" priority="60" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:S16">
-    <cfRule type="top10" dxfId="939" priority="57" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="938" priority="58" rank="2"/>
+    <cfRule type="top10" dxfId="991" priority="57" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="990" priority="58" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="top10" dxfId="937" priority="55" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="936" priority="56" rank="2"/>
+    <cfRule type="top10" dxfId="989" priority="55" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="988" priority="56" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:S22">
-    <cfRule type="top10" dxfId="935" priority="53" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="934" priority="54" rank="2"/>
+    <cfRule type="top10" dxfId="987" priority="53" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="986" priority="54" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="top10" dxfId="933" priority="51" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="932" priority="52" rank="2"/>
+    <cfRule type="top10" dxfId="985" priority="51" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="984" priority="52" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:S24">
-    <cfRule type="top10" dxfId="931" priority="49" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="930" priority="50" rank="2"/>
+    <cfRule type="top10" dxfId="983" priority="49" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="982" priority="50" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="top10" dxfId="929" priority="47" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="928" priority="48" rank="2"/>
+    <cfRule type="top10" dxfId="981" priority="47" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="980" priority="48" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:S26">
-    <cfRule type="top10" dxfId="927" priority="45" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="926" priority="46" rank="2"/>
+    <cfRule type="top10" dxfId="979" priority="45" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="978" priority="46" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="top10" dxfId="925" priority="43" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="924" priority="44" rank="2"/>
+    <cfRule type="top10" dxfId="977" priority="43" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="976" priority="44" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:S28">
-    <cfRule type="top10" dxfId="923" priority="41" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="922" priority="42" rank="2"/>
+    <cfRule type="top10" dxfId="975" priority="41" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="974" priority="42" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:S29">
-    <cfRule type="top10" dxfId="921" priority="39" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="920" priority="40" rank="2"/>
+    <cfRule type="top10" dxfId="973" priority="39" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="972" priority="40" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:S30">
-    <cfRule type="top10" dxfId="919" priority="37" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="918" priority="38" rank="2"/>
+    <cfRule type="top10" dxfId="971" priority="37" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="970" priority="38" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:S37">
-    <cfRule type="top10" dxfId="917" priority="35" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="916" priority="36" rank="2"/>
+    <cfRule type="top10" dxfId="969" priority="35" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="968" priority="36" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:S38">
-    <cfRule type="top10" dxfId="915" priority="33" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="914" priority="34" rank="2"/>
+    <cfRule type="top10" dxfId="967" priority="33" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="966" priority="34" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:S39">
-    <cfRule type="top10" dxfId="913" priority="31" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="912" priority="32" rank="2"/>
+    <cfRule type="top10" dxfId="965" priority="31" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="964" priority="32" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:S40">
-    <cfRule type="top10" dxfId="911" priority="29" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="910" priority="30" rank="2"/>
+    <cfRule type="top10" dxfId="963" priority="29" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="962" priority="30" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:S41">
-    <cfRule type="top10" dxfId="909" priority="27" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="908" priority="28" rank="2"/>
+    <cfRule type="top10" dxfId="961" priority="27" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="960" priority="28" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:S42">
-    <cfRule type="top10" dxfId="907" priority="25" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="906" priority="26" rank="2"/>
+    <cfRule type="top10" dxfId="959" priority="25" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="958" priority="26" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:S43">
-    <cfRule type="top10" dxfId="905" priority="23" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="904" priority="24" rank="2"/>
+    <cfRule type="top10" dxfId="957" priority="23" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="956" priority="24" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:S44">
-    <cfRule type="top10" dxfId="903" priority="21" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="902" priority="22" rank="2"/>
+    <cfRule type="top10" dxfId="955" priority="21" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="954" priority="22" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:S45">
-    <cfRule type="top10" dxfId="901" priority="19" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="900" priority="20" rank="2"/>
+    <cfRule type="top10" dxfId="953" priority="19" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="952" priority="20" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:S50">
-    <cfRule type="top10" dxfId="899" priority="17" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="898" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="951" priority="17" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="950" priority="18" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:S51">
-    <cfRule type="top10" dxfId="897" priority="15" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="896" priority="16" rank="2"/>
+    <cfRule type="top10" dxfId="949" priority="15" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="948" priority="16" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:S52">
-    <cfRule type="top10" dxfId="895" priority="13" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="894" priority="14" rank="2"/>
+    <cfRule type="top10" dxfId="947" priority="13" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="946" priority="14" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:S53">
-    <cfRule type="top10" dxfId="893" priority="11" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="892" priority="12" rank="2"/>
+    <cfRule type="top10" dxfId="945" priority="11" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="944" priority="12" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:S54">
-    <cfRule type="top10" dxfId="891" priority="9" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="890" priority="10" rank="2"/>
+    <cfRule type="top10" dxfId="943" priority="9" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="942" priority="10" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:S55">
-    <cfRule type="top10" dxfId="889" priority="7" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="888" priority="8" rank="2"/>
+    <cfRule type="top10" dxfId="941" priority="7" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="940" priority="8" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:S56">
-    <cfRule type="top10" dxfId="887" priority="5" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="886" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="939" priority="5" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="938" priority="6" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57:S57">
-    <cfRule type="top10" dxfId="885" priority="3" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="884" priority="4" rank="2"/>
+    <cfRule type="top10" dxfId="937" priority="3" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="936" priority="4" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58:S58">
-    <cfRule type="top10" dxfId="883" priority="1" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="882" priority="2" rank="2"/>
+    <cfRule type="top10" dxfId="935" priority="1" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="934" priority="2" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13179,7 +13705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7871E1C6-86E9-47B6-82FD-7BC874F01529}">
   <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -13234,11 +13760,11 @@
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
     </row>
     <row r="7" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
@@ -13422,11 +13948,11 @@
       <c r="J17" s="17"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
@@ -13609,11 +14135,11 @@
       <c r="F30" s="16"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
@@ -13796,11 +14322,11 @@
       <c r="F45" s="16"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
@@ -13983,10 +14509,10 @@
       <c r="F58" s="16"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B64" s="11"/>
@@ -14001,312 +14527,312 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J8:S8">
-    <cfRule type="top10" dxfId="881" priority="301" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="880" priority="302" rank="2"/>
+    <cfRule type="top10" dxfId="933" priority="301" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="932" priority="302" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:S9">
-    <cfRule type="top10" dxfId="879" priority="299" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="878" priority="300" rank="2"/>
+    <cfRule type="top10" dxfId="931" priority="299" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="930" priority="300" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:S10">
-    <cfRule type="top10" dxfId="877" priority="297" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="876" priority="298" rank="2"/>
+    <cfRule type="top10" dxfId="929" priority="297" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="928" priority="298" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:S11">
-    <cfRule type="top10" dxfId="875" priority="295" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="874" priority="296" rank="2"/>
+    <cfRule type="top10" dxfId="927" priority="295" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="926" priority="296" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:S12">
-    <cfRule type="top10" dxfId="873" priority="293" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="872" priority="294" rank="2"/>
+    <cfRule type="top10" dxfId="925" priority="293" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="924" priority="294" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:S13">
-    <cfRule type="top10" dxfId="871" priority="291" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="870" priority="292" rank="2"/>
+    <cfRule type="top10" dxfId="923" priority="291" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="922" priority="292" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:S14">
-    <cfRule type="top10" dxfId="869" priority="289" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="868" priority="290" rank="2"/>
+    <cfRule type="top10" dxfId="921" priority="289" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="920" priority="290" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:S15">
-    <cfRule type="top10" dxfId="867" priority="287" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="866" priority="288" rank="2"/>
+    <cfRule type="top10" dxfId="919" priority="287" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="918" priority="288" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:S16">
-    <cfRule type="top10" dxfId="865" priority="285" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="864" priority="286" rank="2"/>
+    <cfRule type="top10" dxfId="917" priority="285" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="916" priority="286" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:S17">
-    <cfRule type="top10" dxfId="863" priority="283" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="862" priority="284" rank="2"/>
+    <cfRule type="top10" dxfId="915" priority="283" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="914" priority="284" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22:S22 J22:K22 J37">
-    <cfRule type="top10" dxfId="861" priority="281" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="860" priority="282" rank="2"/>
+    <cfRule type="top10" dxfId="913" priority="281" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="912" priority="282" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23:S23 J23:K23 J38">
-    <cfRule type="top10" dxfId="859" priority="279" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="858" priority="280" rank="2"/>
+    <cfRule type="top10" dxfId="911" priority="279" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="910" priority="280" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24:S24 J24:K24 J39">
-    <cfRule type="top10" dxfId="857" priority="277" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="856" priority="278" rank="2"/>
+    <cfRule type="top10" dxfId="909" priority="277" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="908" priority="278" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:S25 J25:K25 J40">
-    <cfRule type="top10" dxfId="855" priority="275" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="854" priority="276" rank="2"/>
+    <cfRule type="top10" dxfId="907" priority="275" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="906" priority="276" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26:S26 J26:K26 J41">
-    <cfRule type="top10" dxfId="853" priority="273" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="852" priority="274" rank="2"/>
+    <cfRule type="top10" dxfId="905" priority="273" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="904" priority="274" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:S27 J27:K27 J42">
-    <cfRule type="top10" dxfId="851" priority="271" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="850" priority="272" rank="2"/>
+    <cfRule type="top10" dxfId="903" priority="271" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="902" priority="272" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28:S28 J28:K28 J43">
-    <cfRule type="top10" dxfId="849" priority="269" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="848" priority="270" rank="2"/>
+    <cfRule type="top10" dxfId="901" priority="269" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="900" priority="270" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:S29 J29:K29 J44">
-    <cfRule type="top10" dxfId="847" priority="267" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="846" priority="268" rank="2"/>
+    <cfRule type="top10" dxfId="899" priority="267" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="898" priority="268" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:S30">
-    <cfRule type="top10" dxfId="845" priority="265" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="844" priority="266" rank="2"/>
+    <cfRule type="top10" dxfId="897" priority="265" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="896" priority="266" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37:S37">
-    <cfRule type="top10" dxfId="843" priority="263" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="842" priority="264" rank="2"/>
+    <cfRule type="top10" dxfId="895" priority="263" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="894" priority="264" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:S38">
-    <cfRule type="top10" dxfId="841" priority="261" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="840" priority="262" rank="2"/>
+    <cfRule type="top10" dxfId="893" priority="261" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="892" priority="262" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:S39">
-    <cfRule type="top10" dxfId="839" priority="259" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="838" priority="260" rank="2"/>
+    <cfRule type="top10" dxfId="891" priority="259" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="890" priority="260" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:S40">
-    <cfRule type="top10" dxfId="837" priority="257" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="836" priority="258" rank="2"/>
+    <cfRule type="top10" dxfId="889" priority="257" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="888" priority="258" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41:S41">
-    <cfRule type="top10" dxfId="835" priority="255" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="834" priority="256" rank="2"/>
+    <cfRule type="top10" dxfId="887" priority="255" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="886" priority="256" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:S42">
-    <cfRule type="top10" dxfId="833" priority="253" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="832" priority="254" rank="2"/>
+    <cfRule type="top10" dxfId="885" priority="253" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="884" priority="254" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43:S43">
-    <cfRule type="top10" dxfId="831" priority="251" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="830" priority="252" rank="2"/>
+    <cfRule type="top10" dxfId="883" priority="251" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="882" priority="252" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44:S44">
-    <cfRule type="top10" dxfId="829" priority="249" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="828" priority="250" rank="2"/>
+    <cfRule type="top10" dxfId="881" priority="249" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="880" priority="250" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45:S45">
-    <cfRule type="top10" dxfId="827" priority="247" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="826" priority="248" rank="2"/>
+    <cfRule type="top10" dxfId="879" priority="247" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="878" priority="248" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50:S50">
-    <cfRule type="top10" dxfId="825" priority="245" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="824" priority="246" rank="2"/>
+    <cfRule type="top10" dxfId="877" priority="245" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="876" priority="246" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51:S51">
-    <cfRule type="top10" dxfId="823" priority="243" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="822" priority="244" rank="2"/>
+    <cfRule type="top10" dxfId="875" priority="243" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="874" priority="244" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52:S52">
-    <cfRule type="top10" dxfId="821" priority="241" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="820" priority="242" rank="2"/>
+    <cfRule type="top10" dxfId="873" priority="241" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="872" priority="242" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53:S53">
-    <cfRule type="top10" dxfId="819" priority="239" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="818" priority="240" rank="2"/>
+    <cfRule type="top10" dxfId="871" priority="239" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="870" priority="240" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54:S54">
-    <cfRule type="top10" dxfId="817" priority="237" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="816" priority="238" rank="2"/>
+    <cfRule type="top10" dxfId="869" priority="237" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="868" priority="238" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55:S55">
-    <cfRule type="top10" dxfId="815" priority="235" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="814" priority="236" rank="2"/>
+    <cfRule type="top10" dxfId="867" priority="235" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="866" priority="236" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56:S56">
-    <cfRule type="top10" dxfId="813" priority="233" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="812" priority="234" rank="2"/>
+    <cfRule type="top10" dxfId="865" priority="233" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="864" priority="234" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57:S57">
-    <cfRule type="top10" dxfId="811" priority="231" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="810" priority="232" rank="2"/>
+    <cfRule type="top10" dxfId="863" priority="231" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="862" priority="232" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J58:S58">
-    <cfRule type="top10" dxfId="809" priority="229" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="808" priority="230" rank="2"/>
+    <cfRule type="top10" dxfId="861" priority="229" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="860" priority="230" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:I8">
-    <cfRule type="top10" dxfId="807" priority="79" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="806" priority="80" rank="2"/>
+    <cfRule type="top10" dxfId="859" priority="79" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="858" priority="80" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:I9">
-    <cfRule type="top10" dxfId="805" priority="77" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="804" priority="78" rank="2"/>
+    <cfRule type="top10" dxfId="857" priority="77" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="856" priority="78" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:I10">
-    <cfRule type="top10" dxfId="803" priority="75" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="802" priority="76" rank="2"/>
+    <cfRule type="top10" dxfId="855" priority="75" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="854" priority="76" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:I11">
-    <cfRule type="top10" dxfId="801" priority="73" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="800" priority="74" rank="2"/>
+    <cfRule type="top10" dxfId="853" priority="73" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="852" priority="74" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:I12">
-    <cfRule type="top10" dxfId="799" priority="71" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="798" priority="72" rank="2"/>
+    <cfRule type="top10" dxfId="851" priority="71" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="850" priority="72" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:I13">
-    <cfRule type="top10" dxfId="797" priority="69" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="796" priority="70" rank="2"/>
+    <cfRule type="top10" dxfId="849" priority="69" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="848" priority="70" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:I14">
-    <cfRule type="top10" dxfId="795" priority="67" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="794" priority="68" rank="2"/>
+    <cfRule type="top10" dxfId="847" priority="67" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="846" priority="68" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:I15">
-    <cfRule type="top10" dxfId="793" priority="65" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="792" priority="66" rank="2"/>
+    <cfRule type="top10" dxfId="845" priority="65" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="844" priority="66" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:I16">
-    <cfRule type="top10" dxfId="791" priority="63" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="790" priority="64" rank="2"/>
+    <cfRule type="top10" dxfId="843" priority="63" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="842" priority="64" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:J17">
-    <cfRule type="top10" dxfId="789" priority="61" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="788" priority="62" rank="2"/>
+    <cfRule type="top10" dxfId="841" priority="61" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="840" priority="62" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:I21">
-    <cfRule type="top10" dxfId="787" priority="59" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="786" priority="60" rank="2"/>
+    <cfRule type="top10" dxfId="839" priority="59" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="838" priority="60" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:I22">
-    <cfRule type="top10" dxfId="785" priority="57" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="784" priority="58" rank="2"/>
+    <cfRule type="top10" dxfId="837" priority="57" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="836" priority="58" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:I23">
-    <cfRule type="top10" dxfId="783" priority="55" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="782" priority="56" rank="2"/>
+    <cfRule type="top10" dxfId="835" priority="55" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="834" priority="56" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:I24">
-    <cfRule type="top10" dxfId="781" priority="53" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="780" priority="54" rank="2"/>
+    <cfRule type="top10" dxfId="833" priority="53" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="832" priority="54" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:I25">
-    <cfRule type="top10" dxfId="779" priority="51" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="778" priority="52" rank="2"/>
+    <cfRule type="top10" dxfId="831" priority="51" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="830" priority="52" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:I26">
-    <cfRule type="top10" dxfId="777" priority="49" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="776" priority="50" rank="2"/>
+    <cfRule type="top10" dxfId="829" priority="49" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="828" priority="50" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:I27">
-    <cfRule type="top10" dxfId="775" priority="47" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="774" priority="48" rank="2"/>
+    <cfRule type="top10" dxfId="827" priority="47" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="826" priority="48" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:I28">
-    <cfRule type="top10" dxfId="773" priority="45" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="772" priority="46" rank="2"/>
+    <cfRule type="top10" dxfId="825" priority="45" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="824" priority="46" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:I29">
-    <cfRule type="top10" dxfId="771" priority="43" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="770" priority="44" rank="2"/>
+    <cfRule type="top10" dxfId="823" priority="43" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="822" priority="44" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:I30">
-    <cfRule type="top10" dxfId="769" priority="41" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="768" priority="42" rank="2"/>
+    <cfRule type="top10" dxfId="821" priority="41" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="820" priority="42" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:I36">
-    <cfRule type="top10" dxfId="767" priority="39" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="766" priority="40" rank="2"/>
+    <cfRule type="top10" dxfId="819" priority="39" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="818" priority="40" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:I37">
-    <cfRule type="top10" dxfId="765" priority="37" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="764" priority="38" rank="2"/>
+    <cfRule type="top10" dxfId="817" priority="37" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="816" priority="38" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:I38">
-    <cfRule type="top10" dxfId="763" priority="35" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="762" priority="36" rank="2"/>
+    <cfRule type="top10" dxfId="815" priority="35" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="814" priority="36" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:I39">
-    <cfRule type="top10" dxfId="761" priority="33" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="760" priority="34" rank="2"/>
+    <cfRule type="top10" dxfId="813" priority="33" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="812" priority="34" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:I40">
-    <cfRule type="top10" dxfId="759" priority="31" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="758" priority="32" rank="2"/>
+    <cfRule type="top10" dxfId="811" priority="31" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="810" priority="32" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:I41">
-    <cfRule type="top10" dxfId="757" priority="29" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="756" priority="30" rank="2"/>
+    <cfRule type="top10" dxfId="809" priority="29" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="808" priority="30" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:I42">
-    <cfRule type="top10" dxfId="755" priority="27" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="754" priority="28" rank="2"/>
+    <cfRule type="top10" dxfId="807" priority="27" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="806" priority="28" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:I43">
-    <cfRule type="top10" dxfId="753" priority="25" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="752" priority="26" rank="2"/>
+    <cfRule type="top10" dxfId="805" priority="25" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="804" priority="26" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:I44">
-    <cfRule type="top10" dxfId="751" priority="23" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="750" priority="24" rank="2"/>
+    <cfRule type="top10" dxfId="803" priority="23" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="802" priority="24" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:I45">
-    <cfRule type="top10" dxfId="749" priority="21" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="748" priority="22" rank="2"/>
+    <cfRule type="top10" dxfId="801" priority="21" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="800" priority="22" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:I49">
-    <cfRule type="top10" dxfId="747" priority="19" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="746" priority="20" rank="2"/>
+    <cfRule type="top10" dxfId="799" priority="19" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="798" priority="20" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:I50">
-    <cfRule type="top10" dxfId="745" priority="17" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="744" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="797" priority="17" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="796" priority="18" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:I51">
-    <cfRule type="top10" dxfId="743" priority="15" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="742" priority="16" rank="2"/>
+    <cfRule type="top10" dxfId="795" priority="15" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="794" priority="16" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:I52">
-    <cfRule type="top10" dxfId="741" priority="13" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="740" priority="14" rank="2"/>
+    <cfRule type="top10" dxfId="793" priority="13" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="792" priority="14" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:I53">
-    <cfRule type="top10" dxfId="739" priority="11" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="738" priority="12" rank="2"/>
+    <cfRule type="top10" dxfId="791" priority="11" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="790" priority="12" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:I54">
-    <cfRule type="top10" dxfId="737" priority="9" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="736" priority="10" rank="2"/>
+    <cfRule type="top10" dxfId="789" priority="9" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="788" priority="10" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:I55">
-    <cfRule type="top10" dxfId="735" priority="7" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="734" priority="8" rank="2"/>
+    <cfRule type="top10" dxfId="787" priority="7" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="786" priority="8" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:I56">
-    <cfRule type="top10" dxfId="733" priority="5" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="732" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="785" priority="5" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="784" priority="6" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57:I57">
-    <cfRule type="top10" dxfId="731" priority="3" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="730" priority="4" rank="2"/>
+    <cfRule type="top10" dxfId="783" priority="3" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="782" priority="4" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58:I58">
-    <cfRule type="top10" dxfId="729" priority="1" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="728" priority="2" rank="2"/>
+    <cfRule type="top10" dxfId="781" priority="1" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="780" priority="2" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14372,11 +14898,11 @@
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
     </row>
     <row r="7" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
@@ -14580,11 +15106,11 @@
       <c r="I17" s="18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
@@ -14788,11 +15314,11 @@
       <c r="I30" s="18"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
@@ -14996,11 +15522,11 @@
       <c r="I45" s="18"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
@@ -15204,10 +15730,10 @@
       <c r="I58" s="18"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B64" s="11"/>
@@ -15221,300 +15747,300 @@
     <mergeCell ref="B63:E63"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:S8">
-    <cfRule type="top10" dxfId="727" priority="153" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="726" priority="154" rank="2"/>
+    <cfRule type="top10" dxfId="779" priority="153" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="778" priority="154" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:S9">
-    <cfRule type="top10" dxfId="725" priority="151" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="724" priority="152" rank="2"/>
+    <cfRule type="top10" dxfId="777" priority="151" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="776" priority="152" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:S10">
-    <cfRule type="top10" dxfId="723" priority="149" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="722" priority="150" rank="2"/>
+    <cfRule type="top10" dxfId="775" priority="149" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="774" priority="150" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:S11">
-    <cfRule type="top10" dxfId="721" priority="147" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="720" priority="148" rank="2"/>
+    <cfRule type="top10" dxfId="773" priority="147" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="772" priority="148" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:S12">
-    <cfRule type="top10" dxfId="719" priority="145" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="718" priority="146" rank="2"/>
+    <cfRule type="top10" dxfId="771" priority="145" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="770" priority="146" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:S13">
-    <cfRule type="top10" dxfId="717" priority="143" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="716" priority="144" rank="2"/>
+    <cfRule type="top10" dxfId="769" priority="143" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="768" priority="144" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:S14">
-    <cfRule type="top10" dxfId="715" priority="141" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="714" priority="142" rank="2"/>
+    <cfRule type="top10" dxfId="767" priority="141" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="766" priority="142" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:S15">
-    <cfRule type="top10" dxfId="713" priority="139" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="712" priority="140" rank="2"/>
+    <cfRule type="top10" dxfId="765" priority="139" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="764" priority="140" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:S16">
-    <cfRule type="top10" dxfId="711" priority="137" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="710" priority="138" rank="2"/>
+    <cfRule type="top10" dxfId="763" priority="137" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="762" priority="138" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:S17">
-    <cfRule type="top10" dxfId="709" priority="135" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="708" priority="136" rank="2"/>
+    <cfRule type="top10" dxfId="761" priority="135" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="760" priority="136" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22:S22 J22:K22 J37">
-    <cfRule type="top10" dxfId="707" priority="133" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="706" priority="134" rank="2"/>
+    <cfRule type="top10" dxfId="759" priority="133" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="758" priority="134" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23:S23 J23:K23 J38">
-    <cfRule type="top10" dxfId="705" priority="131" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="704" priority="132" rank="2"/>
+    <cfRule type="top10" dxfId="757" priority="131" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="756" priority="132" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24:S24 J24:K24 J39">
-    <cfRule type="top10" dxfId="703" priority="129" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="702" priority="130" rank="2"/>
+    <cfRule type="top10" dxfId="755" priority="129" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="754" priority="130" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:S25 J25:K25 J40">
-    <cfRule type="top10" dxfId="701" priority="127" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="700" priority="128" rank="2"/>
+    <cfRule type="top10" dxfId="753" priority="127" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="752" priority="128" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26:S26 J26:K26 J41">
-    <cfRule type="top10" dxfId="699" priority="125" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="698" priority="126" rank="2"/>
+    <cfRule type="top10" dxfId="751" priority="125" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="750" priority="126" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:S27 J27:K27 J42">
-    <cfRule type="top10" dxfId="697" priority="123" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="696" priority="124" rank="2"/>
+    <cfRule type="top10" dxfId="749" priority="123" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="748" priority="124" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28:S28 J28:K28 J43">
-    <cfRule type="top10" dxfId="695" priority="121" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="694" priority="122" rank="2"/>
+    <cfRule type="top10" dxfId="747" priority="121" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="746" priority="122" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:S29 J29:K29 J44">
-    <cfRule type="top10" dxfId="693" priority="119" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="692" priority="120" rank="2"/>
+    <cfRule type="top10" dxfId="745" priority="119" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="744" priority="120" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:S30">
-    <cfRule type="top10" dxfId="691" priority="117" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="690" priority="118" rank="2"/>
+    <cfRule type="top10" dxfId="743" priority="117" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="742" priority="118" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37:S37">
-    <cfRule type="top10" dxfId="689" priority="115" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="688" priority="116" rank="2"/>
+    <cfRule type="top10" dxfId="741" priority="115" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="740" priority="116" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:S38">
-    <cfRule type="top10" dxfId="687" priority="113" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="686" priority="114" rank="2"/>
+    <cfRule type="top10" dxfId="739" priority="113" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="738" priority="114" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:S39">
-    <cfRule type="top10" dxfId="685" priority="111" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="684" priority="112" rank="2"/>
+    <cfRule type="top10" dxfId="737" priority="111" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="736" priority="112" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:S40">
-    <cfRule type="top10" dxfId="683" priority="109" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="682" priority="110" rank="2"/>
+    <cfRule type="top10" dxfId="735" priority="109" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="734" priority="110" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41:S41">
-    <cfRule type="top10" dxfId="681" priority="107" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="680" priority="108" rank="2"/>
+    <cfRule type="top10" dxfId="733" priority="107" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="732" priority="108" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:S42">
-    <cfRule type="top10" dxfId="679" priority="105" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="678" priority="106" rank="2"/>
+    <cfRule type="top10" dxfId="731" priority="105" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="730" priority="106" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43:S43">
-    <cfRule type="top10" dxfId="677" priority="103" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="676" priority="104" rank="2"/>
+    <cfRule type="top10" dxfId="729" priority="103" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="728" priority="104" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44:S44">
-    <cfRule type="top10" dxfId="675" priority="101" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="674" priority="102" rank="2"/>
+    <cfRule type="top10" dxfId="727" priority="101" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="726" priority="102" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45:S45">
-    <cfRule type="top10" dxfId="673" priority="99" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="672" priority="100" rank="2"/>
+    <cfRule type="top10" dxfId="725" priority="99" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="724" priority="100" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50:S50">
-    <cfRule type="top10" dxfId="671" priority="97" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="670" priority="98" rank="2"/>
+    <cfRule type="top10" dxfId="723" priority="97" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="722" priority="98" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51:S51">
-    <cfRule type="top10" dxfId="669" priority="95" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="668" priority="96" rank="2"/>
+    <cfRule type="top10" dxfId="721" priority="95" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="720" priority="96" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52:S52">
-    <cfRule type="top10" dxfId="667" priority="93" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="666" priority="94" rank="2"/>
+    <cfRule type="top10" dxfId="719" priority="93" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="718" priority="94" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53:S53">
-    <cfRule type="top10" dxfId="665" priority="91" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="664" priority="92" rank="2"/>
+    <cfRule type="top10" dxfId="717" priority="91" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="716" priority="92" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54:S54">
-    <cfRule type="top10" dxfId="663" priority="89" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="662" priority="90" rank="2"/>
+    <cfRule type="top10" dxfId="715" priority="89" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="714" priority="90" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55:S55">
-    <cfRule type="top10" dxfId="661" priority="87" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="660" priority="88" rank="2"/>
+    <cfRule type="top10" dxfId="713" priority="87" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="712" priority="88" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56:S56">
-    <cfRule type="top10" dxfId="659" priority="85" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="658" priority="86" rank="2"/>
+    <cfRule type="top10" dxfId="711" priority="85" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="710" priority="86" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57:S57">
-    <cfRule type="top10" dxfId="657" priority="83" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="656" priority="84" rank="2"/>
+    <cfRule type="top10" dxfId="709" priority="83" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="708" priority="84" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J58:S58">
-    <cfRule type="top10" dxfId="655" priority="81" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="654" priority="82" rank="2"/>
+    <cfRule type="top10" dxfId="707" priority="81" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="706" priority="82" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:I8">
-    <cfRule type="top10" dxfId="653" priority="79" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="652" priority="80" rank="2"/>
+    <cfRule type="top10" dxfId="705" priority="79" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="704" priority="80" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:I9">
-    <cfRule type="top10" dxfId="651" priority="77" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="650" priority="78" rank="2"/>
+    <cfRule type="top10" dxfId="703" priority="77" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="702" priority="78" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:I10">
-    <cfRule type="top10" dxfId="649" priority="75" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="648" priority="76" rank="2"/>
+    <cfRule type="top10" dxfId="701" priority="75" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="700" priority="76" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:I11">
-    <cfRule type="top10" dxfId="647" priority="73" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="646" priority="74" rank="2"/>
+    <cfRule type="top10" dxfId="699" priority="73" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="698" priority="74" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:I12">
-    <cfRule type="top10" dxfId="645" priority="71" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="644" priority="72" rank="2"/>
+    <cfRule type="top10" dxfId="697" priority="71" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="696" priority="72" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:I13">
-    <cfRule type="top10" dxfId="643" priority="69" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="642" priority="70" rank="2"/>
+    <cfRule type="top10" dxfId="695" priority="69" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="694" priority="70" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:I14">
-    <cfRule type="top10" dxfId="641" priority="67" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="640" priority="68" rank="2"/>
+    <cfRule type="top10" dxfId="693" priority="67" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="692" priority="68" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:I15">
-    <cfRule type="top10" dxfId="639" priority="65" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="638" priority="66" rank="2"/>
+    <cfRule type="top10" dxfId="691" priority="65" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="690" priority="66" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:I16">
-    <cfRule type="top10" dxfId="637" priority="63" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="636" priority="64" rank="2"/>
+    <cfRule type="top10" dxfId="689" priority="63" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="688" priority="64" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="top10" dxfId="635" priority="61" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="634" priority="62" rank="2"/>
+    <cfRule type="top10" dxfId="687" priority="61" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="686" priority="62" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:I21">
-    <cfRule type="top10" dxfId="633" priority="59" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="632" priority="60" rank="2"/>
+    <cfRule type="top10" dxfId="685" priority="59" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="684" priority="60" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:I22">
-    <cfRule type="top10" dxfId="631" priority="57" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="630" priority="58" rank="2"/>
+    <cfRule type="top10" dxfId="683" priority="57" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="682" priority="58" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:I23">
-    <cfRule type="top10" dxfId="629" priority="55" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="628" priority="56" rank="2"/>
+    <cfRule type="top10" dxfId="681" priority="55" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="680" priority="56" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:I24">
-    <cfRule type="top10" dxfId="627" priority="53" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="626" priority="54" rank="2"/>
+    <cfRule type="top10" dxfId="679" priority="53" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="678" priority="54" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:I25">
-    <cfRule type="top10" dxfId="625" priority="51" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="624" priority="52" rank="2"/>
+    <cfRule type="top10" dxfId="677" priority="51" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="676" priority="52" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:I26">
-    <cfRule type="top10" dxfId="623" priority="49" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="622" priority="50" rank="2"/>
+    <cfRule type="top10" dxfId="675" priority="49" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="674" priority="50" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:I27">
-    <cfRule type="top10" dxfId="621" priority="47" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="620" priority="48" rank="2"/>
+    <cfRule type="top10" dxfId="673" priority="47" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="672" priority="48" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:I28">
-    <cfRule type="top10" dxfId="619" priority="45" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="618" priority="46" rank="2"/>
+    <cfRule type="top10" dxfId="671" priority="45" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="670" priority="46" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:I29">
-    <cfRule type="top10" dxfId="617" priority="43" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="616" priority="44" rank="2"/>
+    <cfRule type="top10" dxfId="669" priority="43" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="668" priority="44" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:I36">
-    <cfRule type="top10" dxfId="615" priority="39" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="614" priority="40" rank="2"/>
+    <cfRule type="top10" dxfId="667" priority="39" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="666" priority="40" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:I37">
-    <cfRule type="top10" dxfId="613" priority="37" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="612" priority="38" rank="2"/>
+    <cfRule type="top10" dxfId="665" priority="37" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="664" priority="38" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:I38">
-    <cfRule type="top10" dxfId="611" priority="35" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="610" priority="36" rank="2"/>
+    <cfRule type="top10" dxfId="663" priority="35" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="662" priority="36" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:I39">
-    <cfRule type="top10" dxfId="609" priority="33" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="608" priority="34" rank="2"/>
+    <cfRule type="top10" dxfId="661" priority="33" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="660" priority="34" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:I40">
-    <cfRule type="top10" dxfId="607" priority="31" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="606" priority="32" rank="2"/>
+    <cfRule type="top10" dxfId="659" priority="31" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="658" priority="32" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:I41">
-    <cfRule type="top10" dxfId="605" priority="29" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="604" priority="30" rank="2"/>
+    <cfRule type="top10" dxfId="657" priority="29" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="656" priority="30" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:I42">
-    <cfRule type="top10" dxfId="603" priority="27" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="602" priority="28" rank="2"/>
+    <cfRule type="top10" dxfId="655" priority="27" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="654" priority="28" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:I43">
-    <cfRule type="top10" dxfId="601" priority="25" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="600" priority="26" rank="2"/>
+    <cfRule type="top10" dxfId="653" priority="25" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="652" priority="26" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:I44">
-    <cfRule type="top10" dxfId="599" priority="23" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="598" priority="24" rank="2"/>
+    <cfRule type="top10" dxfId="651" priority="23" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="650" priority="24" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:I49">
-    <cfRule type="top10" dxfId="597" priority="19" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="596" priority="20" rank="2"/>
+    <cfRule type="top10" dxfId="649" priority="19" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="648" priority="20" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:I50">
-    <cfRule type="top10" dxfId="595" priority="17" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="594" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="647" priority="17" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="646" priority="18" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:I51">
-    <cfRule type="top10" dxfId="593" priority="15" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="592" priority="16" rank="2"/>
+    <cfRule type="top10" dxfId="645" priority="15" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="644" priority="16" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:I52">
-    <cfRule type="top10" dxfId="591" priority="13" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="590" priority="14" rank="2"/>
+    <cfRule type="top10" dxfId="643" priority="13" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="642" priority="14" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:I53">
-    <cfRule type="top10" dxfId="589" priority="11" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="588" priority="12" rank="2"/>
+    <cfRule type="top10" dxfId="641" priority="11" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="640" priority="12" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:I54">
-    <cfRule type="top10" dxfId="587" priority="9" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="586" priority="10" rank="2"/>
+    <cfRule type="top10" dxfId="639" priority="9" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="638" priority="10" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:I55">
-    <cfRule type="top10" dxfId="585" priority="7" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="584" priority="8" rank="2"/>
+    <cfRule type="top10" dxfId="637" priority="7" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="636" priority="8" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:I56">
-    <cfRule type="top10" dxfId="583" priority="5" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="582" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="635" priority="5" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="634" priority="6" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57:I57">
-    <cfRule type="top10" dxfId="581" priority="3" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="580" priority="4" rank="2"/>
+    <cfRule type="top10" dxfId="633" priority="3" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="632" priority="4" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15574,11 +16100,11 @@
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
     </row>
     <row r="7" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
@@ -15787,11 +16313,11 @@
       <c r="N17" s="20"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
@@ -16000,11 +16526,11 @@
       <c r="N30" s="20"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
@@ -16213,11 +16739,11 @@
       <c r="N45" s="20"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
@@ -16426,10 +16952,10 @@
       <c r="N58" s="20"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B64" s="11"/>
@@ -16443,296 +16969,296 @@
     <mergeCell ref="B63:E63"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:S8">
-    <cfRule type="top10" dxfId="579" priority="219" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="578" priority="220" rank="2"/>
+    <cfRule type="top10" dxfId="631" priority="219" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="630" priority="220" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:S9">
-    <cfRule type="top10" dxfId="577" priority="217" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="576" priority="218" rank="2"/>
+    <cfRule type="top10" dxfId="629" priority="217" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="628" priority="218" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:S10">
-    <cfRule type="top10" dxfId="575" priority="215" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="574" priority="216" rank="2"/>
+    <cfRule type="top10" dxfId="627" priority="215" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="626" priority="216" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:S11">
-    <cfRule type="top10" dxfId="573" priority="213" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="572" priority="214" rank="2"/>
+    <cfRule type="top10" dxfId="625" priority="213" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="624" priority="214" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:S12">
-    <cfRule type="top10" dxfId="571" priority="211" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="570" priority="212" rank="2"/>
+    <cfRule type="top10" dxfId="623" priority="211" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="622" priority="212" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:S13">
-    <cfRule type="top10" dxfId="569" priority="209" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="568" priority="210" rank="2"/>
+    <cfRule type="top10" dxfId="621" priority="209" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="620" priority="210" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:S14">
-    <cfRule type="top10" dxfId="567" priority="207" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="566" priority="208" rank="2"/>
+    <cfRule type="top10" dxfId="619" priority="207" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="618" priority="208" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:S15">
-    <cfRule type="top10" dxfId="565" priority="205" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="564" priority="206" rank="2"/>
+    <cfRule type="top10" dxfId="617" priority="205" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="616" priority="206" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:S16">
-    <cfRule type="top10" dxfId="563" priority="203" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="562" priority="204" rank="2"/>
+    <cfRule type="top10" dxfId="615" priority="203" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="614" priority="204" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:S17">
-    <cfRule type="top10" dxfId="561" priority="201" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="560" priority="202" rank="2"/>
+    <cfRule type="top10" dxfId="613" priority="201" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="612" priority="202" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22:S22 J22:K22 J37">
-    <cfRule type="top10" dxfId="559" priority="199" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="558" priority="200" rank="2"/>
+    <cfRule type="top10" dxfId="611" priority="199" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="610" priority="200" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23:S23 J23:K23 J38">
-    <cfRule type="top10" dxfId="557" priority="197" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="556" priority="198" rank="2"/>
+    <cfRule type="top10" dxfId="609" priority="197" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="608" priority="198" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24:S24 J24:K24 J39">
-    <cfRule type="top10" dxfId="555" priority="195" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="554" priority="196" rank="2"/>
+    <cfRule type="top10" dxfId="607" priority="195" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="606" priority="196" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:S25 J25:K25 J40">
-    <cfRule type="top10" dxfId="553" priority="193" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="552" priority="194" rank="2"/>
+    <cfRule type="top10" dxfId="605" priority="193" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="604" priority="194" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26:S26 J26:K26 J41">
-    <cfRule type="top10" dxfId="551" priority="191" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="550" priority="192" rank="2"/>
+    <cfRule type="top10" dxfId="603" priority="191" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="602" priority="192" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:S27 J27:K27 J42">
-    <cfRule type="top10" dxfId="549" priority="189" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="548" priority="190" rank="2"/>
+    <cfRule type="top10" dxfId="601" priority="189" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="600" priority="190" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28:S28 J28:K28 J43">
-    <cfRule type="top10" dxfId="547" priority="187" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="546" priority="188" rank="2"/>
+    <cfRule type="top10" dxfId="599" priority="187" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="598" priority="188" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:S29 J29:K29 J44">
-    <cfRule type="top10" dxfId="545" priority="185" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="544" priority="186" rank="2"/>
+    <cfRule type="top10" dxfId="597" priority="185" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="596" priority="186" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30:S30">
-    <cfRule type="top10" dxfId="543" priority="183" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="542" priority="184" rank="2"/>
+    <cfRule type="top10" dxfId="595" priority="183" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="594" priority="184" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37:S37">
-    <cfRule type="top10" dxfId="541" priority="181" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="540" priority="182" rank="2"/>
+    <cfRule type="top10" dxfId="593" priority="181" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="592" priority="182" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:S38">
-    <cfRule type="top10" dxfId="539" priority="179" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="538" priority="180" rank="2"/>
+    <cfRule type="top10" dxfId="591" priority="179" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="590" priority="180" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:S39">
-    <cfRule type="top10" dxfId="537" priority="177" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="536" priority="178" rank="2"/>
+    <cfRule type="top10" dxfId="589" priority="177" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="588" priority="178" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:S40">
-    <cfRule type="top10" dxfId="535" priority="175" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="534" priority="176" rank="2"/>
+    <cfRule type="top10" dxfId="587" priority="175" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="586" priority="176" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41:S41">
-    <cfRule type="top10" dxfId="533" priority="173" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="532" priority="174" rank="2"/>
+    <cfRule type="top10" dxfId="585" priority="173" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="584" priority="174" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:S42">
-    <cfRule type="top10" dxfId="531" priority="171" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="530" priority="172" rank="2"/>
+    <cfRule type="top10" dxfId="583" priority="171" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="582" priority="172" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43:S43">
-    <cfRule type="top10" dxfId="529" priority="169" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="528" priority="170" rank="2"/>
+    <cfRule type="top10" dxfId="581" priority="169" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="580" priority="170" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44:S44">
-    <cfRule type="top10" dxfId="527" priority="167" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="526" priority="168" rank="2"/>
+    <cfRule type="top10" dxfId="579" priority="167" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="578" priority="168" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O45:S45">
-    <cfRule type="top10" dxfId="525" priority="165" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="524" priority="166" rank="2"/>
+    <cfRule type="top10" dxfId="577" priority="165" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="576" priority="166" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50:S50">
-    <cfRule type="top10" dxfId="523" priority="163" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="522" priority="164" rank="2"/>
+    <cfRule type="top10" dxfId="575" priority="163" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="574" priority="164" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51:S51">
-    <cfRule type="top10" dxfId="521" priority="161" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="520" priority="162" rank="2"/>
+    <cfRule type="top10" dxfId="573" priority="161" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="572" priority="162" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52:S52">
-    <cfRule type="top10" dxfId="519" priority="159" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="518" priority="160" rank="2"/>
+    <cfRule type="top10" dxfId="571" priority="159" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="570" priority="160" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53:S53">
-    <cfRule type="top10" dxfId="517" priority="157" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="516" priority="158" rank="2"/>
+    <cfRule type="top10" dxfId="569" priority="157" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="568" priority="158" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54:S54">
-    <cfRule type="top10" dxfId="515" priority="155" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="514" priority="156" rank="2"/>
+    <cfRule type="top10" dxfId="567" priority="155" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="566" priority="156" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55:S55">
-    <cfRule type="top10" dxfId="513" priority="153" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="512" priority="154" rank="2"/>
+    <cfRule type="top10" dxfId="565" priority="153" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="564" priority="154" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56:S56">
-    <cfRule type="top10" dxfId="511" priority="151" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="510" priority="152" rank="2"/>
+    <cfRule type="top10" dxfId="563" priority="151" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="562" priority="152" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57:S57">
-    <cfRule type="top10" dxfId="509" priority="149" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="508" priority="150" rank="2"/>
+    <cfRule type="top10" dxfId="561" priority="149" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="560" priority="150" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O58:S58">
-    <cfRule type="top10" dxfId="507" priority="147" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="506" priority="148" rank="2"/>
+    <cfRule type="top10" dxfId="559" priority="147" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="558" priority="148" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:I8 D17:I17">
-    <cfRule type="top10" dxfId="505" priority="71" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="504" priority="72" rank="2"/>
+    <cfRule type="top10" dxfId="557" priority="71" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="556" priority="72" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:I9">
-    <cfRule type="top10" dxfId="503" priority="69" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="502" priority="70" rank="2"/>
+    <cfRule type="top10" dxfId="555" priority="69" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="554" priority="70" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:I10">
-    <cfRule type="top10" dxfId="501" priority="67" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="500" priority="68" rank="2"/>
+    <cfRule type="top10" dxfId="553" priority="67" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="552" priority="68" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:I11">
-    <cfRule type="top10" dxfId="499" priority="65" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="498" priority="66" rank="2"/>
+    <cfRule type="top10" dxfId="551" priority="65" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="550" priority="66" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:I12">
-    <cfRule type="top10" dxfId="497" priority="63" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="496" priority="64" rank="2"/>
+    <cfRule type="top10" dxfId="549" priority="63" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="548" priority="64" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:I13">
-    <cfRule type="top10" dxfId="495" priority="61" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="494" priority="62" rank="2"/>
+    <cfRule type="top10" dxfId="547" priority="61" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="546" priority="62" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:I14">
-    <cfRule type="top10" dxfId="493" priority="59" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="492" priority="60" rank="2"/>
+    <cfRule type="top10" dxfId="545" priority="59" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="544" priority="60" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:I15">
-    <cfRule type="top10" dxfId="491" priority="57" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="490" priority="58" rank="2"/>
+    <cfRule type="top10" dxfId="543" priority="57" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="542" priority="58" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:I16">
-    <cfRule type="top10" dxfId="489" priority="55" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="488" priority="56" rank="2"/>
+    <cfRule type="top10" dxfId="541" priority="55" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="540" priority="56" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:I21 D30:I30">
-    <cfRule type="top10" dxfId="487" priority="53" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="486" priority="54" rank="2"/>
+    <cfRule type="top10" dxfId="539" priority="53" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="538" priority="54" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:I22">
-    <cfRule type="top10" dxfId="485" priority="51" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="484" priority="52" rank="2"/>
+    <cfRule type="top10" dxfId="537" priority="51" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="536" priority="52" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:I23">
-    <cfRule type="top10" dxfId="483" priority="49" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="482" priority="50" rank="2"/>
+    <cfRule type="top10" dxfId="535" priority="49" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="534" priority="50" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:I24">
-    <cfRule type="top10" dxfId="481" priority="47" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="480" priority="48" rank="2"/>
+    <cfRule type="top10" dxfId="533" priority="47" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="532" priority="48" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:I25">
-    <cfRule type="top10" dxfId="479" priority="45" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="478" priority="46" rank="2"/>
+    <cfRule type="top10" dxfId="531" priority="45" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="530" priority="46" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:I26">
-    <cfRule type="top10" dxfId="477" priority="43" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="476" priority="44" rank="2"/>
+    <cfRule type="top10" dxfId="529" priority="43" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="528" priority="44" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:I27">
-    <cfRule type="top10" dxfId="475" priority="41" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="474" priority="42" rank="2"/>
+    <cfRule type="top10" dxfId="527" priority="41" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="526" priority="42" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:I28">
-    <cfRule type="top10" dxfId="473" priority="39" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="472" priority="40" rank="2"/>
+    <cfRule type="top10" dxfId="525" priority="39" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="524" priority="40" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:I29">
-    <cfRule type="top10" dxfId="471" priority="37" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="470" priority="38" rank="2"/>
+    <cfRule type="top10" dxfId="523" priority="37" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="522" priority="38" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:I36 D45:I45">
-    <cfRule type="top10" dxfId="469" priority="35" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="468" priority="36" rank="2"/>
+    <cfRule type="top10" dxfId="521" priority="35" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="520" priority="36" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:I37">
-    <cfRule type="top10" dxfId="467" priority="33" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="466" priority="34" rank="2"/>
+    <cfRule type="top10" dxfId="519" priority="33" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="518" priority="34" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:I38">
-    <cfRule type="top10" dxfId="465" priority="31" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="464" priority="32" rank="2"/>
+    <cfRule type="top10" dxfId="517" priority="31" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="516" priority="32" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:I39">
-    <cfRule type="top10" dxfId="463" priority="29" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="462" priority="30" rank="2"/>
+    <cfRule type="top10" dxfId="515" priority="29" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="514" priority="30" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:I40">
-    <cfRule type="top10" dxfId="461" priority="27" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="460" priority="28" rank="2"/>
+    <cfRule type="top10" dxfId="513" priority="27" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="512" priority="28" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:I41">
-    <cfRule type="top10" dxfId="459" priority="25" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="458" priority="26" rank="2"/>
+    <cfRule type="top10" dxfId="511" priority="25" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="510" priority="26" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:I42">
-    <cfRule type="top10" dxfId="457" priority="23" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="456" priority="24" rank="2"/>
+    <cfRule type="top10" dxfId="509" priority="23" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="508" priority="24" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:I43">
-    <cfRule type="top10" dxfId="455" priority="21" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="454" priority="22" rank="2"/>
+    <cfRule type="top10" dxfId="507" priority="21" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="506" priority="22" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:I44">
-    <cfRule type="top10" dxfId="453" priority="19" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="452" priority="20" rank="2"/>
+    <cfRule type="top10" dxfId="505" priority="19" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="504" priority="20" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:I49 D58:I58">
-    <cfRule type="top10" dxfId="451" priority="17" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="450" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="503" priority="17" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="502" priority="18" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:I50">
-    <cfRule type="top10" dxfId="449" priority="15" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="448" priority="16" rank="2"/>
+    <cfRule type="top10" dxfId="501" priority="15" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="500" priority="16" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:I51">
-    <cfRule type="top10" dxfId="447" priority="13" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="446" priority="14" rank="2"/>
+    <cfRule type="top10" dxfId="499" priority="13" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="498" priority="14" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:I52">
-    <cfRule type="top10" dxfId="445" priority="11" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="444" priority="12" rank="2"/>
+    <cfRule type="top10" dxfId="497" priority="11" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="496" priority="12" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:I53">
-    <cfRule type="top10" dxfId="443" priority="9" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="442" priority="10" rank="2"/>
+    <cfRule type="top10" dxfId="495" priority="9" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="494" priority="10" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:I54">
-    <cfRule type="top10" dxfId="441" priority="7" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="440" priority="8" rank="2"/>
+    <cfRule type="top10" dxfId="493" priority="7" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="492" priority="8" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:I55">
-    <cfRule type="top10" dxfId="439" priority="5" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="438" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="491" priority="5" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="490" priority="6" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:I56">
-    <cfRule type="top10" dxfId="437" priority="3" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="436" priority="4" rank="2"/>
+    <cfRule type="top10" dxfId="489" priority="3" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="488" priority="4" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57:I57">
-    <cfRule type="top10" dxfId="435" priority="1" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="434" priority="2" rank="2"/>
+    <cfRule type="top10" dxfId="487" priority="1" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="486" priority="2" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16794,17 +17320,17 @@
       <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
     </row>
     <row r="7" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
@@ -17042,11 +17568,11 @@
       <c r="M18" s="26"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
       <c r="J19" s="26"/>
@@ -17288,11 +17814,11 @@
       <c r="K30" s="29"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
@@ -17516,11 +18042,11 @@
       <c r="K45" s="29"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="22" t="s">
@@ -17744,12 +18270,12 @@
       <c r="K58" s="29"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
@@ -17770,424 +18296,424 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L8:P8">
-    <cfRule type="top10" dxfId="433" priority="487" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="432" priority="488" rank="2"/>
+    <cfRule type="top10" dxfId="485" priority="487" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="484" priority="488" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:P9">
-    <cfRule type="top10" dxfId="431" priority="485" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="430" priority="486" rank="2"/>
+    <cfRule type="top10" dxfId="483" priority="485" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="482" priority="486" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:P10">
-    <cfRule type="top10" dxfId="429" priority="483" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="428" priority="484" rank="2"/>
+    <cfRule type="top10" dxfId="481" priority="483" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="480" priority="484" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:P11">
-    <cfRule type="top10" dxfId="427" priority="481" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="426" priority="482" rank="2"/>
+    <cfRule type="top10" dxfId="479" priority="481" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="478" priority="482" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:P12">
-    <cfRule type="top10" dxfId="425" priority="479" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="424" priority="480" rank="2"/>
+    <cfRule type="top10" dxfId="477" priority="479" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="476" priority="480" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:P13">
-    <cfRule type="top10" dxfId="423" priority="477" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="422" priority="478" rank="2"/>
+    <cfRule type="top10" dxfId="475" priority="477" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="474" priority="478" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:P14">
-    <cfRule type="top10" dxfId="421" priority="475" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="420" priority="476" rank="2"/>
+    <cfRule type="top10" dxfId="473" priority="475" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="472" priority="476" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:P15">
-    <cfRule type="top10" dxfId="419" priority="473" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="418" priority="474" rank="2"/>
+    <cfRule type="top10" dxfId="471" priority="473" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="470" priority="474" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:P16">
-    <cfRule type="top10" dxfId="417" priority="471" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="416" priority="472" rank="2"/>
+    <cfRule type="top10" dxfId="469" priority="471" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="468" priority="472" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:P17">
-    <cfRule type="top10" dxfId="415" priority="469" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="414" priority="470" rank="2"/>
+    <cfRule type="top10" dxfId="467" priority="469" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="466" priority="470" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:P22">
-    <cfRule type="top10" dxfId="413" priority="467" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="412" priority="468" rank="2"/>
+    <cfRule type="top10" dxfId="465" priority="467" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="464" priority="468" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:P23">
-    <cfRule type="top10" dxfId="411" priority="465" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="410" priority="466" rank="2"/>
+    <cfRule type="top10" dxfId="463" priority="465" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="462" priority="466" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24:P24">
-    <cfRule type="top10" dxfId="409" priority="463" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="408" priority="464" rank="2"/>
+    <cfRule type="top10" dxfId="461" priority="463" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="460" priority="464" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25:P25">
-    <cfRule type="top10" dxfId="407" priority="461" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="406" priority="462" rank="2"/>
+    <cfRule type="top10" dxfId="459" priority="461" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="458" priority="462" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26:P26">
-    <cfRule type="top10" dxfId="405" priority="459" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="404" priority="460" rank="2"/>
+    <cfRule type="top10" dxfId="457" priority="459" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="456" priority="460" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:P27">
-    <cfRule type="top10" dxfId="403" priority="457" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="402" priority="458" rank="2"/>
+    <cfRule type="top10" dxfId="455" priority="457" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="454" priority="458" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28:P28">
-    <cfRule type="top10" dxfId="401" priority="455" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="400" priority="456" rank="2"/>
+    <cfRule type="top10" dxfId="453" priority="455" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="452" priority="456" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29:P29">
-    <cfRule type="top10" dxfId="399" priority="453" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="398" priority="454" rank="2"/>
+    <cfRule type="top10" dxfId="451" priority="453" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="450" priority="454" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30:P30">
-    <cfRule type="top10" dxfId="397" priority="451" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="396" priority="452" rank="2"/>
+    <cfRule type="top10" dxfId="449" priority="451" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="448" priority="452" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37:P37">
-    <cfRule type="top10" dxfId="395" priority="449" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="394" priority="450" rank="2"/>
+    <cfRule type="top10" dxfId="447" priority="449" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="446" priority="450" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38:P38">
-    <cfRule type="top10" dxfId="393" priority="447" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="392" priority="448" rank="2"/>
+    <cfRule type="top10" dxfId="445" priority="447" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="444" priority="448" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:P39">
-    <cfRule type="top10" dxfId="391" priority="445" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="390" priority="446" rank="2"/>
+    <cfRule type="top10" dxfId="443" priority="445" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="442" priority="446" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40:P40">
-    <cfRule type="top10" dxfId="389" priority="443" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="388" priority="444" rank="2"/>
+    <cfRule type="top10" dxfId="441" priority="443" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="440" priority="444" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41:P41">
-    <cfRule type="top10" dxfId="387" priority="441" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="386" priority="442" rank="2"/>
+    <cfRule type="top10" dxfId="439" priority="441" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="438" priority="442" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L42:P42">
-    <cfRule type="top10" dxfId="385" priority="439" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="384" priority="440" rank="2"/>
+    <cfRule type="top10" dxfId="437" priority="439" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="436" priority="440" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L43:P43">
-    <cfRule type="top10" dxfId="383" priority="437" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="382" priority="438" rank="2"/>
+    <cfRule type="top10" dxfId="435" priority="437" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="434" priority="438" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44:P44">
-    <cfRule type="top10" dxfId="381" priority="435" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="380" priority="436" rank="2"/>
+    <cfRule type="top10" dxfId="433" priority="435" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="432" priority="436" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:P45">
-    <cfRule type="top10" dxfId="379" priority="433" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="378" priority="434" rank="2"/>
+    <cfRule type="top10" dxfId="431" priority="433" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="430" priority="434" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L50:P50">
-    <cfRule type="top10" dxfId="377" priority="431" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="376" priority="432" rank="2"/>
+    <cfRule type="top10" dxfId="429" priority="431" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="428" priority="432" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51:P51">
-    <cfRule type="top10" dxfId="375" priority="429" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="374" priority="430" rank="2"/>
+    <cfRule type="top10" dxfId="427" priority="429" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="426" priority="430" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:P52">
-    <cfRule type="top10" dxfId="373" priority="427" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="372" priority="428" rank="2"/>
+    <cfRule type="top10" dxfId="425" priority="427" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="424" priority="428" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L53:P53">
-    <cfRule type="top10" dxfId="371" priority="425" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="370" priority="426" rank="2"/>
+    <cfRule type="top10" dxfId="423" priority="425" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="422" priority="426" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L54:P54">
-    <cfRule type="top10" dxfId="369" priority="423" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="368" priority="424" rank="2"/>
+    <cfRule type="top10" dxfId="421" priority="423" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="420" priority="424" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55:P55">
-    <cfRule type="top10" dxfId="367" priority="421" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="366" priority="422" rank="2"/>
+    <cfRule type="top10" dxfId="419" priority="421" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="418" priority="422" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L56:P56">
-    <cfRule type="top10" dxfId="365" priority="419" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="364" priority="420" rank="2"/>
+    <cfRule type="top10" dxfId="417" priority="419" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="416" priority="420" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57:P57">
-    <cfRule type="top10" dxfId="363" priority="417" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="362" priority="418" rank="2"/>
+    <cfRule type="top10" dxfId="415" priority="417" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="414" priority="418" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L58:P58">
-    <cfRule type="top10" dxfId="361" priority="415" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="360" priority="416" rank="2"/>
+    <cfRule type="top10" dxfId="413" priority="415" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="412" priority="416" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="top10" dxfId="359" priority="341" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="358" priority="342" rank="2"/>
+    <cfRule type="top10" dxfId="411" priority="341" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="410" priority="342" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="top10" dxfId="357" priority="339" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="356" priority="340" rank="2"/>
+    <cfRule type="top10" dxfId="409" priority="339" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="408" priority="340" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="top10" dxfId="355" priority="337" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="354" priority="338" rank="2"/>
+    <cfRule type="top10" dxfId="407" priority="337" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="406" priority="338" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18">
-    <cfRule type="top10" dxfId="353" priority="335" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="352" priority="336" rank="2"/>
+    <cfRule type="top10" dxfId="405" priority="335" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="404" priority="336" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="top10" dxfId="351" priority="333" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="350" priority="334" rank="2"/>
+    <cfRule type="top10" dxfId="403" priority="333" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="402" priority="334" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="top10" dxfId="349" priority="331" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="348" priority="332" rank="2"/>
+    <cfRule type="top10" dxfId="401" priority="331" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="400" priority="332" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21">
-    <cfRule type="top10" dxfId="347" priority="329" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="346" priority="330" rank="2"/>
+    <cfRule type="top10" dxfId="399" priority="329" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="398" priority="330" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22">
-    <cfRule type="top10" dxfId="345" priority="327" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="344" priority="328" rank="2"/>
+    <cfRule type="top10" dxfId="397" priority="327" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="396" priority="328" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23">
-    <cfRule type="top10" dxfId="343" priority="325" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="342" priority="326" rank="2"/>
+    <cfRule type="top10" dxfId="395" priority="325" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="394" priority="326" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="top10" dxfId="341" priority="323" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="340" priority="324" rank="2"/>
+    <cfRule type="top10" dxfId="393" priority="323" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="392" priority="324" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="top10" dxfId="339" priority="321" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="338" priority="322" rank="2"/>
+    <cfRule type="top10" dxfId="391" priority="321" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="390" priority="322" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="top10" dxfId="337" priority="319" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="336" priority="320" rank="2"/>
+    <cfRule type="top10" dxfId="389" priority="319" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="388" priority="320" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="top10" dxfId="335" priority="311" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="334" priority="312" rank="2"/>
+    <cfRule type="top10" dxfId="387" priority="311" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="386" priority="312" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="top10" dxfId="333" priority="309" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="332" priority="310" rank="2"/>
+    <cfRule type="top10" dxfId="385" priority="309" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="384" priority="310" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="top10" dxfId="331" priority="307" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="330" priority="308" rank="2"/>
+    <cfRule type="top10" dxfId="383" priority="307" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="382" priority="308" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:K8">
-    <cfRule type="top10" dxfId="329" priority="59" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="328" priority="60" rank="2"/>
+    <cfRule type="top10" dxfId="381" priority="59" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="380" priority="60" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:K9">
-    <cfRule type="top10" dxfId="327" priority="57" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="326" priority="58" rank="2"/>
+    <cfRule type="top10" dxfId="379" priority="57" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="378" priority="58" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:K10">
-    <cfRule type="top10" dxfId="325" priority="55" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="324" priority="56" rank="2"/>
+    <cfRule type="top10" dxfId="377" priority="55" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="376" priority="56" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:K11">
-    <cfRule type="top10" dxfId="323" priority="53" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="322" priority="54" rank="2"/>
+    <cfRule type="top10" dxfId="375" priority="53" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="374" priority="54" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:K12">
-    <cfRule type="top10" dxfId="321" priority="51" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="320" priority="52" rank="2"/>
+    <cfRule type="top10" dxfId="373" priority="51" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="372" priority="52" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:K13">
-    <cfRule type="top10" dxfId="319" priority="49" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="318" priority="50" rank="2"/>
+    <cfRule type="top10" dxfId="371" priority="49" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="370" priority="50" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:K14">
-    <cfRule type="top10" dxfId="317" priority="47" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="316" priority="48" rank="2"/>
+    <cfRule type="top10" dxfId="369" priority="47" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="368" priority="48" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:K15">
-    <cfRule type="top10" dxfId="315" priority="45" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="314" priority="46" rank="2"/>
+    <cfRule type="top10" dxfId="367" priority="45" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="366" priority="46" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:K16">
-    <cfRule type="top10" dxfId="313" priority="43" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="312" priority="44" rank="2"/>
+    <cfRule type="top10" dxfId="365" priority="43" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="364" priority="44" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:K17">
-    <cfRule type="top10" dxfId="311" priority="41" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="310" priority="42" rank="2"/>
+    <cfRule type="top10" dxfId="363" priority="41" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="362" priority="42" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:L18">
-    <cfRule type="top10" dxfId="309" priority="537" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="308" priority="538" rank="2"/>
+    <cfRule type="top10" dxfId="361" priority="537" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="360" priority="538" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:L19">
-    <cfRule type="top10" dxfId="307" priority="539" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="306" priority="540" rank="2"/>
+    <cfRule type="top10" dxfId="359" priority="539" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="358" priority="540" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:L20">
-    <cfRule type="top10" dxfId="305" priority="541" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="304" priority="542" rank="2"/>
+    <cfRule type="top10" dxfId="357" priority="541" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="356" priority="542" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:K49">
-    <cfRule type="top10" dxfId="303" priority="543" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="302" priority="544" rank="2"/>
+    <cfRule type="top10" dxfId="355" priority="543" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="354" priority="544" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:K50">
-    <cfRule type="top10" dxfId="301" priority="547" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="300" priority="548" rank="2"/>
+    <cfRule type="top10" dxfId="353" priority="547" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="352" priority="548" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:K51">
-    <cfRule type="top10" dxfId="299" priority="551" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="298" priority="552" rank="2"/>
+    <cfRule type="top10" dxfId="351" priority="551" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="350" priority="552" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:K52">
-    <cfRule type="top10" dxfId="297" priority="555" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="296" priority="556" rank="2"/>
+    <cfRule type="top10" dxfId="349" priority="555" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="348" priority="556" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:K53">
-    <cfRule type="top10" dxfId="295" priority="559" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="294" priority="560" rank="2"/>
+    <cfRule type="top10" dxfId="347" priority="559" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="346" priority="560" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:K54">
-    <cfRule type="top10" dxfId="293" priority="563" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="292" priority="564" rank="2"/>
+    <cfRule type="top10" dxfId="345" priority="563" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="344" priority="564" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:K55">
-    <cfRule type="top10" dxfId="291" priority="567" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="290" priority="568" rank="2"/>
+    <cfRule type="top10" dxfId="343" priority="567" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="342" priority="568" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:K56">
-    <cfRule type="top10" dxfId="289" priority="571" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="288" priority="572" rank="2"/>
+    <cfRule type="top10" dxfId="341" priority="571" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="340" priority="572" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57:K57">
-    <cfRule type="top10" dxfId="287" priority="575" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="286" priority="576" rank="2"/>
+    <cfRule type="top10" dxfId="339" priority="575" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="338" priority="576" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58:K58">
-    <cfRule type="top10" dxfId="285" priority="579" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="284" priority="580" rank="2"/>
+    <cfRule type="top10" dxfId="337" priority="579" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="336" priority="580" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:K36">
-    <cfRule type="top10" dxfId="283" priority="583" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="282" priority="584" rank="2"/>
+    <cfRule type="top10" dxfId="335" priority="583" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="334" priority="584" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:K37">
-    <cfRule type="top10" dxfId="281" priority="587" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="280" priority="588" rank="2"/>
+    <cfRule type="top10" dxfId="333" priority="587" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="332" priority="588" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:K38">
-    <cfRule type="top10" dxfId="279" priority="591" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="278" priority="592" rank="2"/>
+    <cfRule type="top10" dxfId="331" priority="591" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="330" priority="592" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:K39">
-    <cfRule type="top10" dxfId="277" priority="595" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="276" priority="596" rank="2"/>
+    <cfRule type="top10" dxfId="329" priority="595" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="328" priority="596" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:K40">
-    <cfRule type="top10" dxfId="275" priority="599" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="274" priority="600" rank="2"/>
+    <cfRule type="top10" dxfId="327" priority="599" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="326" priority="600" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:K41">
-    <cfRule type="top10" dxfId="273" priority="603" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="272" priority="604" rank="2"/>
+    <cfRule type="top10" dxfId="325" priority="603" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="324" priority="604" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:K42">
-    <cfRule type="top10" dxfId="271" priority="607" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="270" priority="608" rank="2"/>
+    <cfRule type="top10" dxfId="323" priority="607" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="322" priority="608" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:K43">
-    <cfRule type="top10" dxfId="269" priority="611" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="268" priority="612" rank="2"/>
+    <cfRule type="top10" dxfId="321" priority="611" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="320" priority="612" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:K44">
-    <cfRule type="top10" dxfId="267" priority="615" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="266" priority="616" rank="2"/>
+    <cfRule type="top10" dxfId="319" priority="615" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="318" priority="616" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:K45">
-    <cfRule type="top10" dxfId="265" priority="619" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="264" priority="620" rank="2"/>
+    <cfRule type="top10" dxfId="317" priority="619" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="316" priority="620" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:K21">
-    <cfRule type="top10" dxfId="263" priority="623" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="262" priority="624" rank="2"/>
+    <cfRule type="top10" dxfId="315" priority="623" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="314" priority="624" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:K22">
-    <cfRule type="top10" dxfId="261" priority="627" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="260" priority="628" rank="2"/>
+    <cfRule type="top10" dxfId="313" priority="627" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="312" priority="628" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:K23">
-    <cfRule type="top10" dxfId="259" priority="631" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="258" priority="632" rank="2"/>
+    <cfRule type="top10" dxfId="311" priority="631" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="310" priority="632" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:K24">
-    <cfRule type="top10" dxfId="257" priority="635" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="256" priority="636" rank="2"/>
+    <cfRule type="top10" dxfId="309" priority="635" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="308" priority="636" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:K25">
-    <cfRule type="top10" dxfId="255" priority="639" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="254" priority="640" rank="2"/>
+    <cfRule type="top10" dxfId="307" priority="639" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="306" priority="640" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:K26">
-    <cfRule type="top10" dxfId="253" priority="643" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="252" priority="644" rank="2"/>
+    <cfRule type="top10" dxfId="305" priority="643" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="304" priority="644" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:K27">
-    <cfRule type="top10" dxfId="251" priority="647" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="250" priority="648" rank="2"/>
+    <cfRule type="top10" dxfId="303" priority="647" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="302" priority="648" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:K28">
-    <cfRule type="top10" dxfId="249" priority="651" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="248" priority="652" rank="2"/>
+    <cfRule type="top10" dxfId="301" priority="651" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="300" priority="652" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:K29">
-    <cfRule type="top10" dxfId="247" priority="655" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="246" priority="656" rank="2"/>
+    <cfRule type="top10" dxfId="299" priority="655" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="298" priority="656" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:K30">
-    <cfRule type="top10" dxfId="245" priority="659" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="244" priority="660" rank="2"/>
+    <cfRule type="top10" dxfId="297" priority="659" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="296" priority="660" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:H8">
-    <cfRule type="top10" dxfId="243" priority="663" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="242" priority="664" rank="2"/>
+    <cfRule type="top10" dxfId="295" priority="663" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="294" priority="664" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:H9">
-    <cfRule type="top10" dxfId="241" priority="667" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="240" priority="668" rank="2"/>
+    <cfRule type="top10" dxfId="293" priority="667" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="292" priority="668" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:H10">
-    <cfRule type="top10" dxfId="239" priority="671" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="238" priority="672" rank="2"/>
+    <cfRule type="top10" dxfId="291" priority="671" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="290" priority="672" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:H11">
-    <cfRule type="top10" dxfId="237" priority="675" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="236" priority="676" rank="2"/>
+    <cfRule type="top10" dxfId="289" priority="675" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="288" priority="676" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:H12">
-    <cfRule type="top10" dxfId="235" priority="679" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="234" priority="680" rank="2"/>
+    <cfRule type="top10" dxfId="287" priority="679" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="286" priority="680" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:H13">
-    <cfRule type="top10" dxfId="233" priority="683" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="232" priority="684" rank="2"/>
+    <cfRule type="top10" dxfId="285" priority="683" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="284" priority="684" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:H14">
-    <cfRule type="top10" dxfId="231" priority="687" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="230" priority="688" rank="2"/>
+    <cfRule type="top10" dxfId="283" priority="687" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="282" priority="688" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:H15">
-    <cfRule type="top10" dxfId="229" priority="691" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="228" priority="692" rank="2"/>
+    <cfRule type="top10" dxfId="281" priority="691" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="280" priority="692" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:H16">
-    <cfRule type="top10" dxfId="227" priority="695" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="226" priority="696" rank="2"/>
+    <cfRule type="top10" dxfId="279" priority="695" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="278" priority="696" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:H17">
-    <cfRule type="top10" dxfId="225" priority="699" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="224" priority="700" rank="2"/>
+    <cfRule type="top10" dxfId="277" priority="699" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="276" priority="700" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18197,8 +18723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074179C5-60BD-487A-A7CA-804BEDBF222E}">
   <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:Q58"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18246,26 +18772,26 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="30" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
     </row>
     <row r="7" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
@@ -18282,140 +18808,167 @@
       <c r="A8" s="29">
         <v>1</v>
       </c>
-      <c r="B8" s="3" t="e">
+      <c r="B8" s="3">
         <f>AVERAGE(D8:AJ8)</f>
-        <v>#DIV/0!</v>
+        <v>0.86458299999999999</v>
       </c>
       <c r="C8" s="4">
         <f>MAX(D8:AJ8)</f>
-        <v>0</v>
+        <v>0.86458299999999999</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0.86458299999999999</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
         <v>2</v>
       </c>
-      <c r="B9" s="5" t="e">
+      <c r="B9" s="5">
         <f t="shared" ref="B9:B16" si="0">AVERAGE(D9:AJ9)</f>
-        <v>#DIV/0!</v>
+        <v>0.70833299999999999</v>
       </c>
       <c r="C9" s="6">
         <f t="shared" ref="C9:C16" si="1">MAX(D9:AJ9)</f>
-        <v>0</v>
+        <v>0.70833299999999999</v>
+      </c>
+      <c r="D9" s="37">
+        <v>0.70833299999999999</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="29">
         <v>3</v>
       </c>
-      <c r="B10" s="5" t="e">
+      <c r="B10" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.875</v>
       </c>
       <c r="C10" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="D10" s="37">
+        <v>0.875</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <v>4</v>
       </c>
-      <c r="B11" s="5" t="e">
+      <c r="B11" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.77083299999999999</v>
       </c>
       <c r="C11" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.77083299999999999</v>
+      </c>
+      <c r="D11" s="37">
+        <v>0.77083299999999999</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="29">
         <v>5</v>
       </c>
-      <c r="B12" s="5" t="e">
+      <c r="B12" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.84375</v>
       </c>
       <c r="C12" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.84375</v>
+      </c>
+      <c r="D12" s="37">
+        <v>0.84375</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="29">
         <v>6</v>
       </c>
-      <c r="B13" s="5" t="e">
+      <c r="B13" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.81597200000000003</v>
       </c>
       <c r="C13" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.81597200000000003</v>
+      </c>
+      <c r="D13" s="37">
+        <v>0.81597200000000003</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="29">
         <v>7</v>
       </c>
-      <c r="B14" s="5" t="e">
+      <c r="B14" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.86458299999999999</v>
       </c>
       <c r="C14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.86458299999999999</v>
+      </c>
+      <c r="D14" s="37">
+        <v>0.86458299999999999</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="29">
         <v>8</v>
       </c>
-      <c r="B15" s="5" t="e">
+      <c r="B15" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.86805600000000005</v>
       </c>
       <c r="C15" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.86805600000000005</v>
+      </c>
+      <c r="D15" s="37">
+        <v>0.86805600000000005</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="29">
         <v>9</v>
       </c>
-      <c r="B16" s="7" t="e">
+      <c r="B16" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.91319399999999995</v>
       </c>
       <c r="C16" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.91319399999999995</v>
+      </c>
+      <c r="D16" s="37">
+        <v>0.91319399999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="29" t="e">
+      <c r="B17" s="29">
         <f>AVERAGE(B8:B16)</f>
-        <v>#DIV/0!</v>
+        <v>0.83603377777777788</v>
       </c>
       <c r="C17" s="29">
         <f>AVERAGE(C8:C16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+        <v>0.83603377777777788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>0</v>
       </c>
@@ -18426,144 +18979,185 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="29">
         <v>1</v>
       </c>
-      <c r="B21" s="3" t="e">
+      <c r="B21" s="3">
         <f>AVERAGE(D21:AJ21)</f>
-        <v>#DIV/0!</v>
+        <v>0.81944399999999995</v>
       </c>
       <c r="C21" s="4">
         <f>MAX(D21:AJ21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.81944399999999995</v>
+      </c>
+      <c r="D21" s="37">
+        <v>0.81944399999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="29">
         <v>2</v>
       </c>
-      <c r="B22" s="5" t="e">
+      <c r="B22" s="5">
         <f t="shared" ref="B22:B29" si="2">AVERAGE(D22:AJ22)</f>
-        <v>#DIV/0!</v>
+        <v>0.61111099999999996</v>
       </c>
       <c r="C22" s="6">
         <f t="shared" ref="C22:C29" si="3">MAX(D22:AJ22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.61111099999999996</v>
+      </c>
+      <c r="D22" s="37">
+        <v>0.61111099999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="29">
         <v>3</v>
       </c>
-      <c r="B23" s="5" t="e">
+      <c r="B23" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.83333299999999999</v>
       </c>
       <c r="C23" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="D23" s="37">
+        <v>0.83333299999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="29">
         <v>4</v>
       </c>
-      <c r="B24" s="5" t="e">
+      <c r="B24" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.69444399999999995</v>
       </c>
       <c r="C24" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.69444399999999995</v>
+      </c>
+      <c r="D24" s="37">
+        <v>0.69444399999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="29">
         <v>5</v>
       </c>
-      <c r="B25" s="5" t="e">
+      <c r="B25" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.79166700000000001</v>
       </c>
       <c r="C25" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.79166700000000001</v>
+      </c>
+      <c r="D25" s="37">
+        <v>0.79166700000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="29">
         <v>6</v>
       </c>
-      <c r="B26" s="5" t="e">
+      <c r="B26" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.75463000000000002</v>
       </c>
       <c r="C26" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.75463000000000002</v>
+      </c>
+      <c r="D26" s="37">
+        <v>0.75463000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="29">
         <v>7</v>
       </c>
-      <c r="B27" s="5" t="e">
+      <c r="B27" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.81944399999999995</v>
       </c>
       <c r="C27" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.81944399999999995</v>
+      </c>
+      <c r="D27" s="37">
+        <v>0.81944399999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="29">
         <v>8</v>
       </c>
-      <c r="B28" s="5" t="e">
+      <c r="B28" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.82407399999999997</v>
       </c>
       <c r="C28" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.82407399999999997</v>
+      </c>
+      <c r="D28" s="37">
+        <v>0.82407399999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="29">
         <v>9</v>
       </c>
-      <c r="B29" s="7" t="e">
+      <c r="B29" s="7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.88425900000000002</v>
       </c>
       <c r="C29" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.88425900000000002</v>
+      </c>
+      <c r="D29" s="37">
+        <v>0.88425900000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="29" t="e">
+      <c r="B30" s="29">
         <f>AVERAGE(B21:B29)</f>
-        <v>#DIV/0!</v>
+        <v>0.78137844444444449</v>
       </c>
       <c r="C30" s="29">
         <f>AVERAGE(C21:C29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
+        <v>0.78137844444444449</v>
+      </c>
+      <c r="D30" s="37">
+        <f t="shared" ref="D30" si="4">AVERAGE(D21:D29)</f>
+        <v>0.78137844444444449</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="37"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="37"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="37"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="37"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
         <v>0</v>
       </c>
@@ -18573,145 +19167,181 @@
       <c r="C35" s="29" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="37"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="29">
         <v>1</v>
       </c>
-      <c r="B36" s="3" t="e">
+      <c r="B36" s="3">
         <f>AVERAGE(D36:AJ36)</f>
-        <v>#DIV/0!</v>
+        <v>0.88194399999999995</v>
       </c>
       <c r="C36" s="4">
         <f>MAX(D36:AJ36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.88194399999999995</v>
+      </c>
+      <c r="D36" s="37">
+        <v>0.88194399999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="29">
         <v>2</v>
       </c>
-      <c r="B37" s="5" t="e">
-        <f t="shared" ref="B37:B44" si="4">AVERAGE(D37:AJ37)</f>
-        <v>#DIV/0!</v>
+      <c r="B37" s="5">
+        <f t="shared" ref="B37:B44" si="5">AVERAGE(D37:AJ37)</f>
+        <v>0.73958299999999999</v>
       </c>
       <c r="C37" s="6">
-        <f t="shared" ref="C37:C44" si="5">MAX(D37:AJ37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ref="C37:C44" si="6">MAX(D37:AJ37)</f>
+        <v>0.73958299999999999</v>
+      </c>
+      <c r="D37" s="37">
+        <v>0.73958299999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="29">
         <v>3</v>
       </c>
-      <c r="B38" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="B38" s="5">
+        <f t="shared" si="5"/>
+        <v>0.86458299999999999</v>
       </c>
       <c r="C38" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0.86458299999999999</v>
+      </c>
+      <c r="D38" s="37">
+        <v>0.86458299999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="29">
         <v>4</v>
       </c>
-      <c r="B39" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="B39" s="5">
+        <f t="shared" si="5"/>
+        <v>0.73958299999999999</v>
       </c>
       <c r="C39" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0.73958299999999999</v>
+      </c>
+      <c r="D39" s="37">
+        <v>0.73958299999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="29">
         <v>5</v>
       </c>
-      <c r="B40" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="B40" s="5">
+        <f t="shared" si="5"/>
+        <v>0.86458299999999999</v>
       </c>
       <c r="C40" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0.86458299999999999</v>
+      </c>
+      <c r="D40" s="37">
+        <v>0.86458299999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="29">
         <v>6</v>
       </c>
-      <c r="B41" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="B41" s="5">
+        <f t="shared" si="5"/>
+        <v>0.80208299999999999</v>
       </c>
       <c r="C41" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0.80208299999999999</v>
+      </c>
+      <c r="D41" s="37">
+        <v>0.80208299999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="29">
         <v>7</v>
       </c>
-      <c r="B42" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="B42" s="5">
+        <f t="shared" si="5"/>
+        <v>0.82986099999999996</v>
       </c>
       <c r="C42" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0.82986099999999996</v>
+      </c>
+      <c r="D42" s="37">
+        <v>0.82986099999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="29">
         <v>8</v>
       </c>
-      <c r="B43" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="B43" s="5">
+        <f t="shared" si="5"/>
+        <v>0.875</v>
       </c>
       <c r="C43" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0.875</v>
+      </c>
+      <c r="D43" s="37">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="29">
         <v>9</v>
       </c>
-      <c r="B44" s="7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="B44" s="7">
+        <f t="shared" si="5"/>
+        <v>0.90625</v>
       </c>
       <c r="C44" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0.90625</v>
+      </c>
+      <c r="D44" s="37">
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="29" t="e">
+      <c r="B45" s="29">
         <f>AVERAGE(B36:B44)</f>
-        <v>#DIV/0!</v>
+        <v>0.8337188888888889</v>
       </c>
       <c r="C45" s="29">
         <f>AVERAGE(C36:C44)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="37" t="s">
+        <v>0.8337188888888889</v>
+      </c>
+      <c r="D45" s="37">
+        <f t="shared" ref="D45" si="7">AVERAGE(D36:D44)</f>
+        <v>0.8337188888888889</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D46" s="37"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="37"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
         <v>0</v>
       </c>
@@ -18721,144 +19351,176 @@
       <c r="C48" s="29" t="s">
         <v>2</v>
       </c>
+      <c r="D48" s="37"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="29">
         <v>1</v>
       </c>
-      <c r="B49" s="3" t="e">
+      <c r="B49" s="3">
         <f>AVERAGE(D49:AJ49)</f>
-        <v>#DIV/0!</v>
+        <v>0.84259300000000004</v>
       </c>
       <c r="C49" s="4">
         <f>MAX(D49:AJ49)</f>
-        <v>0</v>
+        <v>0.84259300000000004</v>
+      </c>
+      <c r="D49" s="37">
+        <v>0.84259300000000004</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="29">
         <v>2</v>
       </c>
-      <c r="B50" s="5" t="e">
-        <f t="shared" ref="B50:B57" si="6">AVERAGE(D50:AJ50)</f>
-        <v>#DIV/0!</v>
+      <c r="B50" s="5">
+        <f t="shared" ref="B50:B57" si="8">AVERAGE(D50:AJ50)</f>
+        <v>0.65277799999999997</v>
       </c>
       <c r="C50" s="6">
-        <f t="shared" ref="C50:C57" si="7">MAX(D50:AJ50)</f>
-        <v>0</v>
+        <f t="shared" ref="C50:C57" si="9">MAX(D50:AJ50)</f>
+        <v>0.65277799999999997</v>
+      </c>
+      <c r="D50" s="37">
+        <v>0.65277799999999997</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="29">
         <v>3</v>
       </c>
-      <c r="B51" s="5" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="B51" s="5">
+        <f t="shared" si="8"/>
+        <v>0.81944399999999995</v>
       </c>
       <c r="C51" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.81944399999999995</v>
+      </c>
+      <c r="D51" s="37">
+        <v>0.81944399999999995</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="29">
         <v>4</v>
       </c>
-      <c r="B52" s="5" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="B52" s="5">
+        <f t="shared" si="8"/>
+        <v>0.65277799999999997</v>
       </c>
       <c r="C52" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.65277799999999997</v>
+      </c>
+      <c r="D52" s="37">
+        <v>0.65277799999999997</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="29">
         <v>5</v>
       </c>
-      <c r="B53" s="5" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="B53" s="5">
+        <f t="shared" si="8"/>
+        <v>0.81944399999999995</v>
       </c>
       <c r="C53" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.81944399999999995</v>
+      </c>
+      <c r="D53" s="37">
+        <v>0.81944399999999995</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="29">
         <v>6</v>
       </c>
-      <c r="B54" s="5" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="B54" s="5">
+        <f t="shared" si="8"/>
+        <v>0.73611099999999996</v>
       </c>
       <c r="C54" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.73611099999999996</v>
+      </c>
+      <c r="D54" s="37">
+        <v>0.73611099999999996</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="29">
         <v>7</v>
       </c>
-      <c r="B55" s="5" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="B55" s="5">
+        <f t="shared" si="8"/>
+        <v>0.77314799999999995</v>
       </c>
       <c r="C55" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.77314799999999995</v>
+      </c>
+      <c r="D55" s="37">
+        <v>0.77314799999999995</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="29">
         <v>8</v>
       </c>
-      <c r="B56" s="5" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="B56" s="5">
+        <f t="shared" si="8"/>
+        <v>0.83333299999999999</v>
       </c>
       <c r="C56" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="D56" s="37">
+        <v>0.83333299999999999</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="29">
         <v>9</v>
       </c>
-      <c r="B57" s="7" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="B57" s="7">
+        <f t="shared" si="8"/>
+        <v>0.875</v>
       </c>
       <c r="C57" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.875</v>
+      </c>
+      <c r="D57" s="37">
+        <v>0.875</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="29" t="e">
+      <c r="B58" s="29">
         <f>AVERAGE(B49:B57)</f>
-        <v>#DIV/0!</v>
+        <v>0.77829211111111107</v>
       </c>
       <c r="C58" s="29">
         <f>AVERAGE(C49:C57)</f>
-        <v>0</v>
+        <v>0.77829211111111107</v>
+      </c>
+      <c r="D58" s="37">
+        <f t="shared" ref="D58" si="10">AVERAGE(D49:D57)</f>
+        <v>0.77829211111111107</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
@@ -18875,300 +19537,408 @@
     <mergeCell ref="A47:C47"/>
   </mergeCells>
   <conditionalFormatting sqref="R30:S30">
-    <cfRule type="top10" dxfId="223" priority="95" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="222" priority="96" rank="2"/>
+    <cfRule type="top10" dxfId="275" priority="149" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="274" priority="150" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R45:S45">
-    <cfRule type="top10" dxfId="221" priority="93" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="220" priority="94" rank="2"/>
+    <cfRule type="top10" dxfId="273" priority="147" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="272" priority="148" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R50:S50">
-    <cfRule type="top10" dxfId="219" priority="91" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="218" priority="92" rank="2"/>
+    <cfRule type="top10" dxfId="271" priority="145" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="270" priority="146" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R51:S51">
-    <cfRule type="top10" dxfId="217" priority="89" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="216" priority="90" rank="2"/>
+    <cfRule type="top10" dxfId="269" priority="143" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="268" priority="144" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R52:S52">
-    <cfRule type="top10" dxfId="215" priority="87" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="214" priority="88" rank="2"/>
+    <cfRule type="top10" dxfId="267" priority="141" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="266" priority="142" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R53:S53">
-    <cfRule type="top10" dxfId="213" priority="85" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="212" priority="86" rank="2"/>
+    <cfRule type="top10" dxfId="265" priority="139" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="264" priority="140" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R54:S54">
-    <cfRule type="top10" dxfId="211" priority="83" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="210" priority="84" rank="2"/>
+    <cfRule type="top10" dxfId="263" priority="137" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="262" priority="138" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R55:S55">
-    <cfRule type="top10" dxfId="209" priority="81" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="208" priority="82" rank="2"/>
+    <cfRule type="top10" dxfId="261" priority="135" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="260" priority="136" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R56:S56">
-    <cfRule type="top10" dxfId="207" priority="79" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="206" priority="80" rank="2"/>
+    <cfRule type="top10" dxfId="259" priority="133" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="258" priority="134" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R57:S57">
-    <cfRule type="top10" dxfId="205" priority="77" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="204" priority="78" rank="2"/>
+    <cfRule type="top10" dxfId="257" priority="131" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="256" priority="132" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R58:S58">
-    <cfRule type="top10" dxfId="203" priority="75" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="202" priority="76" rank="2"/>
+    <cfRule type="top10" dxfId="255" priority="129" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="254" priority="130" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:S8">
-    <cfRule type="top10" dxfId="201" priority="97" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="200" priority="98" rank="2"/>
+    <cfRule type="top10" dxfId="253" priority="151" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="252" priority="152" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9:S9">
-    <cfRule type="top10" dxfId="199" priority="99" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="198" priority="100" rank="2"/>
+    <cfRule type="top10" dxfId="251" priority="153" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="250" priority="154" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:S10">
-    <cfRule type="top10" dxfId="197" priority="101" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="196" priority="102" rank="2"/>
+    <cfRule type="top10" dxfId="249" priority="155" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="248" priority="156" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:S11">
-    <cfRule type="top10" dxfId="195" priority="103" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="194" priority="104" rank="2"/>
+    <cfRule type="top10" dxfId="247" priority="157" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="246" priority="158" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:S12">
-    <cfRule type="top10" dxfId="193" priority="105" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="192" priority="106" rank="2"/>
+    <cfRule type="top10" dxfId="245" priority="159" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="244" priority="160" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:S13">
-    <cfRule type="top10" dxfId="191" priority="107" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="190" priority="108" rank="2"/>
+    <cfRule type="top10" dxfId="243" priority="161" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="242" priority="162" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14:S14">
-    <cfRule type="top10" dxfId="189" priority="109" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="188" priority="110" rank="2"/>
+    <cfRule type="top10" dxfId="241" priority="163" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="240" priority="164" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15:S15">
-    <cfRule type="top10" dxfId="187" priority="111" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="186" priority="112" rank="2"/>
+    <cfRule type="top10" dxfId="239" priority="165" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="238" priority="166" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16:S16">
-    <cfRule type="top10" dxfId="185" priority="113" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="184" priority="114" rank="2"/>
+    <cfRule type="top10" dxfId="237" priority="167" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="236" priority="168" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17:S17">
-    <cfRule type="top10" dxfId="183" priority="115" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="182" priority="116" rank="2"/>
+    <cfRule type="top10" dxfId="235" priority="169" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="234" priority="170" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22:S22">
-    <cfRule type="top10" dxfId="181" priority="117" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="180" priority="118" rank="2"/>
+    <cfRule type="top10" dxfId="233" priority="171" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="232" priority="172" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R23:S23">
-    <cfRule type="top10" dxfId="179" priority="119" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="178" priority="120" rank="2"/>
+    <cfRule type="top10" dxfId="231" priority="173" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="230" priority="174" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R24:S24">
-    <cfRule type="top10" dxfId="177" priority="121" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="176" priority="122" rank="2"/>
+    <cfRule type="top10" dxfId="229" priority="175" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="228" priority="176" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25:S25">
-    <cfRule type="top10" dxfId="175" priority="123" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="174" priority="124" rank="2"/>
+    <cfRule type="top10" dxfId="227" priority="177" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="226" priority="178" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R26:S26">
-    <cfRule type="top10" dxfId="173" priority="125" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="172" priority="126" rank="2"/>
+    <cfRule type="top10" dxfId="225" priority="179" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="224" priority="180" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R27:S27">
-    <cfRule type="top10" dxfId="171" priority="127" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="170" priority="128" rank="2"/>
+    <cfRule type="top10" dxfId="223" priority="181" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="222" priority="182" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R28:S28">
-    <cfRule type="top10" dxfId="169" priority="129" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="168" priority="130" rank="2"/>
+    <cfRule type="top10" dxfId="221" priority="183" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="220" priority="184" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R29:S29">
-    <cfRule type="top10" dxfId="167" priority="131" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="166" priority="132" rank="2"/>
+    <cfRule type="top10" dxfId="219" priority="185" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="218" priority="186" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R37:S37">
-    <cfRule type="top10" dxfId="165" priority="133" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="164" priority="134" rank="2"/>
+    <cfRule type="top10" dxfId="217" priority="187" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="216" priority="188" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R38:S38">
-    <cfRule type="top10" dxfId="163" priority="135" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="162" priority="136" rank="2"/>
+    <cfRule type="top10" dxfId="215" priority="189" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="214" priority="190" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R39:S39">
-    <cfRule type="top10" dxfId="161" priority="137" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="160" priority="138" rank="2"/>
+    <cfRule type="top10" dxfId="213" priority="191" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="212" priority="192" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40:S40">
-    <cfRule type="top10" dxfId="159" priority="139" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="158" priority="140" rank="2"/>
+    <cfRule type="top10" dxfId="211" priority="193" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="210" priority="194" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R41:S41">
-    <cfRule type="top10" dxfId="157" priority="141" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="156" priority="142" rank="2"/>
+    <cfRule type="top10" dxfId="209" priority="195" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="208" priority="196" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R42:S42">
-    <cfRule type="top10" dxfId="155" priority="143" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="154" priority="144" rank="2"/>
+    <cfRule type="top10" dxfId="207" priority="197" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="206" priority="198" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R43:S43">
-    <cfRule type="top10" dxfId="153" priority="145" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="152" priority="146" rank="2"/>
+    <cfRule type="top10" dxfId="205" priority="199" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="204" priority="200" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R44:S44">
-    <cfRule type="top10" dxfId="151" priority="147" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="150" priority="148" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36:Q36">
-    <cfRule type="top10" dxfId="149" priority="73" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="148" priority="74" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37:Q37">
-    <cfRule type="top10" dxfId="147" priority="71" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="146" priority="72" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:Q38">
-    <cfRule type="top10" dxfId="145" priority="69" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="144" priority="70" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39:Q39">
-    <cfRule type="top10" dxfId="143" priority="67" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="142" priority="68" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:Q40">
-    <cfRule type="top10" dxfId="141" priority="65" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="140" priority="66" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:Q41">
-    <cfRule type="top10" dxfId="139" priority="63" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="138" priority="64" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42:Q42">
-    <cfRule type="top10" dxfId="137" priority="61" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="136" priority="62" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43:Q43">
-    <cfRule type="top10" dxfId="135" priority="59" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="134" priority="60" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44:Q44">
-    <cfRule type="top10" dxfId="133" priority="57" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="132" priority="58" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:Q49">
-    <cfRule type="top10" dxfId="131" priority="55" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="130" priority="56" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50:Q50">
-    <cfRule type="top10" dxfId="129" priority="53" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="128" priority="54" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51:Q51">
-    <cfRule type="top10" dxfId="127" priority="51" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="126" priority="52" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52:Q52">
-    <cfRule type="top10" dxfId="125" priority="49" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="124" priority="50" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53:Q53">
-    <cfRule type="top10" dxfId="123" priority="47" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="122" priority="48" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54:Q54">
-    <cfRule type="top10" dxfId="121" priority="45" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="120" priority="46" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55:Q55">
-    <cfRule type="top10" dxfId="119" priority="43" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="118" priority="44" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56:Q56">
-    <cfRule type="top10" dxfId="117" priority="41" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="116" priority="42" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57:Q57">
-    <cfRule type="top10" dxfId="115" priority="39" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="114" priority="40" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:Q21">
-    <cfRule type="top10" dxfId="113" priority="37" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="112" priority="38" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:Q22">
-    <cfRule type="top10" dxfId="111" priority="35" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="110" priority="36" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:Q23">
-    <cfRule type="top10" dxfId="109" priority="33" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="108" priority="34" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:Q24">
-    <cfRule type="top10" dxfId="107" priority="31" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="106" priority="32" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:Q25">
-    <cfRule type="top10" dxfId="105" priority="29" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="104" priority="30" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:Q26">
-    <cfRule type="top10" dxfId="103" priority="27" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="102" priority="28" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:Q27">
-    <cfRule type="top10" dxfId="101" priority="25" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="100" priority="26" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:Q28">
-    <cfRule type="top10" dxfId="99" priority="23" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="98" priority="24" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:Q29">
-    <cfRule type="top10" dxfId="97" priority="21" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="96" priority="22" rank="2"/>
+    <cfRule type="top10" dxfId="203" priority="201" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="202" priority="202" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36:Q36">
+    <cfRule type="top10" dxfId="201" priority="127" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="200" priority="128" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37:Q37">
+    <cfRule type="top10" dxfId="199" priority="125" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="198" priority="126" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:Q38">
+    <cfRule type="top10" dxfId="197" priority="123" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="196" priority="124" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:Q39">
+    <cfRule type="top10" dxfId="195" priority="121" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="194" priority="122" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40:Q40">
+    <cfRule type="top10" dxfId="193" priority="119" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="192" priority="120" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41:Q41">
+    <cfRule type="top10" dxfId="191" priority="117" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="190" priority="118" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:Q42">
+    <cfRule type="top10" dxfId="189" priority="115" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="188" priority="116" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43:Q43">
+    <cfRule type="top10" dxfId="187" priority="113" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="186" priority="114" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44:Q44">
+    <cfRule type="top10" dxfId="185" priority="111" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="184" priority="112" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:Q49">
+    <cfRule type="top10" dxfId="183" priority="109" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="182" priority="110" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50:Q50">
+    <cfRule type="top10" dxfId="181" priority="107" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="180" priority="108" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:Q51">
+    <cfRule type="top10" dxfId="179" priority="105" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="178" priority="106" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52:Q52">
+    <cfRule type="top10" dxfId="177" priority="103" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="176" priority="104" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53:Q53">
+    <cfRule type="top10" dxfId="175" priority="101" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="174" priority="102" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54:Q54">
+    <cfRule type="top10" dxfId="173" priority="99" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="172" priority="100" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55:Q55">
+    <cfRule type="top10" dxfId="171" priority="97" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="170" priority="98" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56:Q56">
+    <cfRule type="top10" dxfId="169" priority="95" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="168" priority="96" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:Q57">
+    <cfRule type="top10" dxfId="167" priority="93" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="166" priority="94" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:Q21">
+    <cfRule type="top10" dxfId="165" priority="91" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="164" priority="92" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:Q22">
+    <cfRule type="top10" dxfId="163" priority="89" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="162" priority="90" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:Q23">
+    <cfRule type="top10" dxfId="161" priority="87" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="160" priority="88" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:Q24">
+    <cfRule type="top10" dxfId="159" priority="85" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="158" priority="86" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:Q25">
+    <cfRule type="top10" dxfId="157" priority="83" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="156" priority="84" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:Q26">
+    <cfRule type="top10" dxfId="155" priority="81" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="154" priority="82" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:Q27">
+    <cfRule type="top10" dxfId="153" priority="79" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="152" priority="80" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:Q28">
+    <cfRule type="top10" dxfId="151" priority="77" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="150" priority="78" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:Q29">
+    <cfRule type="top10" dxfId="149" priority="75" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="148" priority="76" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:Q8">
-    <cfRule type="top10" dxfId="95" priority="19" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="94" priority="20" rank="2"/>
+    <cfRule type="top10" dxfId="147" priority="73" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="146" priority="74" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:Q9">
-    <cfRule type="top10" dxfId="93" priority="17" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="92" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="145" priority="71" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="144" priority="72" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:Q10">
-    <cfRule type="top10" dxfId="91" priority="15" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="90" priority="16" rank="2"/>
+    <cfRule type="top10" dxfId="143" priority="69" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="142" priority="70" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:Q11">
-    <cfRule type="top10" dxfId="89" priority="13" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="88" priority="14" rank="2"/>
+    <cfRule type="top10" dxfId="141" priority="67" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="140" priority="68" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:Q12">
-    <cfRule type="top10" dxfId="87" priority="11" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="86" priority="12" rank="2"/>
+    <cfRule type="top10" dxfId="139" priority="65" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="138" priority="66" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:Q13">
-    <cfRule type="top10" dxfId="85" priority="9" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="84" priority="10" rank="2"/>
+    <cfRule type="top10" dxfId="137" priority="63" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="136" priority="64" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:Q14">
-    <cfRule type="top10" dxfId="83" priority="7" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="82" priority="8" rank="2"/>
+    <cfRule type="top10" dxfId="135" priority="61" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="134" priority="62" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:Q15">
-    <cfRule type="top10" dxfId="81" priority="5" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="80" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="133" priority="59" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="132" priority="60" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:Q16">
-    <cfRule type="top10" dxfId="79" priority="3" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="78" priority="4" rank="2"/>
+    <cfRule type="top10" dxfId="131" priority="57" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="130" priority="58" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:Q17">
-    <cfRule type="top10" dxfId="77" priority="1" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="76" priority="2" rank="2"/>
+    <cfRule type="top10" dxfId="129" priority="55" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="128" priority="56" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="top10" dxfId="53" priority="37" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="52" priority="38" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="top10" dxfId="51" priority="39" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="50" priority="40" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="top10" dxfId="49" priority="41" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="48" priority="42" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="top10" dxfId="47" priority="43" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="46" priority="44" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="top10" dxfId="45" priority="45" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="44" priority="46" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="top10" dxfId="43" priority="47" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="42" priority="48" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="top10" dxfId="41" priority="49" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="40" priority="50" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="top10" dxfId="39" priority="51" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="38" priority="52" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="top10" dxfId="37" priority="53" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="36" priority="54" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="top10" dxfId="35" priority="19" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="34" priority="20" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="top10" dxfId="33" priority="21" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="32" priority="22" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="top10" dxfId="31" priority="23" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="30" priority="24" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="top10" dxfId="29" priority="25" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="28" priority="26" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="top10" dxfId="27" priority="27" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="26" priority="28" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41">
+    <cfRule type="top10" dxfId="25" priority="29" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="24" priority="30" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="top10" dxfId="23" priority="31" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="22" priority="32" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="top10" dxfId="21" priority="33" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="20" priority="34" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="top10" dxfId="19" priority="35" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="18" priority="36" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="top10" dxfId="17" priority="1" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="16" priority="2" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="top10" dxfId="15" priority="3" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="14" priority="4" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="top10" dxfId="13" priority="5" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="12" priority="6" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="top10" dxfId="11" priority="7" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="10" priority="8" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="top10" dxfId="9" priority="9" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="8" priority="10" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="top10" dxfId="7" priority="11" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="6" priority="12" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="top10" dxfId="5" priority="13" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="4" priority="14" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="top10" dxfId="3" priority="15" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="2" priority="16" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="top10" dxfId="1" priority="17" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="0" priority="18" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19178,8 +19948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0AF600-1D0C-43BD-94A2-1F3930266D1C}">
   <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19224,27 +19994,13 @@
       <c r="M1" s="12">
         <v>1E-3</v>
       </c>
-      <c r="N1" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="O1" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="P1" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="Q1" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="R1" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="S1" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="T1" s="12">
-        <v>1E-3</v>
-      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -19280,27 +20036,13 @@
       <c r="M2" s="29">
         <v>500</v>
       </c>
-      <c r="N2" s="29">
-        <v>500</v>
-      </c>
-      <c r="O2" s="29">
-        <v>500</v>
-      </c>
-      <c r="P2" s="29">
-        <v>500</v>
-      </c>
-      <c r="Q2" s="32">
-        <v>500</v>
-      </c>
-      <c r="R2" s="32">
-        <v>500</v>
-      </c>
-      <c r="S2" s="32">
-        <v>500</v>
-      </c>
-      <c r="T2" s="32">
-        <v>500</v>
-      </c>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
     </row>
     <row r="3" spans="1:21" s="25" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
@@ -19336,25 +20078,13 @@
       <c r="M3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="R3" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3" s="33" t="s">
-        <v>11</v>
-      </c>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
     </row>
     <row r="4" spans="1:21" s="25" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
@@ -19390,53 +20120,43 @@
       <c r="M4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" s="33" t="s">
-        <v>18</v>
-      </c>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
     </row>
     <row r="5" spans="1:21" s="25" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
+      <c r="D5" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
       <c r="Q5" s="36"/>
       <c r="R5" s="36"/>
       <c r="S5" s="36"/>
       <c r="T5" s="36"/>
     </row>
     <row r="6" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
     </row>
     <row r="7" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
@@ -19453,24 +20173,44 @@
       <c r="A8" s="24">
         <v>1</v>
       </c>
-      <c r="B8" s="3" t="e">
+      <c r="B8" s="3">
         <f>AVERAGE(D8:M8,P8:T8)</f>
-        <v>#DIV/0!</v>
+        <v>0.82847219999999999</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" ref="C8:C16" si="0">MAX(D8:AI8)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0.81944399999999995</v>
+      </c>
+      <c r="E8" s="37">
+        <v>0.83680600000000005</v>
+      </c>
+      <c r="F8" s="37">
+        <v>0.82291700000000001</v>
+      </c>
+      <c r="G8" s="37">
+        <v>0.79513900000000004</v>
+      </c>
+      <c r="H8" s="37">
+        <v>0.82986099999999996</v>
+      </c>
+      <c r="I8" s="37">
+        <v>0.82986099999999996</v>
+      </c>
+      <c r="J8" s="37">
+        <v>0.84375</v>
+      </c>
+      <c r="K8" s="37">
+        <v>0.82638900000000004</v>
+      </c>
+      <c r="L8" s="37">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="M8" s="37">
+        <v>0.84722200000000003</v>
+      </c>
       <c r="N8" s="32"/>
       <c r="O8" s="32"/>
       <c r="P8" s="32"/>
@@ -19484,24 +20224,44 @@
       <c r="A9" s="24">
         <v>2</v>
       </c>
-      <c r="B9" s="5" t="e">
+      <c r="B9" s="5">
         <f t="shared" ref="B9:B16" si="1">AVERAGE(D9:M9,P9:T9)</f>
-        <v>#DIV/0!</v>
+        <v>0.72361120000000001</v>
       </c>
       <c r="C9" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
+        <v>0.78125</v>
+      </c>
+      <c r="D9" s="37">
+        <v>0.73611099999999996</v>
+      </c>
+      <c r="E9" s="37">
+        <v>0.67013900000000004</v>
+      </c>
+      <c r="F9" s="37">
+        <v>0.78125</v>
+      </c>
+      <c r="G9" s="37">
+        <v>0.76041700000000001</v>
+      </c>
+      <c r="H9" s="37">
+        <v>0.6875</v>
+      </c>
+      <c r="I9" s="37">
+        <v>0.69791700000000001</v>
+      </c>
+      <c r="J9" s="37">
+        <v>0.73263900000000004</v>
+      </c>
+      <c r="K9" s="37">
+        <v>0.72916700000000001</v>
+      </c>
+      <c r="L9" s="37">
+        <v>0.75347200000000003</v>
+      </c>
+      <c r="M9" s="37">
+        <v>0.6875</v>
+      </c>
       <c r="N9" s="32"/>
       <c r="O9" s="32"/>
       <c r="P9" s="32"/>
@@ -19515,24 +20275,44 @@
       <c r="A10" s="24">
         <v>3</v>
       </c>
-      <c r="B10" s="5" t="e">
+      <c r="B10" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.88298609999999988</v>
       </c>
       <c r="C10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
+        <v>0.90625</v>
+      </c>
+      <c r="D10" s="37">
+        <v>0.88194399999999995</v>
+      </c>
+      <c r="E10" s="37">
+        <v>0.90277799999999997</v>
+      </c>
+      <c r="F10" s="37">
+        <v>0.90625</v>
+      </c>
+      <c r="G10" s="37">
+        <v>0.86805600000000005</v>
+      </c>
+      <c r="H10" s="37">
+        <v>0.89236099999999996</v>
+      </c>
+      <c r="I10" s="37">
+        <v>0.86458299999999999</v>
+      </c>
+      <c r="J10" s="37">
+        <v>0.87152799999999997</v>
+      </c>
+      <c r="K10" s="37">
+        <v>0.875</v>
+      </c>
+      <c r="L10" s="37">
+        <v>0.875</v>
+      </c>
+      <c r="M10" s="37">
+        <v>0.89236099999999996</v>
+      </c>
       <c r="N10" s="32"/>
       <c r="O10" s="32"/>
       <c r="P10" s="32"/>
@@ -19546,24 +20326,44 @@
       <c r="A11" s="24">
         <v>4</v>
       </c>
-      <c r="B11" s="5" t="e">
+      <c r="B11" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.72708329999999999</v>
       </c>
       <c r="C11" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
+        <v>0.77083299999999999</v>
+      </c>
+      <c r="D11" s="37">
+        <v>0.71875</v>
+      </c>
+      <c r="E11" s="37">
+        <v>0.75520799999999999</v>
+      </c>
+      <c r="F11" s="37">
+        <v>0.77083299999999999</v>
+      </c>
+      <c r="G11" s="37">
+        <v>0.703125</v>
+      </c>
+      <c r="H11" s="37">
+        <v>0.69791700000000001</v>
+      </c>
+      <c r="I11" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="J11" s="37">
+        <v>0.72395799999999999</v>
+      </c>
+      <c r="K11" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="L11" s="37">
+        <v>0.71875</v>
+      </c>
+      <c r="M11" s="37">
+        <v>0.68229200000000001</v>
+      </c>
       <c r="N11" s="32"/>
       <c r="O11" s="32"/>
       <c r="P11" s="32"/>
@@ -19577,24 +20377,44 @@
       <c r="A12" s="24">
         <v>5</v>
       </c>
-      <c r="B12" s="5" t="e">
+      <c r="B12" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.80798609999999993</v>
       </c>
       <c r="C12" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
+        <v>0.84027799999999997</v>
+      </c>
+      <c r="D12" s="37">
+        <v>0.82986099999999996</v>
+      </c>
+      <c r="E12" s="37">
+        <v>0.77083299999999999</v>
+      </c>
+      <c r="F12" s="37">
+        <v>0.8125</v>
+      </c>
+      <c r="G12" s="37">
+        <v>0.84027799999999997</v>
+      </c>
+      <c r="H12" s="37">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="I12" s="37">
+        <v>0.78472200000000003</v>
+      </c>
+      <c r="J12" s="37">
+        <v>0.80555600000000005</v>
+      </c>
+      <c r="K12" s="37">
+        <v>0.81944399999999995</v>
+      </c>
+      <c r="L12" s="37">
+        <v>0.84027799999999997</v>
+      </c>
+      <c r="M12" s="37">
+        <v>0.79861099999999996</v>
+      </c>
       <c r="N12" s="32"/>
       <c r="O12" s="32"/>
       <c r="P12" s="32"/>
@@ -19608,24 +20428,44 @@
       <c r="A13" s="24">
         <v>6</v>
       </c>
-      <c r="B13" s="5" t="e">
+      <c r="B13" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.8329861999999999</v>
       </c>
       <c r="C13" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
+        <v>0.87152799999999997</v>
+      </c>
+      <c r="D13" s="37">
+        <v>0.8125</v>
+      </c>
+      <c r="E13" s="37">
+        <v>0.82291700000000001</v>
+      </c>
+      <c r="F13" s="37">
+        <v>0.82291700000000001</v>
+      </c>
+      <c r="G13" s="37">
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="H13" s="37">
+        <v>0.82986099999999996</v>
+      </c>
+      <c r="I13" s="37">
+        <v>0.83680600000000005</v>
+      </c>
+      <c r="J13" s="37">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="K13" s="37">
+        <v>0.80555600000000005</v>
+      </c>
+      <c r="L13" s="37">
+        <v>0.87152799999999997</v>
+      </c>
+      <c r="M13" s="37">
+        <v>0.84722200000000003</v>
+      </c>
       <c r="N13" s="32"/>
       <c r="O13" s="32"/>
       <c r="P13" s="32"/>
@@ -19639,24 +20479,44 @@
       <c r="A14" s="24">
         <v>7</v>
       </c>
-      <c r="B14" s="5" t="e">
+      <c r="B14" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.85486099999999998</v>
       </c>
       <c r="C14" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
+        <v>0.88194399999999995</v>
+      </c>
+      <c r="D14" s="37">
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="E14" s="37">
+        <v>0.82638900000000004</v>
+      </c>
+      <c r="F14" s="37">
+        <v>0.875</v>
+      </c>
+      <c r="G14" s="37">
+        <v>0.86805600000000005</v>
+      </c>
+      <c r="H14" s="37">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="I14" s="37">
+        <v>0.86458299999999999</v>
+      </c>
+      <c r="J14" s="37">
+        <v>0.84375</v>
+      </c>
+      <c r="K14" s="37">
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="L14" s="37">
+        <v>0.88194399999999995</v>
+      </c>
+      <c r="M14" s="37">
+        <v>0.84375</v>
+      </c>
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
       <c r="P14" s="32"/>
@@ -19670,24 +20530,44 @@
       <c r="A15" s="24">
         <v>8</v>
       </c>
-      <c r="B15" s="5" t="e">
+      <c r="B15" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.85972209999999993</v>
       </c>
       <c r="C15" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
+        <v>0.89583299999999999</v>
+      </c>
+      <c r="D15" s="37">
+        <v>0.84375</v>
+      </c>
+      <c r="E15" s="37">
+        <v>0.86458299999999999</v>
+      </c>
+      <c r="F15" s="37">
+        <v>0.87847200000000003</v>
+      </c>
+      <c r="G15" s="37">
+        <v>0.85416700000000001</v>
+      </c>
+      <c r="H15" s="37">
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="I15" s="37">
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="J15" s="37">
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="K15" s="37">
+        <v>0.85416700000000001</v>
+      </c>
+      <c r="L15" s="37">
+        <v>0.84375</v>
+      </c>
+      <c r="M15" s="37">
+        <v>0.89583299999999999</v>
+      </c>
       <c r="N15" s="32"/>
       <c r="O15" s="32"/>
       <c r="P15" s="32"/>
@@ -19701,24 +20581,44 @@
       <c r="A16" s="24">
         <v>9</v>
       </c>
-      <c r="B16" s="7" t="e">
+      <c r="B16" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.90208330000000014</v>
       </c>
       <c r="C16" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="D16" s="37">
+        <v>0.89930600000000005</v>
+      </c>
+      <c r="E16" s="37">
+        <v>0.90972200000000003</v>
+      </c>
+      <c r="F16" s="37">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="G16" s="37">
+        <v>0.88194399999999995</v>
+      </c>
+      <c r="H16" s="37">
+        <v>0.90972200000000003</v>
+      </c>
+      <c r="I16" s="37">
+        <v>0.91319399999999995</v>
+      </c>
+      <c r="J16" s="37">
+        <v>0.88541700000000001</v>
+      </c>
+      <c r="K16" s="37">
+        <v>0.90972200000000003</v>
+      </c>
+      <c r="L16" s="37">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="M16" s="37">
+        <v>0.87847200000000003</v>
+      </c>
       <c r="N16" s="32"/>
       <c r="O16" s="32"/>
       <c r="P16" s="32"/>
@@ -19732,53 +20632,53 @@
       <c r="A17" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="24" t="e">
+      <c r="B17" s="24">
         <f>AVERAGE(B8:B16)</f>
-        <v>#DIV/0!</v>
+        <v>0.82442127777777774</v>
       </c>
       <c r="C17" s="24">
         <f>AVERAGE(C8:C16)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="29" t="e">
+        <v>0.85686722222222211</v>
+      </c>
+      <c r="D17" s="29">
         <f t="shared" ref="D17:T17" si="2">AVERAGE(D8:D16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="29" t="e">
+        <v>0.82253077777777783</v>
+      </c>
+      <c r="E17" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="29" t="e">
+        <v>0.81770833333333337</v>
+      </c>
+      <c r="F17" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="29" t="e">
+        <v>0.84297844444444459</v>
+      </c>
+      <c r="G17" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="29" t="e">
+        <v>0.82426711111111117</v>
+      </c>
+      <c r="H17" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="29" t="e">
+        <v>0.81327155555555553</v>
+      </c>
+      <c r="I17" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" s="29" t="e">
+        <v>0.82137333333333329</v>
+      </c>
+      <c r="J17" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K17" s="29" t="e">
+        <v>0.82118055555555558</v>
+      </c>
+      <c r="K17" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L17" s="29" t="e">
+        <v>0.82445988888888899</v>
+      </c>
+      <c r="L17" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M17" s="29" t="e">
+        <v>0.83719133333333329</v>
+      </c>
+      <c r="M17" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.81925144444444442</v>
       </c>
       <c r="N17" s="29" t="e">
         <f t="shared" si="2"/>
@@ -19811,11 +20711,11 @@
       <c r="U17" s="34"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -19832,25 +20732,45 @@
       <c r="A21" s="24">
         <v>1</v>
       </c>
-      <c r="B21" s="3" t="e">
+      <c r="B21" s="3">
         <f>AVERAGE(D21:M21,P21:T21)</f>
-        <v>#DIV/0!</v>
+        <v>0.77129630000000005</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" ref="C21:C29" si="3">MAX(D21:AI21)</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
+        <v>0.796296</v>
+      </c>
+      <c r="D21" s="37">
+        <v>0.75925900000000002</v>
+      </c>
+      <c r="E21" s="37">
+        <v>0.78240699999999996</v>
+      </c>
+      <c r="F21" s="37">
+        <v>0.76388900000000004</v>
+      </c>
+      <c r="G21" s="37">
+        <v>0.72685200000000005</v>
+      </c>
+      <c r="H21" s="37">
+        <v>0.77314799999999995</v>
+      </c>
+      <c r="I21" s="37">
+        <v>0.77314799999999995</v>
+      </c>
+      <c r="J21" s="37">
+        <v>0.79166700000000001</v>
+      </c>
+      <c r="K21" s="37">
+        <v>0.76851899999999995</v>
+      </c>
+      <c r="L21" s="37">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="M21" s="37">
+        <v>0.796296</v>
+      </c>
+      <c r="N21" s="37"/>
       <c r="O21" s="32"/>
       <c r="P21" s="32"/>
       <c r="Q21" s="32"/>
@@ -19862,25 +20782,45 @@
       <c r="A22" s="24">
         <v>2</v>
       </c>
-      <c r="B22" s="5" t="e">
+      <c r="B22" s="5">
         <f t="shared" ref="B22:B29" si="4">AVERAGE(D22:M22,P22:T22)</f>
-        <v>#DIV/0!</v>
+        <v>0.63148139999999997</v>
       </c>
       <c r="C22" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
+        <v>0.70833299999999999</v>
+      </c>
+      <c r="D22" s="37">
+        <v>0.64814799999999995</v>
+      </c>
+      <c r="E22" s="37">
+        <v>0.56018500000000004</v>
+      </c>
+      <c r="F22" s="37">
+        <v>0.70833299999999999</v>
+      </c>
+      <c r="G22" s="37">
+        <v>0.68055600000000005</v>
+      </c>
+      <c r="H22" s="37">
+        <v>0.58333299999999999</v>
+      </c>
+      <c r="I22" s="37">
+        <v>0.59722200000000003</v>
+      </c>
+      <c r="J22" s="37">
+        <v>0.64351899999999995</v>
+      </c>
+      <c r="K22" s="37">
+        <v>0.63888900000000004</v>
+      </c>
+      <c r="L22" s="37">
+        <v>0.671296</v>
+      </c>
+      <c r="M22" s="37">
+        <v>0.58333299999999999</v>
+      </c>
+      <c r="N22" s="37"/>
       <c r="O22" s="32"/>
       <c r="P22" s="32"/>
       <c r="Q22" s="32"/>
@@ -19892,25 +20832,45 @@
       <c r="A23" s="24">
         <v>3</v>
       </c>
-      <c r="B23" s="5" t="e">
+      <c r="B23" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.84398129999999993</v>
       </c>
       <c r="C23" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
+        <v>0.875</v>
+      </c>
+      <c r="D23" s="37">
+        <v>0.84259300000000004</v>
+      </c>
+      <c r="E23" s="37">
+        <v>0.87036999999999998</v>
+      </c>
+      <c r="F23" s="37">
+        <v>0.875</v>
+      </c>
+      <c r="G23" s="37">
+        <v>0.82407399999999997</v>
+      </c>
+      <c r="H23" s="37">
+        <v>0.85648100000000005</v>
+      </c>
+      <c r="I23" s="37">
+        <v>0.81944399999999995</v>
+      </c>
+      <c r="J23" s="37">
+        <v>0.828704</v>
+      </c>
+      <c r="K23" s="37">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="L23" s="37">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="M23" s="37">
+        <v>0.85648100000000005</v>
+      </c>
+      <c r="N23" s="37"/>
       <c r="O23" s="32"/>
       <c r="P23" s="32"/>
       <c r="Q23" s="32"/>
@@ -19922,25 +20882,45 @@
       <c r="A24" s="24">
         <v>4</v>
       </c>
-      <c r="B24" s="5" t="e">
+      <c r="B24" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.63611110000000004</v>
       </c>
       <c r="C24" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
+        <v>0.69444399999999995</v>
+      </c>
+      <c r="D24" s="37">
+        <v>0.625</v>
+      </c>
+      <c r="E24" s="37">
+        <v>0.67361099999999996</v>
+      </c>
+      <c r="F24" s="37">
+        <v>0.69444399999999995</v>
+      </c>
+      <c r="G24" s="37">
+        <v>0.60416700000000001</v>
+      </c>
+      <c r="H24" s="37">
+        <v>0.59722200000000003</v>
+      </c>
+      <c r="I24" s="37">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="J24" s="37">
+        <v>0.63194399999999995</v>
+      </c>
+      <c r="K24" s="37">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="L24" s="37">
+        <v>0.625</v>
+      </c>
+      <c r="M24" s="37">
+        <v>0.57638900000000004</v>
+      </c>
+      <c r="N24" s="37"/>
       <c r="O24" s="32"/>
       <c r="P24" s="32"/>
       <c r="Q24" s="32"/>
@@ -19952,25 +20932,45 @@
       <c r="A25" s="24">
         <v>5</v>
       </c>
-      <c r="B25" s="5" t="e">
+      <c r="B25" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.74398140000000001</v>
       </c>
       <c r="C25" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
+        <v>0.78703699999999999</v>
+      </c>
+      <c r="D25" s="37">
+        <v>0.77314799999999995</v>
+      </c>
+      <c r="E25" s="37">
+        <v>0.69444399999999995</v>
+      </c>
+      <c r="F25" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="G25" s="37">
+        <v>0.78703699999999999</v>
+      </c>
+      <c r="H25" s="37">
+        <v>0.703704</v>
+      </c>
+      <c r="I25" s="37">
+        <v>0.71296300000000001</v>
+      </c>
+      <c r="J25" s="37">
+        <v>0.74074099999999998</v>
+      </c>
+      <c r="K25" s="37">
+        <v>0.75925900000000002</v>
+      </c>
+      <c r="L25" s="37">
+        <v>0.78703699999999999</v>
+      </c>
+      <c r="M25" s="37">
+        <v>0.73148100000000005</v>
+      </c>
+      <c r="N25" s="37"/>
       <c r="O25" s="32"/>
       <c r="P25" s="32"/>
       <c r="Q25" s="32"/>
@@ -19982,25 +20982,45 @@
       <c r="A26" s="24">
         <v>6</v>
       </c>
-      <c r="B26" s="5" t="e">
+      <c r="B26" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.77731479999999986</v>
       </c>
       <c r="C26" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
+        <v>0.828704</v>
+      </c>
+      <c r="D26" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="E26" s="37">
+        <v>0.76388900000000004</v>
+      </c>
+      <c r="F26" s="37">
+        <v>0.76388900000000004</v>
+      </c>
+      <c r="G26" s="37">
+        <v>0.796296</v>
+      </c>
+      <c r="H26" s="37">
+        <v>0.77314799999999995</v>
+      </c>
+      <c r="I26" s="37">
+        <v>0.78240699999999996</v>
+      </c>
+      <c r="J26" s="37">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="K26" s="37">
+        <v>0.74074099999999998</v>
+      </c>
+      <c r="L26" s="37">
+        <v>0.828704</v>
+      </c>
+      <c r="M26" s="37">
+        <v>0.796296</v>
+      </c>
+      <c r="N26" s="37"/>
       <c r="O26" s="32"/>
       <c r="P26" s="32"/>
       <c r="Q26" s="32"/>
@@ -20012,25 +21032,45 @@
       <c r="A27" s="24">
         <v>7</v>
       </c>
-      <c r="B27" s="5" t="e">
+      <c r="B27" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.80648159999999991</v>
       </c>
       <c r="C27" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
+        <v>0.84259300000000004</v>
+      </c>
+      <c r="D27" s="37">
+        <v>0.81481499999999996</v>
+      </c>
+      <c r="E27" s="37">
+        <v>0.76851899999999995</v>
+      </c>
+      <c r="F27" s="37">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="G27" s="37">
+        <v>0.82407399999999997</v>
+      </c>
+      <c r="H27" s="37">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="I27" s="37">
+        <v>0.81944399999999995</v>
+      </c>
+      <c r="J27" s="37">
+        <v>0.79166700000000001</v>
+      </c>
+      <c r="K27" s="37">
+        <v>0.80092600000000003</v>
+      </c>
+      <c r="L27" s="37">
+        <v>0.84259300000000004</v>
+      </c>
+      <c r="M27" s="37">
+        <v>0.79166700000000001</v>
+      </c>
+      <c r="N27" s="37"/>
       <c r="O27" s="32"/>
       <c r="P27" s="32"/>
       <c r="Q27" s="32"/>
@@ -20042,25 +21082,45 @@
       <c r="A28" s="24">
         <v>8</v>
       </c>
-      <c r="B28" s="5" t="e">
+      <c r="B28" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.81296310000000016</v>
       </c>
       <c r="C28" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="D28" s="37">
+        <v>0.79166700000000001</v>
+      </c>
+      <c r="E28" s="37">
+        <v>0.81944399999999995</v>
+      </c>
+      <c r="F28" s="37">
+        <v>0.83796300000000001</v>
+      </c>
+      <c r="G28" s="37">
+        <v>0.80555600000000005</v>
+      </c>
+      <c r="H28" s="37">
+        <v>0.81481499999999996</v>
+      </c>
+      <c r="I28" s="37">
+        <v>0.80092600000000003</v>
+      </c>
+      <c r="J28" s="37">
+        <v>0.80092600000000003</v>
+      </c>
+      <c r="K28" s="37">
+        <v>0.80555600000000005</v>
+      </c>
+      <c r="L28" s="37">
+        <v>0.79166700000000001</v>
+      </c>
+      <c r="M28" s="37">
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="N28" s="37"/>
       <c r="O28" s="32"/>
       <c r="P28" s="32"/>
       <c r="Q28" s="32"/>
@@ -20072,25 +21132,45 @@
       <c r="A29" s="24">
         <v>9</v>
       </c>
-      <c r="B29" s="7" t="e">
+      <c r="B29" s="7">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.8694445999999999</v>
       </c>
       <c r="C29" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
+        <v>0.88888900000000004</v>
+      </c>
+      <c r="D29" s="37">
+        <v>0.86574099999999998</v>
+      </c>
+      <c r="E29" s="37">
+        <v>0.87963000000000002</v>
+      </c>
+      <c r="F29" s="37">
+        <v>0.88888900000000004</v>
+      </c>
+      <c r="G29" s="37">
+        <v>0.84259300000000004</v>
+      </c>
+      <c r="H29" s="37">
+        <v>0.87963000000000002</v>
+      </c>
+      <c r="I29" s="37">
+        <v>0.88425900000000002</v>
+      </c>
+      <c r="J29" s="37">
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="K29" s="37">
+        <v>0.87963000000000002</v>
+      </c>
+      <c r="L29" s="37">
+        <v>0.88888900000000004</v>
+      </c>
+      <c r="M29" s="37">
+        <v>0.83796300000000001</v>
+      </c>
+      <c r="N29" s="37"/>
       <c r="O29" s="32"/>
       <c r="P29" s="32"/>
       <c r="Q29" s="32"/>
@@ -20102,53 +21182,53 @@
       <c r="A30" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="24" t="e">
+      <c r="B30" s="24">
         <f>AVERAGE(B21:B29)</f>
-        <v>#DIV/0!</v>
+        <v>0.76589506666666662</v>
       </c>
       <c r="C30" s="24">
         <f>AVERAGE(C21:C29)</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="24" t="e">
+        <v>0.80915633333333337</v>
+      </c>
+      <c r="D30" s="24">
         <f t="shared" ref="D30:T30" si="5">AVERAGE(D21:D29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E30" s="28" t="e">
+        <v>0.76337455555555556</v>
+      </c>
+      <c r="E30" s="28">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="28" t="e">
+        <v>0.75694433333333322</v>
+      </c>
+      <c r="F30" s="28">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="28" t="e">
+        <v>0.79063777777777777</v>
+      </c>
+      <c r="G30" s="28">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="28" t="e">
+        <v>0.76568944444444442</v>
+      </c>
+      <c r="H30" s="28">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="28" t="e">
+        <v>0.75102877777777777</v>
+      </c>
+      <c r="I30" s="28">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J30" s="28" t="e">
+        <v>0.76183111111111101</v>
+      </c>
+      <c r="J30" s="28">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K30" s="28" t="e">
+        <v>0.76157422222222215</v>
+      </c>
+      <c r="K30" s="28">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L30" s="28" t="e">
+        <v>0.76594666666666678</v>
+      </c>
+      <c r="L30" s="28">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M30" s="28" t="e">
+        <v>0.78292188888888892</v>
+      </c>
+      <c r="M30" s="28">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.75900188888888898</v>
       </c>
       <c r="N30" s="28" t="e">
         <f t="shared" si="5"/>
@@ -20180,11 +21260,11 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
@@ -20201,25 +21281,45 @@
       <c r="A36" s="24">
         <v>1</v>
       </c>
-      <c r="B36" s="3" t="e">
+      <c r="B36" s="3">
         <f>AVERAGE(D36:M36,P36:T36)</f>
-        <v>#DIV/0!</v>
+        <v>0.82500010000000013</v>
       </c>
       <c r="C36" s="4">
         <f t="shared" ref="C36:C44" si="6">MAX(D36:AI36)</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
+        <v>0.84027799999999997</v>
+      </c>
+      <c r="D36" s="37">
+        <v>0.84027799999999997</v>
+      </c>
+      <c r="E36" s="37">
+        <v>0.80902799999999997</v>
+      </c>
+      <c r="F36" s="37">
+        <v>0.82638900000000004</v>
+      </c>
+      <c r="G36" s="37">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="H36" s="37">
+        <v>0.82638900000000004</v>
+      </c>
+      <c r="I36" s="37">
+        <v>0.84027799999999997</v>
+      </c>
+      <c r="J36" s="37">
+        <v>0.81597200000000003</v>
+      </c>
+      <c r="K36" s="37">
+        <v>0.79166700000000001</v>
+      </c>
+      <c r="L36" s="37">
+        <v>0.83680600000000005</v>
+      </c>
+      <c r="M36" s="37">
+        <v>0.82986099999999996</v>
+      </c>
+      <c r="N36" s="37"/>
       <c r="O36" s="32"/>
       <c r="P36" s="32"/>
       <c r="Q36" s="32"/>
@@ -20231,25 +21331,45 @@
       <c r="A37" s="24">
         <v>2</v>
       </c>
-      <c r="B37" s="5" t="e">
+      <c r="B37" s="5">
         <f t="shared" ref="B37:B44" si="7">AVERAGE(D37:M37,P37:T37)</f>
-        <v>#DIV/0!</v>
+        <v>0.71770850000000008</v>
       </c>
       <c r="C37" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
+        <v>0.77083299999999999</v>
+      </c>
+      <c r="D37" s="37">
+        <v>0.71527799999999997</v>
+      </c>
+      <c r="E37" s="37">
+        <v>0.71180600000000005</v>
+      </c>
+      <c r="F37" s="37">
+        <v>0.71180600000000005</v>
+      </c>
+      <c r="G37" s="37">
+        <v>0.77083299999999999</v>
+      </c>
+      <c r="H37" s="37">
+        <v>0.73263900000000004</v>
+      </c>
+      <c r="I37" s="37">
+        <v>0.71875</v>
+      </c>
+      <c r="J37" s="37">
+        <v>0.69791700000000001</v>
+      </c>
+      <c r="K37" s="37">
+        <v>0.68055600000000005</v>
+      </c>
+      <c r="L37" s="37">
+        <v>0.73958299999999999</v>
+      </c>
+      <c r="M37" s="37">
+        <v>0.69791700000000001</v>
+      </c>
+      <c r="N37" s="37"/>
       <c r="O37" s="32"/>
       <c r="P37" s="32"/>
       <c r="Q37" s="32"/>
@@ -20261,25 +21381,45 @@
       <c r="A38" s="24">
         <v>3</v>
       </c>
-      <c r="B38" s="5" t="e">
+      <c r="B38" s="5">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.88437509999999997</v>
       </c>
       <c r="C38" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
+        <v>0.90972200000000003</v>
+      </c>
+      <c r="D38" s="37">
+        <v>0.875</v>
+      </c>
+      <c r="E38" s="37">
+        <v>0.89930600000000005</v>
+      </c>
+      <c r="F38" s="37">
+        <v>0.90277799999999997</v>
+      </c>
+      <c r="G38" s="37">
+        <v>0.88541700000000001</v>
+      </c>
+      <c r="H38" s="37">
+        <v>0.90972200000000003</v>
+      </c>
+      <c r="I38" s="37">
+        <v>0.89583299999999999</v>
+      </c>
+      <c r="J38" s="37">
+        <v>0.84027799999999997</v>
+      </c>
+      <c r="K38" s="37">
+        <v>0.87152799999999997</v>
+      </c>
+      <c r="L38" s="37">
+        <v>0.88541700000000001</v>
+      </c>
+      <c r="M38" s="37">
+        <v>0.87847200000000003</v>
+      </c>
+      <c r="N38" s="37"/>
       <c r="O38" s="32"/>
       <c r="P38" s="32"/>
       <c r="Q38" s="32"/>
@@ -20291,25 +21431,45 @@
       <c r="A39" s="24">
         <v>4</v>
       </c>
-      <c r="B39" s="5" t="e">
+      <c r="B39" s="5">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.72968750000000004</v>
       </c>
       <c r="C39" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
+        <v>0.77083299999999999</v>
+      </c>
+      <c r="D39" s="37">
+        <v>0.75520799999999999</v>
+      </c>
+      <c r="E39" s="37">
+        <v>0.71354200000000001</v>
+      </c>
+      <c r="F39" s="37">
+        <v>0.77083299999999999</v>
+      </c>
+      <c r="G39" s="37">
+        <v>0.75520799999999999</v>
+      </c>
+      <c r="H39" s="37">
+        <v>0.74479200000000001</v>
+      </c>
+      <c r="I39" s="37">
+        <v>0.72395799999999999</v>
+      </c>
+      <c r="J39" s="37">
+        <v>0.71354200000000001</v>
+      </c>
+      <c r="K39" s="37">
+        <v>0.734375</v>
+      </c>
+      <c r="L39" s="37">
+        <v>0.71354200000000001</v>
+      </c>
+      <c r="M39" s="37">
+        <v>0.671875</v>
+      </c>
+      <c r="N39" s="37"/>
       <c r="O39" s="32"/>
       <c r="P39" s="32"/>
       <c r="Q39" s="32"/>
@@ -20321,25 +21481,45 @@
       <c r="A40" s="24">
         <v>5</v>
       </c>
-      <c r="B40" s="5" t="e">
+      <c r="B40" s="5">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.80937499999999984</v>
       </c>
       <c r="C40" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
+        <v>0.83680600000000005</v>
+      </c>
+      <c r="D40" s="37">
+        <v>0.82986099999999996</v>
+      </c>
+      <c r="E40" s="37">
+        <v>0.79861099999999996</v>
+      </c>
+      <c r="F40" s="37">
+        <v>0.80555600000000005</v>
+      </c>
+      <c r="G40" s="37">
+        <v>0.82291700000000001</v>
+      </c>
+      <c r="H40" s="37">
+        <v>0.8125</v>
+      </c>
+      <c r="I40" s="37">
+        <v>0.77083299999999999</v>
+      </c>
+      <c r="J40" s="37">
+        <v>0.79513900000000004</v>
+      </c>
+      <c r="K40" s="37">
+        <v>0.80208299999999999</v>
+      </c>
+      <c r="L40" s="37">
+        <v>0.81944399999999995</v>
+      </c>
+      <c r="M40" s="37">
+        <v>0.83680600000000005</v>
+      </c>
+      <c r="N40" s="37"/>
       <c r="O40" s="32"/>
       <c r="P40" s="32"/>
       <c r="Q40" s="32"/>
@@ -20351,25 +21531,45 @@
       <c r="A41" s="24">
         <v>6</v>
       </c>
-      <c r="B41" s="5" t="e">
+      <c r="B41" s="5">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.823264</v>
       </c>
       <c r="C41" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
+        <v>0.85416700000000001</v>
+      </c>
+      <c r="D41" s="37">
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="E41" s="37">
+        <v>0.80902799999999997</v>
+      </c>
+      <c r="F41" s="37">
+        <v>0.80208299999999999</v>
+      </c>
+      <c r="G41" s="37">
+        <v>0.85416700000000001</v>
+      </c>
+      <c r="H41" s="37">
+        <v>0.84375</v>
+      </c>
+      <c r="I41" s="37">
+        <v>0.83680600000000005</v>
+      </c>
+      <c r="J41" s="37">
+        <v>0.81944399999999995</v>
+      </c>
+      <c r="K41" s="37">
+        <v>0.77430600000000005</v>
+      </c>
+      <c r="L41" s="37">
+        <v>0.83680600000000005</v>
+      </c>
+      <c r="M41" s="37">
+        <v>0.80555600000000005</v>
+      </c>
+      <c r="N41" s="37"/>
       <c r="O41" s="32"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="32"/>
@@ -20381,25 +21581,45 @@
       <c r="A42" s="24">
         <v>7</v>
       </c>
-      <c r="B42" s="5" t="e">
+      <c r="B42" s="5">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.85972230000000016</v>
       </c>
       <c r="C42" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
+        <v>0.88541700000000001</v>
+      </c>
+      <c r="D42" s="37">
+        <v>0.85763900000000004</v>
+      </c>
+      <c r="E42" s="37">
+        <v>0.85416700000000001</v>
+      </c>
+      <c r="F42" s="37">
+        <v>0.86805600000000005</v>
+      </c>
+      <c r="G42" s="37">
+        <v>0.85416700000000001</v>
+      </c>
+      <c r="H42" s="37">
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="I42" s="37">
+        <v>0.88541700000000001</v>
+      </c>
+      <c r="J42" s="37">
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="K42" s="37">
+        <v>0.83680600000000005</v>
+      </c>
+      <c r="L42" s="37">
+        <v>0.88194399999999995</v>
+      </c>
+      <c r="M42" s="37">
+        <v>0.85763900000000004</v>
+      </c>
+      <c r="N42" s="37"/>
       <c r="O42" s="32"/>
       <c r="P42" s="32"/>
       <c r="Q42" s="32"/>
@@ -20411,25 +21631,45 @@
       <c r="A43" s="24">
         <v>8</v>
       </c>
-      <c r="B43" s="5" t="e">
+      <c r="B43" s="5">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.85972229999999994</v>
       </c>
       <c r="C43" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
+        <v>0.88541700000000001</v>
+      </c>
+      <c r="D43" s="37">
+        <v>0.87152799999999997</v>
+      </c>
+      <c r="E43" s="37">
+        <v>0.88194399999999995</v>
+      </c>
+      <c r="F43" s="37">
+        <v>0.88541700000000001</v>
+      </c>
+      <c r="G43" s="37">
+        <v>0.88194399999999995</v>
+      </c>
+      <c r="H43" s="37">
+        <v>0.86805600000000005</v>
+      </c>
+      <c r="I43" s="37">
+        <v>0.82986099999999996</v>
+      </c>
+      <c r="J43" s="37">
+        <v>0.82986099999999996</v>
+      </c>
+      <c r="K43" s="37">
+        <v>0.80902799999999997</v>
+      </c>
+      <c r="L43" s="37">
+        <v>0.86805600000000005</v>
+      </c>
+      <c r="M43" s="37">
+        <v>0.87152799999999997</v>
+      </c>
+      <c r="N43" s="37"/>
       <c r="O43" s="32"/>
       <c r="P43" s="32"/>
       <c r="Q43" s="32"/>
@@ -20441,25 +21681,45 @@
       <c r="A44" s="24">
         <v>9</v>
       </c>
-      <c r="B44" s="7" t="e">
+      <c r="B44" s="7">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.89687499999999987</v>
       </c>
       <c r="C44" s="8">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
+        <v>0.92708299999999999</v>
+      </c>
+      <c r="D44" s="37">
+        <v>0.89583299999999999</v>
+      </c>
+      <c r="E44" s="37">
+        <v>0.88888900000000004</v>
+      </c>
+      <c r="F44" s="37">
+        <v>0.92361099999999996</v>
+      </c>
+      <c r="G44" s="37">
+        <v>0.92708299999999999</v>
+      </c>
+      <c r="H44" s="37">
+        <v>0.90625</v>
+      </c>
+      <c r="I44" s="37">
+        <v>0.89930600000000005</v>
+      </c>
+      <c r="J44" s="37">
+        <v>0.87847200000000003</v>
+      </c>
+      <c r="K44" s="37">
+        <v>0.87152799999999997</v>
+      </c>
+      <c r="L44" s="37">
+        <v>0.90972200000000003</v>
+      </c>
+      <c r="M44" s="37">
+        <v>0.86805600000000005</v>
+      </c>
+      <c r="N44" s="37"/>
       <c r="O44" s="32"/>
       <c r="P44" s="32"/>
       <c r="Q44" s="32"/>
@@ -20471,53 +21731,53 @@
       <c r="A45" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="24" t="e">
+      <c r="B45" s="24">
         <f>AVERAGE(B36:B44)</f>
-        <v>#DIV/0!</v>
+        <v>0.82285886666666652</v>
       </c>
       <c r="C45" s="24">
         <f>AVERAGE(C36:C44)</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="24" t="e">
+        <v>0.85339511111111122</v>
+      </c>
+      <c r="D45" s="24">
         <f t="shared" ref="D45:T45" si="8">AVERAGE(D36:D44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E45" s="28" t="e">
+        <v>0.83236877777777762</v>
+      </c>
+      <c r="E45" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F45" s="28" t="e">
+        <v>0.81848011111111107</v>
+      </c>
+      <c r="F45" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G45" s="28" t="e">
+        <v>0.83294766666666675</v>
+      </c>
+      <c r="G45" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H45" s="28" t="e">
+        <v>0.84278544444444448</v>
+      </c>
+      <c r="H45" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" s="28" t="e">
+        <v>0.83275466666666675</v>
+      </c>
+      <c r="I45" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J45" s="28" t="e">
+        <v>0.82233800000000012</v>
+      </c>
+      <c r="J45" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K45" s="28" t="e">
+        <v>0.80459099999999995</v>
+      </c>
+      <c r="K45" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L45" s="28" t="e">
+        <v>0.79687522222222218</v>
+      </c>
+      <c r="L45" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M45" s="28" t="e">
+        <v>0.83236888888888894</v>
+      </c>
+      <c r="M45" s="28">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0.81307888888888891</v>
       </c>
       <c r="N45" s="28" t="e">
         <f t="shared" si="8"/>
@@ -20549,11 +21809,11 @@
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
@@ -20570,25 +21830,45 @@
       <c r="A49" s="24">
         <v>1</v>
       </c>
-      <c r="B49" s="3" t="e">
+      <c r="B49" s="3">
         <f>AVERAGE(D49:M49,P49:T49)</f>
-        <v>#DIV/0!</v>
+        <v>0.76666670000000003</v>
       </c>
       <c r="C49" s="4">
         <f t="shared" ref="C49:C57" si="9">MAX(D49:AI49)</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
+        <v>0.78703699999999999</v>
+      </c>
+      <c r="D49" s="37">
+        <v>0.78703699999999999</v>
+      </c>
+      <c r="E49" s="37">
+        <v>0.74536999999999998</v>
+      </c>
+      <c r="F49" s="37">
+        <v>0.76851899999999995</v>
+      </c>
+      <c r="G49" s="37">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="H49" s="37">
+        <v>0.76851899999999995</v>
+      </c>
+      <c r="I49" s="37">
+        <v>0.78703699999999999</v>
+      </c>
+      <c r="J49" s="37">
+        <v>0.75463000000000002</v>
+      </c>
+      <c r="K49" s="37">
+        <v>0.72222200000000003</v>
+      </c>
+      <c r="L49" s="37">
+        <v>0.78240699999999996</v>
+      </c>
+      <c r="M49" s="37">
+        <v>0.77314799999999995</v>
+      </c>
+      <c r="N49" s="37"/>
       <c r="O49" s="32"/>
       <c r="P49" s="32"/>
       <c r="Q49" s="32"/>
@@ -20600,25 +21880,45 @@
       <c r="A50" s="24">
         <v>2</v>
       </c>
-      <c r="B50" s="5" t="e">
+      <c r="B50" s="5">
         <f t="shared" ref="B50:B57" si="10">AVERAGE(D50:M50,P50:T50)</f>
-        <v>#DIV/0!</v>
+        <v>0.62361109999999997</v>
       </c>
       <c r="C50" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
+        <v>0.69444399999999995</v>
+      </c>
+      <c r="D50" s="37">
+        <v>0.62036999999999998</v>
+      </c>
+      <c r="E50" s="37">
+        <v>0.61574099999999998</v>
+      </c>
+      <c r="F50" s="37">
+        <v>0.61574099999999998</v>
+      </c>
+      <c r="G50" s="37">
+        <v>0.69444399999999995</v>
+      </c>
+      <c r="H50" s="37">
+        <v>0.64351899999999995</v>
+      </c>
+      <c r="I50" s="37">
+        <v>0.625</v>
+      </c>
+      <c r="J50" s="37">
+        <v>0.59722200000000003</v>
+      </c>
+      <c r="K50" s="37">
+        <v>0.57407399999999997</v>
+      </c>
+      <c r="L50" s="37">
+        <v>0.65277799999999997</v>
+      </c>
+      <c r="M50" s="37">
+        <v>0.59722200000000003</v>
+      </c>
+      <c r="N50" s="37"/>
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="32"/>
@@ -20630,25 +21930,45 @@
       <c r="A51" s="24">
         <v>3</v>
       </c>
-      <c r="B51" s="5" t="e">
+      <c r="B51" s="5">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>0.84583330000000001</v>
       </c>
       <c r="C51" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
+        <v>0.87963000000000002</v>
+      </c>
+      <c r="D51" s="37">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="E51" s="37">
+        <v>0.86574099999999998</v>
+      </c>
+      <c r="F51" s="37">
+        <v>0.87036999999999998</v>
+      </c>
+      <c r="G51" s="37">
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="H51" s="37">
+        <v>0.87963000000000002</v>
+      </c>
+      <c r="I51" s="37">
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="J51" s="37">
+        <v>0.78703699999999999</v>
+      </c>
+      <c r="K51" s="37">
+        <v>0.828704</v>
+      </c>
+      <c r="L51" s="37">
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="M51" s="37">
+        <v>0.83796300000000001</v>
+      </c>
+      <c r="N51" s="37"/>
       <c r="O51" s="32"/>
       <c r="P51" s="32"/>
       <c r="Q51" s="32"/>
@@ -20660,25 +21980,45 @@
       <c r="A52" s="24">
         <v>4</v>
       </c>
-      <c r="B52" s="5" t="e">
+      <c r="B52" s="5">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>0.63958329999999985</v>
       </c>
       <c r="C52" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
+        <v>0.69444399999999995</v>
+      </c>
+      <c r="D52" s="37">
+        <v>0.67361099999999996</v>
+      </c>
+      <c r="E52" s="37">
+        <v>0.61805600000000005</v>
+      </c>
+      <c r="F52" s="37">
+        <v>0.69444399999999995</v>
+      </c>
+      <c r="G52" s="37">
+        <v>0.67361099999999996</v>
+      </c>
+      <c r="H52" s="37">
+        <v>0.65972200000000003</v>
+      </c>
+      <c r="I52" s="37">
+        <v>0.63194399999999995</v>
+      </c>
+      <c r="J52" s="37">
+        <v>0.61805600000000005</v>
+      </c>
+      <c r="K52" s="37">
+        <v>0.64583299999999999</v>
+      </c>
+      <c r="L52" s="37">
+        <v>0.61805600000000005</v>
+      </c>
+      <c r="M52" s="37">
+        <v>0.5625</v>
+      </c>
+      <c r="N52" s="37"/>
       <c r="O52" s="32"/>
       <c r="P52" s="32"/>
       <c r="Q52" s="32"/>
@@ -20690,25 +22030,45 @@
       <c r="A53" s="24">
         <v>5</v>
       </c>
-      <c r="B53" s="5" t="e">
+      <c r="B53" s="5">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>0.74583320000000008</v>
       </c>
       <c r="C53" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
+        <v>0.78240699999999996</v>
+      </c>
+      <c r="D53" s="37">
+        <v>0.77314799999999995</v>
+      </c>
+      <c r="E53" s="37">
+        <v>0.73148100000000005</v>
+      </c>
+      <c r="F53" s="37">
+        <v>0.74074099999999998</v>
+      </c>
+      <c r="G53" s="37">
+        <v>0.76388900000000004</v>
+      </c>
+      <c r="H53" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="I53" s="37">
+        <v>0.69444399999999995</v>
+      </c>
+      <c r="J53" s="37">
+        <v>0.72685200000000005</v>
+      </c>
+      <c r="K53" s="37">
+        <v>0.73611099999999996</v>
+      </c>
+      <c r="L53" s="37">
+        <v>0.75925900000000002</v>
+      </c>
+      <c r="M53" s="37">
+        <v>0.78240699999999996</v>
+      </c>
+      <c r="N53" s="37"/>
       <c r="O53" s="32"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="32"/>
@@ -20720,25 +22080,45 @@
       <c r="A54" s="24">
         <v>6</v>
       </c>
-      <c r="B54" s="5" t="e">
+      <c r="B54" s="5">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>0.76435179999999991</v>
       </c>
       <c r="C54" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="32"/>
+        <v>0.80555600000000005</v>
+      </c>
+      <c r="D54" s="37">
+        <v>0.80092600000000003</v>
+      </c>
+      <c r="E54" s="37">
+        <v>0.74536999999999998</v>
+      </c>
+      <c r="F54" s="37">
+        <v>0.73611099999999996</v>
+      </c>
+      <c r="G54" s="37">
+        <v>0.80555600000000005</v>
+      </c>
+      <c r="H54" s="37">
+        <v>0.79166700000000001</v>
+      </c>
+      <c r="I54" s="37">
+        <v>0.78240699999999996</v>
+      </c>
+      <c r="J54" s="37">
+        <v>0.75925900000000002</v>
+      </c>
+      <c r="K54" s="37">
+        <v>0.69907399999999997</v>
+      </c>
+      <c r="L54" s="37">
+        <v>0.78240699999999996</v>
+      </c>
+      <c r="M54" s="37">
+        <v>0.74074099999999998</v>
+      </c>
+      <c r="N54" s="37"/>
       <c r="O54" s="32"/>
       <c r="P54" s="32"/>
       <c r="Q54" s="32"/>
@@ -20750,25 +22130,45 @@
       <c r="A55" s="24">
         <v>7</v>
       </c>
-      <c r="B55" s="5" t="e">
+      <c r="B55" s="5">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>0.81296300000000021</v>
       </c>
       <c r="C55" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="D55" s="37">
+        <v>0.81018500000000004</v>
+      </c>
+      <c r="E55" s="37">
+        <v>0.80555600000000005</v>
+      </c>
+      <c r="F55" s="37">
+        <v>0.82407399999999997</v>
+      </c>
+      <c r="G55" s="37">
+        <v>0.80555600000000005</v>
+      </c>
+      <c r="H55" s="37">
+        <v>0.80092600000000003</v>
+      </c>
+      <c r="I55" s="37">
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="J55" s="37">
+        <v>0.80092600000000003</v>
+      </c>
+      <c r="K55" s="37">
+        <v>0.78240699999999996</v>
+      </c>
+      <c r="L55" s="37">
+        <v>0.84259300000000004</v>
+      </c>
+      <c r="M55" s="37">
+        <v>0.81018500000000004</v>
+      </c>
+      <c r="N55" s="37"/>
       <c r="O55" s="32"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="32"/>
@@ -20780,25 +22180,45 @@
       <c r="A56" s="24">
         <v>8</v>
       </c>
-      <c r="B56" s="5" t="e">
+      <c r="B56" s="5">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>0.8129630000000001</v>
       </c>
       <c r="C56" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="32"/>
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="D56" s="37">
+        <v>0.828704</v>
+      </c>
+      <c r="E56" s="37">
+        <v>0.84259300000000004</v>
+      </c>
+      <c r="F56" s="37">
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="G56" s="37">
+        <v>0.84259300000000004</v>
+      </c>
+      <c r="H56" s="37">
+        <v>0.82407399999999997</v>
+      </c>
+      <c r="I56" s="37">
+        <v>0.77314799999999995</v>
+      </c>
+      <c r="J56" s="37">
+        <v>0.77314799999999995</v>
+      </c>
+      <c r="K56" s="37">
+        <v>0.74536999999999998</v>
+      </c>
+      <c r="L56" s="37">
+        <v>0.82407399999999997</v>
+      </c>
+      <c r="M56" s="37">
+        <v>0.828704</v>
+      </c>
+      <c r="N56" s="37"/>
       <c r="O56" s="32"/>
       <c r="P56" s="32"/>
       <c r="Q56" s="32"/>
@@ -20810,25 +22230,45 @@
       <c r="A57" s="24">
         <v>9</v>
       </c>
-      <c r="B57" s="7" t="e">
+      <c r="B57" s="7">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>0.8625001000000001</v>
       </c>
       <c r="C57" s="8">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="32"/>
+        <v>0.90277799999999997</v>
+      </c>
+      <c r="D57" s="37">
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="E57" s="37">
+        <v>0.85185200000000005</v>
+      </c>
+      <c r="F57" s="37">
+        <v>0.89814799999999995</v>
+      </c>
+      <c r="G57" s="37">
+        <v>0.90277799999999997</v>
+      </c>
+      <c r="H57" s="37">
+        <v>0.875</v>
+      </c>
+      <c r="I57" s="37">
+        <v>0.86574099999999998</v>
+      </c>
+      <c r="J57" s="37">
+        <v>0.83796300000000001</v>
+      </c>
+      <c r="K57" s="37">
+        <v>0.828704</v>
+      </c>
+      <c r="L57" s="37">
+        <v>0.87963000000000002</v>
+      </c>
+      <c r="M57" s="37">
+        <v>0.82407399999999997</v>
+      </c>
+      <c r="N57" s="37"/>
       <c r="O57" s="32"/>
       <c r="P57" s="32"/>
       <c r="Q57" s="32"/>
@@ -20840,55 +22280,55 @@
       <c r="A58" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="24" t="e">
+      <c r="B58" s="24">
         <f>AVERAGE(B49:B57)</f>
-        <v>#DIV/0!</v>
+        <v>0.76381172222222227</v>
       </c>
       <c r="C58" s="24">
         <f>AVERAGE(C49:C57)</f>
-        <v>0</v>
-      </c>
-      <c r="D58" s="24" t="e">
+        <v>0.80452666666666672</v>
+      </c>
+      <c r="D58" s="37">
         <f t="shared" ref="D58:T58" si="11">AVERAGE(D49:D57)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E58" s="28" t="e">
+        <v>0.77649166666666658</v>
+      </c>
+      <c r="E58" s="37">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F58" s="28" t="e">
+        <v>0.75797333333333339</v>
+      </c>
+      <c r="F58" s="37">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G58" s="28" t="e">
+        <v>0.77726333333333342</v>
+      </c>
+      <c r="G58" s="37">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H58" s="28" t="e">
+        <v>0.79038077777777771</v>
+      </c>
+      <c r="H58" s="37">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I58" s="28" t="e">
+        <v>0.77700633333333335</v>
+      </c>
+      <c r="I58" s="37">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J58" s="28" t="e">
+        <v>0.76311711111111113</v>
+      </c>
+      <c r="J58" s="37">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K58" s="28" t="e">
+        <v>0.73945477777777779</v>
+      </c>
+      <c r="K58" s="37">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L58" s="28" t="e">
+        <v>0.72916655555555565</v>
+      </c>
+      <c r="L58" s="37">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M58" s="28" t="e">
+        <v>0.77649177777777778</v>
+      </c>
+      <c r="M58" s="37">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N58" s="28" t="e">
+        <v>0.75077155555555541</v>
+      </c>
+      <c r="N58" s="37" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -20918,11 +22358,11 @@
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
@@ -20930,162 +22370,163 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="N3:O3"/>
+  <mergeCells count="7">
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:M5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D17:U17">
-    <cfRule type="top10" dxfId="73" priority="845" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="72" priority="846" rank="2"/>
+    <cfRule type="top10" dxfId="127" priority="845" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="126" priority="846" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:T8">
-    <cfRule type="top10" dxfId="71" priority="55" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="70" priority="56" rank="2"/>
+    <cfRule type="top10" dxfId="125" priority="55" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="124" priority="56" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:T9">
-    <cfRule type="top10" dxfId="69" priority="57" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="68" priority="58" rank="2"/>
+    <cfRule type="top10" dxfId="123" priority="57" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="122" priority="58" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:T10">
-    <cfRule type="top10" dxfId="67" priority="59" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="66" priority="60" rank="2"/>
+    <cfRule type="top10" dxfId="121" priority="59" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="120" priority="60" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:T11">
-    <cfRule type="top10" dxfId="65" priority="61" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="64" priority="62" rank="2"/>
+    <cfRule type="top10" dxfId="119" priority="61" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="118" priority="62" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:T12">
-    <cfRule type="top10" dxfId="63" priority="63" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="62" priority="64" rank="2"/>
+    <cfRule type="top10" dxfId="117" priority="63" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="116" priority="64" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:T13">
-    <cfRule type="top10" dxfId="61" priority="65" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="60" priority="66" rank="2"/>
+    <cfRule type="top10" dxfId="115" priority="65" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="114" priority="66" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:T14">
-    <cfRule type="top10" dxfId="59" priority="67" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="58" priority="68" rank="2"/>
+    <cfRule type="top10" dxfId="113" priority="67" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="112" priority="68" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:T15">
-    <cfRule type="top10" dxfId="57" priority="69" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="56" priority="70" rank="2"/>
+    <cfRule type="top10" dxfId="111" priority="69" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="110" priority="70" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:T16">
-    <cfRule type="top10" dxfId="55" priority="71" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="54" priority="72" rank="2"/>
+    <cfRule type="top10" dxfId="109" priority="71" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="108" priority="72" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:T21">
-    <cfRule type="top10" dxfId="53" priority="37" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="52" priority="38" rank="2"/>
+    <cfRule type="top10" dxfId="107" priority="37" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="106" priority="38" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:T22">
-    <cfRule type="top10" dxfId="51" priority="39" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="50" priority="40" rank="2"/>
+    <cfRule type="top10" dxfId="105" priority="39" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="104" priority="40" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:T23">
-    <cfRule type="top10" dxfId="49" priority="41" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="48" priority="42" rank="2"/>
+    <cfRule type="top10" dxfId="103" priority="41" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="102" priority="42" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:T24">
-    <cfRule type="top10" dxfId="47" priority="43" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="46" priority="44" rank="2"/>
+    <cfRule type="top10" dxfId="101" priority="43" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="100" priority="44" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:T25">
-    <cfRule type="top10" dxfId="45" priority="45" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="44" priority="46" rank="2"/>
+    <cfRule type="top10" dxfId="99" priority="45" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="98" priority="46" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:T26">
-    <cfRule type="top10" dxfId="43" priority="47" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="42" priority="48" rank="2"/>
+    <cfRule type="top10" dxfId="97" priority="47" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="96" priority="48" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:T27">
-    <cfRule type="top10" dxfId="41" priority="49" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="40" priority="50" rank="2"/>
+    <cfRule type="top10" dxfId="95" priority="49" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="94" priority="50" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:T28">
-    <cfRule type="top10" dxfId="39" priority="51" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="38" priority="52" rank="2"/>
+    <cfRule type="top10" dxfId="93" priority="51" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="92" priority="52" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:T29">
-    <cfRule type="top10" dxfId="37" priority="53" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="36" priority="54" rank="2"/>
+    <cfRule type="top10" dxfId="91" priority="53" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="90" priority="54" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:T36">
-    <cfRule type="top10" dxfId="35" priority="19" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="34" priority="20" rank="2"/>
+    <cfRule type="top10" dxfId="89" priority="19" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="88" priority="20" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:T37">
-    <cfRule type="top10" dxfId="33" priority="21" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="32" priority="22" rank="2"/>
+    <cfRule type="top10" dxfId="87" priority="21" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="86" priority="22" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:T38">
-    <cfRule type="top10" dxfId="31" priority="23" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="30" priority="24" rank="2"/>
+    <cfRule type="top10" dxfId="85" priority="23" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="84" priority="24" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:T39">
-    <cfRule type="top10" dxfId="29" priority="25" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="28" priority="26" rank="2"/>
+    <cfRule type="top10" dxfId="83" priority="25" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="82" priority="26" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:T40">
-    <cfRule type="top10" dxfId="27" priority="27" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="26" priority="28" rank="2"/>
+    <cfRule type="top10" dxfId="81" priority="27" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="80" priority="28" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:T41">
-    <cfRule type="top10" dxfId="25" priority="29" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="24" priority="30" rank="2"/>
+    <cfRule type="top10" dxfId="79" priority="29" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="78" priority="30" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:T42">
-    <cfRule type="top10" dxfId="23" priority="31" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="22" priority="32" rank="2"/>
+    <cfRule type="top10" dxfId="77" priority="31" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="76" priority="32" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:T43">
-    <cfRule type="top10" dxfId="21" priority="33" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="20" priority="34" rank="2"/>
+    <cfRule type="top10" dxfId="75" priority="33" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="74" priority="34" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:T44">
-    <cfRule type="top10" dxfId="19" priority="35" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="18" priority="36" rank="2"/>
+    <cfRule type="top10" dxfId="73" priority="35" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="72" priority="36" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:T49">
-    <cfRule type="top10" dxfId="17" priority="1" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="16" priority="2" rank="2"/>
+    <cfRule type="top10" dxfId="71" priority="1" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="70" priority="2" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:T50">
-    <cfRule type="top10" dxfId="15" priority="3" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="14" priority="4" rank="2"/>
+    <cfRule type="top10" dxfId="69" priority="3" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="68" priority="4" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:T51">
-    <cfRule type="top10" dxfId="13" priority="5" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="12" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="67" priority="5" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="66" priority="6" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:T52">
-    <cfRule type="top10" dxfId="11" priority="7" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="10" priority="8" rank="2"/>
+    <cfRule type="top10" dxfId="65" priority="7" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="64" priority="8" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:T53">
-    <cfRule type="top10" dxfId="9" priority="9" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="8" priority="10" rank="2"/>
+    <cfRule type="top10" dxfId="63" priority="9" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="62" priority="10" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:T54">
-    <cfRule type="top10" dxfId="7" priority="11" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="6" priority="12" rank="2"/>
+    <cfRule type="top10" dxfId="61" priority="11" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="60" priority="12" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:T55">
-    <cfRule type="top10" dxfId="5" priority="13" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="4" priority="14" rank="2"/>
+    <cfRule type="top10" dxfId="59" priority="13" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="58" priority="14" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:T56">
-    <cfRule type="top10" dxfId="3" priority="15" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="2" priority="16" rank="2"/>
+    <cfRule type="top10" dxfId="57" priority="15" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="56" priority="16" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57:T57">
-    <cfRule type="top10" dxfId="1" priority="17" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="0" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="55" priority="17" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="54" priority="18" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Other/Saved_Results_3_2_hidden_space_test_NOT NORMALIZED.xlsx
+++ b/Other/Saved_Results_3_2_hidden_space_test_NOT NORMALIZED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albi2\Documents\GitHub\Variational-Autoencoder-for-EEG-analysis\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B459CB-26ED-4392-A2F4-2DC740EA9DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6246B04F-610A-4B61-A4F9-F2CCAB860F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D2A (2)(Results)" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="D2A (16)(Results)" sheetId="5" r:id="rId4"/>
     <sheet name="D2A (32)(Results)" sheetId="7" r:id="rId5"/>
     <sheet name="D2A (64)(Results)" sheetId="6" r:id="rId6"/>
+    <sheet name="D2A (128)(Results)" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="19">
   <si>
     <t>Subject</t>
   </si>
@@ -200,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -317,19 +318,1565 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1010">
+  <dxfs count="1164">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -10709,7 +12256,7 @@
   <dimension ref="A1:U64"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E58" sqref="E58:P58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10874,29 +12421,29 @@
       </c>
     </row>
     <row r="5" spans="1:21" s="7" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40" t="s">
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
     </row>
     <row r="6" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
     </row>
     <row r="7" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -10915,22 +12462,51 @@
       </c>
       <c r="B8" s="1">
         <f>AVERAGE(D8:AJ8)</f>
-        <v>0.83333349999999995</v>
+        <v>0.8274572307692305</v>
       </c>
       <c r="C8" s="2">
         <f>MAX(D8:AJ8)</f>
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="D8" s="40">
         <v>0.84027799999999997</v>
       </c>
-      <c r="D8" s="41">
-        <v>0.84027799999999997</v>
-      </c>
-      <c r="E8" s="41">
+      <c r="E8" s="40">
         <v>0.82638900000000004</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="L8" s="12"/>
+      <c r="F8" s="38">
+        <v>0.82986099999999996</v>
+      </c>
+      <c r="G8" s="38">
+        <v>0.82291700000000001</v>
+      </c>
+      <c r="H8" s="38">
+        <v>0.82638900000000004</v>
+      </c>
+      <c r="I8" s="38">
+        <v>0.84375</v>
+      </c>
+      <c r="J8" s="38">
+        <v>0.82638900000000004</v>
+      </c>
+      <c r="K8" s="38">
+        <v>0.80902799999999997</v>
+      </c>
+      <c r="L8" s="38">
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="M8" s="38">
+        <v>0.84375</v>
+      </c>
+      <c r="N8" s="38">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="O8" s="38">
+        <v>0.80208299999999999</v>
+      </c>
+      <c r="P8" s="38">
+        <v>0.80208299999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
@@ -10938,22 +12514,51 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" ref="B9:B16" si="0">AVERAGE(D9:AJ9)</f>
-        <v>0.72222199999999992</v>
+        <v>0.72783130769230775</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" ref="C9:C16" si="1">MAX(D9:AJ9)</f>
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="D9" s="40">
+        <v>0.69444399999999995</v>
+      </c>
+      <c r="E9" s="40">
         <v>0.75</v>
       </c>
-      <c r="D9" s="41">
-        <v>0.69444399999999995</v>
-      </c>
-      <c r="E9" s="41">
-        <v>0.75</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="L9" s="12"/>
+      <c r="F9" s="38">
+        <v>0.71875</v>
+      </c>
+      <c r="G9" s="38">
+        <v>0.71180600000000005</v>
+      </c>
+      <c r="H9" s="38">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="I9" s="38">
+        <v>0.72222200000000003</v>
+      </c>
+      <c r="J9" s="38">
+        <v>0.70138900000000004</v>
+      </c>
+      <c r="K9" s="38">
+        <v>0.76041700000000001</v>
+      </c>
+      <c r="L9" s="38">
+        <v>0.6875</v>
+      </c>
+      <c r="M9" s="38">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="N9" s="38">
+        <v>0.71527799999999997</v>
+      </c>
+      <c r="O9" s="38">
+        <v>0.72916700000000001</v>
+      </c>
+      <c r="P9" s="38">
+        <v>0.71527799999999997</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
@@ -10961,22 +12566,51 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>0.88715300000000008</v>
+        <v>0.87820507692307692</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="1"/>
         <v>0.90625</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="40">
         <v>0.86805600000000005</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="40">
         <v>0.90625</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="L10" s="12"/>
+      <c r="F10" s="38">
+        <v>0.89583299999999999</v>
+      </c>
+      <c r="G10" s="38">
+        <v>0.81597200000000003</v>
+      </c>
+      <c r="H10" s="38">
+        <v>0.89236099999999996</v>
+      </c>
+      <c r="I10" s="38">
+        <v>0.90277799999999997</v>
+      </c>
+      <c r="J10" s="38">
+        <v>0.89583299999999999</v>
+      </c>
+      <c r="K10" s="38">
+        <v>0.89583299999999999</v>
+      </c>
+      <c r="L10" s="38">
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="M10" s="38">
+        <v>0.88888900000000004</v>
+      </c>
+      <c r="N10" s="38">
+        <v>0.86458299999999999</v>
+      </c>
+      <c r="O10" s="38">
+        <v>0.85416700000000001</v>
+      </c>
+      <c r="P10" s="38">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
@@ -10984,22 +12618,51 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>0.734375</v>
+        <v>0.73557692307692313</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="1"/>
+        <v>0.78645799999999999</v>
+      </c>
+      <c r="D11" s="40">
+        <v>0.72916700000000001</v>
+      </c>
+      <c r="E11" s="40">
         <v>0.73958299999999999</v>
       </c>
-      <c r="D11" s="41">
+      <c r="F11" s="38">
         <v>0.72916700000000001</v>
       </c>
-      <c r="E11" s="41">
-        <v>0.73958299999999999</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="L11" s="12"/>
+      <c r="G11" s="38">
+        <v>0.77083299999999999</v>
+      </c>
+      <c r="H11" s="38">
+        <v>0.78645799999999999</v>
+      </c>
+      <c r="I11" s="38">
+        <v>0.72395799999999999</v>
+      </c>
+      <c r="J11" s="38">
+        <v>0.6875</v>
+      </c>
+      <c r="K11" s="38">
+        <v>0.765625</v>
+      </c>
+      <c r="L11" s="38">
+        <v>0.74479200000000001</v>
+      </c>
+      <c r="M11" s="38">
+        <v>0.71875</v>
+      </c>
+      <c r="N11" s="38">
+        <v>0.734375</v>
+      </c>
+      <c r="O11" s="38">
+        <v>0.6875</v>
+      </c>
+      <c r="P11" s="38">
+        <v>0.74479200000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
@@ -11007,22 +12670,51 @@
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>0.80729150000000005</v>
+        <v>0.79620715384615393</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="1"/>
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="D12" s="40">
+        <v>0.76388900000000004</v>
+      </c>
+      <c r="E12" s="40">
         <v>0.85069399999999995</v>
       </c>
-      <c r="D12" s="41">
-        <v>0.76388900000000004</v>
-      </c>
-      <c r="E12" s="41">
+      <c r="F12" s="38">
+        <v>0.82986099999999996</v>
+      </c>
+      <c r="G12" s="38">
+        <v>0.77430600000000005</v>
+      </c>
+      <c r="H12" s="38">
+        <v>0.80208299999999999</v>
+      </c>
+      <c r="I12" s="38">
+        <v>0.78472200000000003</v>
+      </c>
+      <c r="J12" s="38">
+        <v>0.78125</v>
+      </c>
+      <c r="K12" s="38">
+        <v>0.78125</v>
+      </c>
+      <c r="L12" s="38">
+        <v>0.77083299999999999</v>
+      </c>
+      <c r="M12" s="38">
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="N12" s="38">
+        <v>0.79861099999999996</v>
+      </c>
+      <c r="O12" s="38">
+        <v>0.70138900000000004</v>
+      </c>
+      <c r="P12" s="38">
         <v>0.85069399999999995</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
@@ -11030,22 +12722,51 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>0.81597249999999999</v>
+        <v>0.82078000000000018</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="1"/>
+        <v>0.84375</v>
+      </c>
+      <c r="D13" s="40">
         <v>0.82291700000000001</v>
       </c>
-      <c r="D13" s="41">
+      <c r="E13" s="40">
+        <v>0.80902799999999997</v>
+      </c>
+      <c r="F13" s="38">
+        <v>0.84375</v>
+      </c>
+      <c r="G13" s="38">
+        <v>0.79166700000000001</v>
+      </c>
+      <c r="H13" s="38">
+        <v>0.82638900000000004</v>
+      </c>
+      <c r="I13" s="38">
+        <v>0.84027799999999997</v>
+      </c>
+      <c r="J13" s="38">
         <v>0.82291700000000001</v>
       </c>
-      <c r="E13" s="41">
-        <v>0.80902799999999997</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="L13" s="12"/>
+      <c r="K13" s="38">
+        <v>0.84027799999999997</v>
+      </c>
+      <c r="L13" s="38">
+        <v>0.8125</v>
+      </c>
+      <c r="M13" s="38">
+        <v>0.82638900000000004</v>
+      </c>
+      <c r="N13" s="38">
+        <v>0.82638900000000004</v>
+      </c>
+      <c r="O13" s="38">
+        <v>0.78819399999999995</v>
+      </c>
+      <c r="P13" s="38">
+        <v>0.81944399999999995</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
@@ -11053,22 +12774,51 @@
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>0.85069450000000002</v>
+        <v>0.85603630769230776</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="1"/>
+        <v>0.87847200000000003</v>
+      </c>
+      <c r="D14" s="40">
+        <v>0.84375</v>
+      </c>
+      <c r="E14" s="40">
         <v>0.85763900000000004</v>
       </c>
-      <c r="D14" s="41">
+      <c r="F14" s="38">
+        <v>0.86805600000000005</v>
+      </c>
+      <c r="G14" s="38">
+        <v>0.87152799999999997</v>
+      </c>
+      <c r="H14" s="38">
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="I14" s="38">
+        <v>0.86458299999999999</v>
+      </c>
+      <c r="J14" s="38">
         <v>0.84375</v>
       </c>
-      <c r="E14" s="41">
-        <v>0.85763900000000004</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="L14" s="12"/>
+      <c r="K14" s="38">
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="L14" s="38">
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="M14" s="38">
+        <v>0.87847200000000003</v>
+      </c>
+      <c r="N14" s="38">
+        <v>0.84027799999999997</v>
+      </c>
+      <c r="O14" s="38">
+        <v>0.84027799999999997</v>
+      </c>
+      <c r="P14" s="38">
+        <v>0.85069399999999995</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
@@ -11076,22 +12826,51 @@
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>0.88368049999999998</v>
+        <v>0.85924138461538457</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="1"/>
         <v>0.90277799999999997</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="40">
         <v>0.90277799999999997</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="40">
         <v>0.86458299999999999</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="L15" s="12"/>
+      <c r="F15" s="38">
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="G15" s="38">
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="H15" s="38">
+        <v>0.87152799999999997</v>
+      </c>
+      <c r="I15" s="38">
+        <v>0.86458299999999999</v>
+      </c>
+      <c r="J15" s="38">
+        <v>0.86805600000000005</v>
+      </c>
+      <c r="K15" s="38">
+        <v>0.82638900000000004</v>
+      </c>
+      <c r="L15" s="38">
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="M15" s="38">
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="N15" s="38">
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="O15" s="38">
+        <v>0.86458299999999999</v>
+      </c>
+      <c r="P15" s="38">
+        <v>0.85416700000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
@@ -11099,56 +12878,125 @@
       </c>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
-        <v>0.90798599999999996</v>
+        <v>0.90224361538461528</v>
       </c>
       <c r="C16" s="6">
         <f t="shared" si="1"/>
+        <v>0.94791700000000001</v>
+      </c>
+      <c r="D16" s="40">
         <v>0.92708299999999999</v>
       </c>
-      <c r="D16" s="41">
-        <v>0.92708299999999999</v>
-      </c>
-      <c r="E16" s="41">
+      <c r="E16" s="40">
         <v>0.88888900000000004</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="L16" s="12"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F16" s="38">
+        <v>0.94097200000000003</v>
+      </c>
+      <c r="G16" s="38">
+        <v>0.89236099999999996</v>
+      </c>
+      <c r="H16" s="38">
+        <v>0.94791700000000001</v>
+      </c>
+      <c r="I16" s="38">
+        <v>0.90972200000000003</v>
+      </c>
+      <c r="J16" s="38">
+        <v>0.90277799999999997</v>
+      </c>
+      <c r="K16" s="38">
+        <v>0.88888900000000004</v>
+      </c>
+      <c r="L16" s="38">
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="M16" s="38">
+        <v>0.90277799999999997</v>
+      </c>
+      <c r="N16" s="38">
+        <v>0.90277799999999997</v>
+      </c>
+      <c r="O16" s="38">
+        <v>0.90277799999999997</v>
+      </c>
+      <c r="P16" s="38">
+        <v>0.86111099999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="10">
         <f>AVERAGE(B8:B16)</f>
-        <v>0.82696761111111117</v>
+        <v>0.82261988888888893</v>
       </c>
       <c r="C17" s="10">
         <f>AVERAGE(C8:C16)</f>
-        <v>0.84413577777777771</v>
+        <v>0.86168977777777789</v>
       </c>
       <c r="D17" s="36">
-        <f t="shared" ref="D17:E17" si="2">AVERAGE(D8:D16)</f>
+        <f t="shared" ref="D17:P17" si="2">AVERAGE(D8:D16)</f>
         <v>0.82137355555555547</v>
       </c>
       <c r="E17" s="36">
         <f t="shared" si="2"/>
         <v>0.83256166666666653</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="L17" s="12"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
+      <c r="F17" s="38">
+        <f t="shared" si="2"/>
+        <v>0.8341048888888889</v>
+      </c>
+      <c r="G17" s="38">
+        <f t="shared" si="2"/>
+        <v>0.81095688888888895</v>
+      </c>
+      <c r="H17" s="38">
+        <f t="shared" si="2"/>
+        <v>0.84355711111111109</v>
+      </c>
+      <c r="I17" s="38">
+        <f t="shared" si="2"/>
+        <v>0.82851066666666662</v>
+      </c>
+      <c r="J17" s="38">
+        <f t="shared" si="2"/>
+        <v>0.81442911111111116</v>
+      </c>
+      <c r="K17" s="38">
+        <f t="shared" si="2"/>
+        <v>0.82388122222222215</v>
+      </c>
+      <c r="L17" s="38">
+        <f t="shared" si="2"/>
+        <v>0.81076377777777786</v>
+      </c>
+      <c r="M17" s="38">
+        <f t="shared" si="2"/>
+        <v>0.83989200000000008</v>
+      </c>
+      <c r="N17" s="38">
+        <f t="shared" si="2"/>
+        <v>0.81809411111111108</v>
+      </c>
+      <c r="O17" s="38">
+        <f t="shared" si="2"/>
+        <v>0.79668211111111098</v>
+      </c>
+      <c r="P17" s="38">
+        <f t="shared" si="2"/>
+        <v>0.81925144444444453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>0</v>
       </c>
@@ -11159,245 +13007,547 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>1</v>
       </c>
       <c r="B21" s="1">
         <f>AVERAGE(D21:AJ21)</f>
-        <v>0.77777799999999997</v>
+        <v>0.76994315384615375</v>
       </c>
       <c r="C21" s="2">
         <f>MAX(D21:AJ21)</f>
+        <v>0.80092600000000003</v>
+      </c>
+      <c r="D21" s="40">
         <v>0.78703699999999999</v>
       </c>
-      <c r="D21" s="41">
-        <v>0.78703699999999999</v>
-      </c>
-      <c r="E21" s="41">
+      <c r="E21" s="40">
         <v>0.76851899999999995</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="L21" s="12"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F21" s="38">
+        <v>0.77314799999999995</v>
+      </c>
+      <c r="G21" s="38">
+        <v>0.76388900000000004</v>
+      </c>
+      <c r="H21" s="38">
+        <v>0.76851899999999995</v>
+      </c>
+      <c r="I21" s="38">
+        <v>0.79166700000000001</v>
+      </c>
+      <c r="J21" s="38">
+        <v>0.76851899999999995</v>
+      </c>
+      <c r="K21" s="38">
+        <v>0.74536999999999998</v>
+      </c>
+      <c r="L21" s="38">
+        <v>0.80092600000000003</v>
+      </c>
+      <c r="M21" s="38">
+        <v>0.79166700000000001</v>
+      </c>
+      <c r="N21" s="38">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="O21" s="38">
+        <v>0.73611099999999996</v>
+      </c>
+      <c r="P21" s="38">
+        <v>0.73611099999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>2</v>
       </c>
       <c r="B22" s="3">
         <f t="shared" ref="B22:B29" si="3">AVERAGE(D22:AJ22)</f>
-        <v>0.62963000000000002</v>
+        <v>0.63710838461538466</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C29" si="4">MAX(D22:AJ22)</f>
+        <v>0.703704</v>
+      </c>
+      <c r="D22" s="40">
+        <v>0.59259300000000004</v>
+      </c>
+      <c r="E22" s="40">
         <v>0.66666700000000001</v>
       </c>
-      <c r="D22" s="41">
-        <v>0.59259300000000004</v>
-      </c>
-      <c r="E22" s="41">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="L22" s="12"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F22" s="38">
+        <v>0.625</v>
+      </c>
+      <c r="G22" s="38">
+        <v>0.61574099999999998</v>
+      </c>
+      <c r="H22" s="38">
+        <v>0.703704</v>
+      </c>
+      <c r="I22" s="38">
+        <v>0.62963000000000002</v>
+      </c>
+      <c r="J22" s="38">
+        <v>0.60185200000000005</v>
+      </c>
+      <c r="K22" s="38">
+        <v>0.68055600000000005</v>
+      </c>
+      <c r="L22" s="38">
+        <v>0.58333299999999999</v>
+      </c>
+      <c r="M22" s="38">
+        <v>0.703704</v>
+      </c>
+      <c r="N22" s="38">
+        <v>0.62036999999999998</v>
+      </c>
+      <c r="O22" s="38">
+        <v>0.63888900000000004</v>
+      </c>
+      <c r="P22" s="38">
+        <v>0.62036999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>3</v>
       </c>
       <c r="B23" s="3">
         <f t="shared" si="3"/>
-        <v>0.84953699999999999</v>
+        <v>0.83760676923076938</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="4"/>
         <v>0.875</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="40">
         <v>0.82407399999999997</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="40">
         <v>0.875</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="L23" s="12"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F23" s="38">
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="G23" s="38">
+        <v>0.75463000000000002</v>
+      </c>
+      <c r="H23" s="38">
+        <v>0.85648100000000005</v>
+      </c>
+      <c r="I23" s="38">
+        <v>0.87036999999999998</v>
+      </c>
+      <c r="J23" s="38">
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="K23" s="38">
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="L23" s="38">
+        <v>0.81481499999999996</v>
+      </c>
+      <c r="M23" s="38">
+        <v>0.85185200000000005</v>
+      </c>
+      <c r="N23" s="38">
+        <v>0.81944399999999995</v>
+      </c>
+      <c r="O23" s="38">
+        <v>0.80555600000000005</v>
+      </c>
+      <c r="P23" s="38">
+        <v>0.83333299999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>4</v>
       </c>
       <c r="B24" s="3">
         <f t="shared" si="3"/>
-        <v>0.64583349999999995</v>
+        <v>0.64743576923076929</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="4"/>
+        <v>0.71527799999999997</v>
+      </c>
+      <c r="D24" s="40">
+        <v>0.63888900000000004</v>
+      </c>
+      <c r="E24" s="40">
         <v>0.65277799999999997</v>
       </c>
-      <c r="D24" s="41">
+      <c r="F24" s="38">
         <v>0.63888900000000004</v>
       </c>
-      <c r="E24" s="41">
-        <v>0.65277799999999997</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="L24" s="12"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G24" s="38">
+        <v>0.69444399999999995</v>
+      </c>
+      <c r="H24" s="38">
+        <v>0.71527799999999997</v>
+      </c>
+      <c r="I24" s="38">
+        <v>0.63194399999999995</v>
+      </c>
+      <c r="J24" s="38">
+        <v>0.58333299999999999</v>
+      </c>
+      <c r="K24" s="38">
+        <v>0.6875</v>
+      </c>
+      <c r="L24" s="38">
+        <v>0.65972200000000003</v>
+      </c>
+      <c r="M24" s="38">
+        <v>0.625</v>
+      </c>
+      <c r="N24" s="38">
+        <v>0.64583299999999999</v>
+      </c>
+      <c r="O24" s="38">
+        <v>0.58333299999999999</v>
+      </c>
+      <c r="P24" s="38">
+        <v>0.65972200000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>5</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" si="3"/>
-        <v>0.74305550000000009</v>
+        <v>0.72827623076923065</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="4"/>
+        <v>0.81481499999999996</v>
+      </c>
+      <c r="D25" s="40">
+        <v>0.68518500000000004</v>
+      </c>
+      <c r="E25" s="40">
         <v>0.80092600000000003</v>
       </c>
-      <c r="D25" s="41">
-        <v>0.68518500000000004</v>
-      </c>
-      <c r="E25" s="41">
+      <c r="F25" s="38">
+        <v>0.77314799999999995</v>
+      </c>
+      <c r="G25" s="38">
+        <v>0.69907399999999997</v>
+      </c>
+      <c r="H25" s="38">
+        <v>0.73611099999999996</v>
+      </c>
+      <c r="I25" s="38">
+        <v>0.71296300000000001</v>
+      </c>
+      <c r="J25" s="38">
+        <v>0.70833299999999999</v>
+      </c>
+      <c r="K25" s="38">
+        <v>0.70833299999999999</v>
+      </c>
+      <c r="L25" s="38">
+        <v>0.69444399999999995</v>
+      </c>
+      <c r="M25" s="38">
+        <v>0.81481499999999996</v>
+      </c>
+      <c r="N25" s="38">
+        <v>0.73148100000000005</v>
+      </c>
+      <c r="O25" s="38">
+        <v>0.60185200000000005</v>
+      </c>
+      <c r="P25" s="38">
         <v>0.80092600000000003</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="L25" s="12"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>6</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" si="3"/>
-        <v>0.75462950000000006</v>
+        <v>0.76104000000000005</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="4"/>
+        <v>0.79166700000000001</v>
+      </c>
+      <c r="D26" s="40">
         <v>0.76388900000000004</v>
       </c>
-      <c r="D26" s="41">
+      <c r="E26" s="40">
+        <v>0.74536999999999998</v>
+      </c>
+      <c r="F26" s="38">
+        <v>0.79166700000000001</v>
+      </c>
+      <c r="G26" s="38">
+        <v>0.72222200000000003</v>
+      </c>
+      <c r="H26" s="38">
+        <v>0.76851899999999995</v>
+      </c>
+      <c r="I26" s="38">
+        <v>0.78703699999999999</v>
+      </c>
+      <c r="J26" s="38">
         <v>0.76388900000000004</v>
       </c>
-      <c r="E26" s="41">
-        <v>0.74536999999999998</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="L26" s="12"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K26" s="38">
+        <v>0.78703699999999999</v>
+      </c>
+      <c r="L26" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="M26" s="38">
+        <v>0.76851899999999995</v>
+      </c>
+      <c r="N26" s="38">
+        <v>0.76851899999999995</v>
+      </c>
+      <c r="O26" s="38">
+        <v>0.71759300000000004</v>
+      </c>
+      <c r="P26" s="38">
+        <v>0.75925900000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>7</v>
       </c>
       <c r="B27" s="3">
         <f t="shared" si="3"/>
-        <v>0.80092600000000003</v>
+        <v>0.80804846153846155</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" si="4"/>
+        <v>0.83796300000000001</v>
+      </c>
+      <c r="D27" s="40">
+        <v>0.79166700000000001</v>
+      </c>
+      <c r="E27" s="40">
         <v>0.81018500000000004</v>
       </c>
-      <c r="D27" s="41">
+      <c r="F27" s="38">
+        <v>0.82407399999999997</v>
+      </c>
+      <c r="G27" s="38">
+        <v>0.828704</v>
+      </c>
+      <c r="H27" s="38">
+        <v>0.81481499999999996</v>
+      </c>
+      <c r="I27" s="38">
+        <v>0.81944399999999995</v>
+      </c>
+      <c r="J27" s="38">
         <v>0.79166700000000001</v>
       </c>
-      <c r="E27" s="41">
-        <v>0.81018500000000004</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="L27" s="12"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K27" s="38">
+        <v>0.796296</v>
+      </c>
+      <c r="L27" s="38">
+        <v>0.81481499999999996</v>
+      </c>
+      <c r="M27" s="38">
+        <v>0.83796300000000001</v>
+      </c>
+      <c r="N27" s="38">
+        <v>0.78703699999999999</v>
+      </c>
+      <c r="O27" s="38">
+        <v>0.78703699999999999</v>
+      </c>
+      <c r="P27" s="38">
+        <v>0.80092600000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>8</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" si="3"/>
-        <v>0.84490699999999996</v>
+        <v>0.81232184615384595</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="4"/>
         <v>0.87036999999999998</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="40">
         <v>0.87036999999999998</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28" s="40">
         <v>0.81944399999999995</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="L28" s="12"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F28" s="38">
+        <v>0.80092600000000003</v>
+      </c>
+      <c r="G28" s="38">
+        <v>0.796296</v>
+      </c>
+      <c r="H28" s="38">
+        <v>0.828704</v>
+      </c>
+      <c r="I28" s="38">
+        <v>0.81944399999999995</v>
+      </c>
+      <c r="J28" s="38">
+        <v>0.82407399999999997</v>
+      </c>
+      <c r="K28" s="38">
+        <v>0.76851899999999995</v>
+      </c>
+      <c r="L28" s="38">
+        <v>0.796296</v>
+      </c>
+      <c r="M28" s="38">
+        <v>0.81481499999999996</v>
+      </c>
+      <c r="N28" s="38">
+        <v>0.796296</v>
+      </c>
+      <c r="O28" s="38">
+        <v>0.81944399999999995</v>
+      </c>
+      <c r="P28" s="38">
+        <v>0.80555600000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>9</v>
       </c>
       <c r="B29" s="5">
         <f t="shared" si="3"/>
-        <v>0.87731500000000007</v>
+        <v>0.86965807692307684</v>
       </c>
       <c r="C29" s="6">
         <f t="shared" si="4"/>
+        <v>0.93055600000000005</v>
+      </c>
+      <c r="D29" s="40">
         <v>0.90277799999999997</v>
       </c>
-      <c r="D29" s="41">
-        <v>0.90277799999999997</v>
-      </c>
-      <c r="E29" s="41">
+      <c r="E29" s="40">
         <v>0.85185200000000005</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="L29" s="12"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F29" s="38">
+        <v>0.921296</v>
+      </c>
+      <c r="G29" s="38">
+        <v>0.85648100000000005</v>
+      </c>
+      <c r="H29" s="38">
+        <v>0.93055600000000005</v>
+      </c>
+      <c r="I29" s="38">
+        <v>0.87963000000000002</v>
+      </c>
+      <c r="J29" s="38">
+        <v>0.87036999999999998</v>
+      </c>
+      <c r="K29" s="38">
+        <v>0.85185200000000005</v>
+      </c>
+      <c r="L29" s="38">
+        <v>0.81481499999999996</v>
+      </c>
+      <c r="M29" s="38">
+        <v>0.87036999999999998</v>
+      </c>
+      <c r="N29" s="38">
+        <v>0.87036999999999998</v>
+      </c>
+      <c r="O29" s="38">
+        <v>0.87036999999999998</v>
+      </c>
+      <c r="P29" s="38">
+        <v>0.81481499999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="10">
         <f>AVERAGE(B21:B29)</f>
-        <v>0.76929016666666683</v>
+        <v>0.7634931880341882</v>
       </c>
       <c r="C30" s="10">
         <f>AVERAGE(C21:C29)</f>
-        <v>0.79218111111111111</v>
+        <v>0.81558655555555559</v>
       </c>
       <c r="D30" s="36">
-        <f t="shared" ref="D30:E30" si="5">AVERAGE(D21:D29)</f>
+        <f t="shared" ref="D30:P30" si="5">AVERAGE(D21:D29)</f>
         <v>0.76183133333333342</v>
       </c>
       <c r="E30" s="36">
         <f t="shared" si="5"/>
         <v>0.77674900000000002</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="38" t="s">
+      <c r="F30" s="38">
+        <f t="shared" si="5"/>
+        <v>0.77880655555555556</v>
+      </c>
+      <c r="G30" s="38">
+        <f t="shared" si="5"/>
+        <v>0.74794233333333338</v>
+      </c>
+      <c r="H30" s="38">
+        <f t="shared" si="5"/>
+        <v>0.79140966666666679</v>
+      </c>
+      <c r="I30" s="38">
+        <f t="shared" si="5"/>
+        <v>0.77134766666666654</v>
+      </c>
+      <c r="J30" s="38">
+        <f t="shared" si="5"/>
+        <v>0.75257200000000002</v>
+      </c>
+      <c r="K30" s="38">
+        <f t="shared" si="5"/>
+        <v>0.76517488888888896</v>
+      </c>
+      <c r="L30" s="38">
+        <f t="shared" si="5"/>
+        <v>0.74768511111111113</v>
+      </c>
+      <c r="M30" s="38">
+        <f t="shared" si="5"/>
+        <v>0.7865227777777779</v>
+      </c>
+      <c r="N30" s="38">
+        <f t="shared" si="5"/>
+        <v>0.75745866666666661</v>
+      </c>
+      <c r="O30" s="38">
+        <f t="shared" si="5"/>
+        <v>0.7289094444444445</v>
+      </c>
+      <c r="P30" s="38">
+        <f t="shared" si="5"/>
+        <v>0.75900200000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>0</v>
       </c>
@@ -11408,245 +13558,547 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>1</v>
       </c>
       <c r="B36" s="1">
         <f>AVERAGE(D36:AJ36)</f>
-        <v>0.81944450000000002</v>
+        <v>0.82451915384615393</v>
       </c>
       <c r="C36" s="2">
         <f>MAX(D36:AJ36)</f>
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="D36" s="40">
+        <v>0.81597200000000003</v>
+      </c>
+      <c r="E36" s="40">
         <v>0.82291700000000001</v>
       </c>
-      <c r="D36" s="41">
+      <c r="F36" s="38">
+        <v>0.84027799999999997</v>
+      </c>
+      <c r="G36" s="38">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="H36" s="38">
+        <v>0.82291700000000001</v>
+      </c>
+      <c r="I36" s="38">
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="J36" s="38">
+        <v>0.80208299999999999</v>
+      </c>
+      <c r="K36" s="38">
+        <v>0.8125</v>
+      </c>
+      <c r="L36" s="38">
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="M36" s="38">
+        <v>0.80208299999999999</v>
+      </c>
+      <c r="N36" s="38">
+        <v>0.82291700000000001</v>
+      </c>
+      <c r="O36" s="38">
         <v>0.81597200000000003</v>
       </c>
-      <c r="E36" s="41">
-        <v>0.82291700000000001</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="L36" s="12"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P36" s="38">
+        <v>0.82638900000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <v>2</v>
       </c>
       <c r="B37" s="3">
         <f t="shared" ref="B37:B44" si="6">AVERAGE(D37:AJ37)</f>
-        <v>0.71875</v>
+        <v>0.72489330769230764</v>
       </c>
       <c r="C37" s="4">
         <f t="shared" ref="C37:C44" si="7">MAX(D37:AJ37)</f>
+        <v>0.76041700000000001</v>
+      </c>
+      <c r="D37" s="40">
+        <v>0.70833299999999999</v>
+      </c>
+      <c r="E37" s="40">
         <v>0.72916700000000001</v>
       </c>
-      <c r="D37" s="41">
-        <v>0.70833299999999999</v>
-      </c>
-      <c r="E37" s="41">
+      <c r="F37" s="38">
         <v>0.72916700000000001</v>
       </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="L37" s="12"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G37" s="38">
+        <v>0.76041700000000001</v>
+      </c>
+      <c r="H37" s="38">
+        <v>0.72916700000000001</v>
+      </c>
+      <c r="I37" s="38">
+        <v>0.70138900000000004</v>
+      </c>
+      <c r="J37" s="38">
+        <v>0.70138900000000004</v>
+      </c>
+      <c r="K37" s="38">
+        <v>0.74652799999999997</v>
+      </c>
+      <c r="L37" s="38">
+        <v>0.69097200000000003</v>
+      </c>
+      <c r="M37" s="38">
+        <v>0.72916700000000001</v>
+      </c>
+      <c r="N37" s="38">
+        <v>0.72569399999999995</v>
+      </c>
+      <c r="O37" s="38">
+        <v>0.74305600000000005</v>
+      </c>
+      <c r="P37" s="38">
+        <v>0.72916700000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <v>3</v>
       </c>
       <c r="B38" s="3">
         <f t="shared" si="6"/>
-        <v>0.890625</v>
+        <v>0.87686969230769241</v>
       </c>
       <c r="C38" s="4">
         <f t="shared" si="7"/>
+        <v>0.90972200000000003</v>
+      </c>
+      <c r="D38" s="40">
         <v>0.89583299999999999</v>
       </c>
-      <c r="D38" s="41">
-        <v>0.89583299999999999</v>
-      </c>
-      <c r="E38" s="41">
+      <c r="E38" s="40">
         <v>0.88541700000000001</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="L38" s="12"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F38" s="38">
+        <v>0.87152799999999997</v>
+      </c>
+      <c r="G38" s="38">
+        <v>0.86805600000000005</v>
+      </c>
+      <c r="H38" s="38">
+        <v>0.88194399999999995</v>
+      </c>
+      <c r="I38" s="38">
+        <v>0.90972200000000003</v>
+      </c>
+      <c r="J38" s="38">
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="K38" s="38">
+        <v>0.87152799999999997</v>
+      </c>
+      <c r="L38" s="38">
+        <v>0.87847200000000003</v>
+      </c>
+      <c r="M38" s="38">
+        <v>0.83680600000000005</v>
+      </c>
+      <c r="N38" s="38">
+        <v>0.88888900000000004</v>
+      </c>
+      <c r="O38" s="38">
+        <v>0.88888900000000004</v>
+      </c>
+      <c r="P38" s="38">
+        <v>0.87152799999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>4</v>
       </c>
       <c r="B39" s="3">
         <f t="shared" si="6"/>
-        <v>0.71875</v>
+        <v>0.73798084615384618</v>
       </c>
       <c r="C39" s="4">
         <f t="shared" si="7"/>
+        <v>0.77083299999999999</v>
+      </c>
+      <c r="D39" s="40">
+        <v>0.71354200000000001</v>
+      </c>
+      <c r="E39" s="40">
         <v>0.72395799999999999</v>
       </c>
-      <c r="D39" s="41">
-        <v>0.71354200000000001</v>
-      </c>
-      <c r="E39" s="41">
-        <v>0.72395799999999999</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="L39" s="12"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F39" s="38">
+        <v>0.765625</v>
+      </c>
+      <c r="G39" s="38">
+        <v>0.76041700000000001</v>
+      </c>
+      <c r="H39" s="38">
+        <v>0.77083299999999999</v>
+      </c>
+      <c r="I39" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="J39" s="38">
+        <v>0.69791700000000001</v>
+      </c>
+      <c r="K39" s="38">
+        <v>0.76041700000000001</v>
+      </c>
+      <c r="L39" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="M39" s="38">
+        <v>0.703125</v>
+      </c>
+      <c r="N39" s="38">
+        <v>0.71875</v>
+      </c>
+      <c r="O39" s="38">
+        <v>0.74479200000000001</v>
+      </c>
+      <c r="P39" s="38">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>5</v>
       </c>
       <c r="B40" s="3">
         <f t="shared" si="6"/>
-        <v>0.78819450000000002</v>
+        <v>0.80021361538461555</v>
       </c>
       <c r="C40" s="4">
         <f t="shared" si="7"/>
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="D40" s="40">
+        <v>0.75</v>
+      </c>
+      <c r="E40" s="40">
         <v>0.82638900000000004</v>
       </c>
-      <c r="D40" s="41">
-        <v>0.75</v>
-      </c>
-      <c r="E40" s="41">
+      <c r="F40" s="38">
+        <v>0.78472200000000003</v>
+      </c>
+      <c r="G40" s="38">
+        <v>0.80208299999999999</v>
+      </c>
+      <c r="H40" s="38">
         <v>0.82638900000000004</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="L40" s="12"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I40" s="38">
+        <v>0.80555600000000005</v>
+      </c>
+      <c r="J40" s="38">
+        <v>0.83680600000000005</v>
+      </c>
+      <c r="K40" s="38">
+        <v>0.78472200000000003</v>
+      </c>
+      <c r="L40" s="38">
+        <v>0.75694399999999995</v>
+      </c>
+      <c r="M40" s="38">
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="N40" s="38">
+        <v>0.78472200000000003</v>
+      </c>
+      <c r="O40" s="38">
+        <v>0.79861099999999996</v>
+      </c>
+      <c r="P40" s="38">
+        <v>0.79513900000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>6</v>
       </c>
       <c r="B41" s="3">
         <f t="shared" si="6"/>
-        <v>0.796875</v>
+        <v>0.81971153846153844</v>
       </c>
       <c r="C41" s="4">
         <f t="shared" si="7"/>
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="D41" s="40">
+        <v>0.78819399999999995</v>
+      </c>
+      <c r="E41" s="40">
         <v>0.80555600000000005</v>
       </c>
-      <c r="D41" s="41">
+      <c r="F41" s="38">
+        <v>0.82986099999999996</v>
+      </c>
+      <c r="G41" s="38">
+        <v>0.82291700000000001</v>
+      </c>
+      <c r="H41" s="38">
+        <v>0.79513900000000004</v>
+      </c>
+      <c r="I41" s="38">
+        <v>0.81597200000000003</v>
+      </c>
+      <c r="J41" s="38">
+        <v>0.84375</v>
+      </c>
+      <c r="K41" s="38">
+        <v>0.82291700000000001</v>
+      </c>
+      <c r="L41" s="38">
         <v>0.78819399999999995</v>
       </c>
-      <c r="E41" s="41">
-        <v>0.80555600000000005</v>
-      </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="L41" s="12"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M41" s="38">
+        <v>0.82291700000000001</v>
+      </c>
+      <c r="N41" s="38">
+        <v>0.82986099999999996</v>
+      </c>
+      <c r="O41" s="38">
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="P41" s="38">
+        <v>0.84027799999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>7</v>
       </c>
       <c r="B42" s="3">
         <f t="shared" si="6"/>
-        <v>0.84548650000000003</v>
+        <v>0.85443376923076919</v>
       </c>
       <c r="C42" s="4">
         <f t="shared" si="7"/>
+        <v>0.88194399999999995</v>
+      </c>
+      <c r="D42" s="40">
+        <v>0.83680600000000005</v>
+      </c>
+      <c r="E42" s="40">
         <v>0.85416700000000001</v>
       </c>
-      <c r="D42" s="41">
-        <v>0.83680600000000005</v>
-      </c>
-      <c r="E42" s="41">
+      <c r="F42" s="38">
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="G42" s="38">
+        <v>0.88194399999999995</v>
+      </c>
+      <c r="H42" s="38">
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="I42" s="38">
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="J42" s="38">
+        <v>0.84375</v>
+      </c>
+      <c r="K42" s="38">
         <v>0.85416700000000001</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="L42" s="12"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L42" s="38">
+        <v>0.84027799999999997</v>
+      </c>
+      <c r="M42" s="38">
+        <v>0.86805600000000005</v>
+      </c>
+      <c r="N42" s="38">
+        <v>0.84027799999999997</v>
+      </c>
+      <c r="O42" s="38">
+        <v>0.86458299999999999</v>
+      </c>
+      <c r="P42" s="38">
+        <v>0.85069399999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>8</v>
       </c>
       <c r="B43" s="3">
         <f t="shared" si="6"/>
-        <v>0.88194450000000002</v>
+        <v>0.86298069230769225</v>
       </c>
       <c r="C43" s="4">
         <f t="shared" si="7"/>
         <v>0.90972200000000003</v>
       </c>
-      <c r="D43" s="41">
+      <c r="D43" s="40">
         <v>0.90972200000000003</v>
       </c>
-      <c r="E43" s="41">
+      <c r="E43" s="40">
         <v>0.85416700000000001</v>
       </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="L43" s="12"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F43" s="38">
+        <v>0.875</v>
+      </c>
+      <c r="G43" s="38">
+        <v>0.85416700000000001</v>
+      </c>
+      <c r="H43" s="38">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="I43" s="38">
+        <v>0.88541700000000001</v>
+      </c>
+      <c r="J43" s="38">
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="K43" s="38">
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="L43" s="38">
+        <v>0.85763900000000004</v>
+      </c>
+      <c r="M43" s="38">
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="N43" s="38">
+        <v>0.86458299999999999</v>
+      </c>
+      <c r="O43" s="38">
+        <v>0.86458299999999999</v>
+      </c>
+      <c r="P43" s="38">
+        <v>0.86111099999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>9</v>
       </c>
       <c r="B44" s="5">
         <f t="shared" si="6"/>
-        <v>0.90104200000000001</v>
+        <v>0.90304484615384617</v>
       </c>
       <c r="C44" s="6">
         <f t="shared" si="7"/>
         <v>0.93402799999999997</v>
       </c>
-      <c r="D44" s="41">
+      <c r="D44" s="40">
         <v>0.93402799999999997</v>
       </c>
-      <c r="E44" s="41">
+      <c r="E44" s="40">
         <v>0.86805600000000005</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="L44" s="12"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F44" s="38">
+        <v>0.90972200000000003</v>
+      </c>
+      <c r="G44" s="38">
+        <v>0.91319399999999995</v>
+      </c>
+      <c r="H44" s="38">
+        <v>0.92013900000000004</v>
+      </c>
+      <c r="I44" s="38">
+        <v>0.90277799999999997</v>
+      </c>
+      <c r="J44" s="38">
+        <v>0.89236099999999996</v>
+      </c>
+      <c r="K44" s="38">
+        <v>0.87847200000000003</v>
+      </c>
+      <c r="L44" s="38">
+        <v>0.91319399999999995</v>
+      </c>
+      <c r="M44" s="38">
+        <v>0.89930600000000005</v>
+      </c>
+      <c r="N44" s="38">
+        <v>0.89930600000000005</v>
+      </c>
+      <c r="O44" s="38">
+        <v>0.92708299999999999</v>
+      </c>
+      <c r="P44" s="38">
+        <v>0.88194399999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B45" s="10">
         <f>AVERAGE(B36:B44)</f>
-        <v>0.81790133333333337</v>
+        <v>0.8227386068376068</v>
       </c>
       <c r="C45" s="10">
         <f>AVERAGE(C36:C44)</f>
-        <v>0.83352633333333337</v>
+        <v>0.85763866666666666</v>
       </c>
       <c r="D45" s="36">
-        <f t="shared" ref="D45:E45" si="8">AVERAGE(D36:D44)</f>
+        <f t="shared" ref="D45:P45" si="8">AVERAGE(D36:D44)</f>
         <v>0.81693666666666664</v>
       </c>
       <c r="E45" s="36">
         <f t="shared" si="8"/>
         <v>0.8188660000000002</v>
       </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="38" t="s">
+      <c r="F45" s="38">
+        <f t="shared" si="8"/>
+        <v>0.82851077777777782</v>
+      </c>
+      <c r="G45" s="38">
+        <f t="shared" si="8"/>
+        <v>0.83294755555555566</v>
+      </c>
+      <c r="H45" s="38">
+        <f t="shared" si="8"/>
+        <v>0.82677466666666666</v>
+      </c>
+      <c r="I45" s="38">
+        <f t="shared" si="8"/>
+        <v>0.83140433333333341</v>
+      </c>
+      <c r="J45" s="38">
+        <f t="shared" si="8"/>
+        <v>0.81442900000000007</v>
+      </c>
+      <c r="K45" s="38">
+        <f t="shared" si="8"/>
+        <v>0.82021611111111126</v>
+      </c>
+      <c r="L45" s="38">
+        <f t="shared" si="8"/>
+        <v>0.81404299999999996</v>
+      </c>
+      <c r="M45" s="38">
+        <f t="shared" si="8"/>
+        <v>0.81770844444444457</v>
+      </c>
+      <c r="N45" s="38">
+        <f t="shared" si="8"/>
+        <v>0.81944444444444431</v>
+      </c>
+      <c r="O45" s="38">
+        <f t="shared" si="8"/>
+        <v>0.83314033333333315</v>
+      </c>
+      <c r="P45" s="38">
+        <f t="shared" si="8"/>
+        <v>0.82118055555555558</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>0</v>
       </c>
@@ -11657,566 +14109,852 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>1</v>
       </c>
       <c r="B49" s="1">
         <f>AVERAGE(D49:AJ49)</f>
-        <v>0.75925949999999998</v>
+        <v>0.76602576923076926</v>
       </c>
       <c r="C49" s="2">
         <f>MAX(D49:AJ49)</f>
+        <v>0.80092600000000003</v>
+      </c>
+      <c r="D49" s="40">
+        <v>0.75463000000000002</v>
+      </c>
+      <c r="E49" s="40">
         <v>0.76388900000000004</v>
       </c>
-      <c r="D49" s="41">
+      <c r="F49" s="38">
+        <v>0.78703699999999999</v>
+      </c>
+      <c r="G49" s="38">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="H49" s="38">
+        <v>0.76388900000000004</v>
+      </c>
+      <c r="I49" s="38">
+        <v>0.80092600000000003</v>
+      </c>
+      <c r="J49" s="38">
+        <v>0.73611099999999996</v>
+      </c>
+      <c r="K49" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="L49" s="38">
+        <v>0.80092600000000003</v>
+      </c>
+      <c r="M49" s="38">
+        <v>0.73611099999999996</v>
+      </c>
+      <c r="N49" s="38">
+        <v>0.76388900000000004</v>
+      </c>
+      <c r="O49" s="38">
         <v>0.75463000000000002</v>
       </c>
-      <c r="E49" s="41">
-        <v>0.76388900000000004</v>
-      </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="L49" s="12"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P49" s="38">
+        <v>0.76851899999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>2</v>
       </c>
       <c r="B50" s="3">
         <f t="shared" ref="B50:B57" si="9">AVERAGE(D50:AJ50)</f>
-        <v>0.625</v>
+        <v>0.63319092307692304</v>
       </c>
       <c r="C50" s="4">
         <f t="shared" ref="C50:C57" si="10">MAX(D50:AJ50)</f>
+        <v>0.68055600000000005</v>
+      </c>
+      <c r="D50" s="40">
+        <v>0.61111099999999996</v>
+      </c>
+      <c r="E50" s="40">
         <v>0.63888900000000004</v>
       </c>
-      <c r="D50" s="41">
-        <v>0.61111099999999996</v>
-      </c>
-      <c r="E50" s="41">
+      <c r="F50" s="38">
         <v>0.63888900000000004</v>
       </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="L50" s="12"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G50" s="38">
+        <v>0.68055600000000005</v>
+      </c>
+      <c r="H50" s="38">
+        <v>0.63888900000000004</v>
+      </c>
+      <c r="I50" s="38">
+        <v>0.60185200000000005</v>
+      </c>
+      <c r="J50" s="38">
+        <v>0.60185200000000005</v>
+      </c>
+      <c r="K50" s="38">
+        <v>0.66203699999999999</v>
+      </c>
+      <c r="L50" s="38">
+        <v>0.58796300000000001</v>
+      </c>
+      <c r="M50" s="38">
+        <v>0.63888900000000004</v>
+      </c>
+      <c r="N50" s="38">
+        <v>0.63425900000000002</v>
+      </c>
+      <c r="O50" s="38">
+        <v>0.65740699999999996</v>
+      </c>
+      <c r="P50" s="38">
+        <v>0.63888900000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>3</v>
       </c>
       <c r="B51" s="3">
         <f t="shared" si="9"/>
-        <v>0.85416650000000005</v>
+        <v>0.83582630769230759</v>
       </c>
       <c r="C51" s="4">
         <f t="shared" si="10"/>
+        <v>0.87963000000000002</v>
+      </c>
+      <c r="D51" s="40">
         <v>0.86111099999999996</v>
       </c>
-      <c r="D51" s="41">
-        <v>0.86111099999999996</v>
-      </c>
-      <c r="E51" s="41">
+      <c r="E51" s="40">
         <v>0.84722200000000003</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="L51" s="12"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F51" s="38">
+        <v>0.828704</v>
+      </c>
+      <c r="G51" s="38">
+        <v>0.82407399999999997</v>
+      </c>
+      <c r="H51" s="38">
+        <v>0.84259300000000004</v>
+      </c>
+      <c r="I51" s="38">
+        <v>0.87963000000000002</v>
+      </c>
+      <c r="J51" s="38">
+        <v>0.80092600000000003</v>
+      </c>
+      <c r="K51" s="38">
+        <v>0.828704</v>
+      </c>
+      <c r="L51" s="38">
+        <v>0.83796300000000001</v>
+      </c>
+      <c r="M51" s="38">
+        <v>0.78240699999999996</v>
+      </c>
+      <c r="N51" s="38">
+        <v>0.85185200000000005</v>
+      </c>
+      <c r="O51" s="38">
+        <v>0.85185200000000005</v>
+      </c>
+      <c r="P51" s="38">
+        <v>0.828704</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>4</v>
       </c>
       <c r="B52" s="3">
         <f t="shared" si="9"/>
-        <v>0.625</v>
+        <v>0.65064107692307693</v>
       </c>
       <c r="C52" s="4">
         <f t="shared" si="10"/>
+        <v>0.69444399999999995</v>
+      </c>
+      <c r="D52" s="40">
+        <v>0.61805600000000005</v>
+      </c>
+      <c r="E52" s="40">
         <v>0.63194399999999995</v>
       </c>
-      <c r="D52" s="41">
-        <v>0.61805600000000005</v>
-      </c>
-      <c r="E52" s="41">
-        <v>0.63194399999999995</v>
-      </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="L52" s="12"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F52" s="38">
+        <v>0.6875</v>
+      </c>
+      <c r="G52" s="38">
+        <v>0.68055600000000005</v>
+      </c>
+      <c r="H52" s="38">
+        <v>0.69444399999999995</v>
+      </c>
+      <c r="I52" s="38">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="J52" s="38">
+        <v>0.59722200000000003</v>
+      </c>
+      <c r="K52" s="38">
+        <v>0.68055600000000005</v>
+      </c>
+      <c r="L52" s="38">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M52" s="38">
+        <v>0.60416700000000001</v>
+      </c>
+      <c r="N52" s="38">
+        <v>0.625</v>
+      </c>
+      <c r="O52" s="38">
+        <v>0.65972200000000003</v>
+      </c>
+      <c r="P52" s="38">
+        <v>0.64583299999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>5</v>
       </c>
       <c r="B53" s="3">
         <f t="shared" si="9"/>
-        <v>0.71759299999999993</v>
+        <v>0.73361830769230785</v>
       </c>
       <c r="C53" s="4">
         <f t="shared" si="10"/>
+        <v>0.80092600000000003</v>
+      </c>
+      <c r="D53" s="40">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="E53" s="40">
         <v>0.76851899999999995</v>
       </c>
-      <c r="D53" s="41">
-        <v>0.66666700000000001</v>
-      </c>
-      <c r="E53" s="41">
+      <c r="F53" s="38">
+        <v>0.71296300000000001</v>
+      </c>
+      <c r="G53" s="38">
+        <v>0.73611099999999996</v>
+      </c>
+      <c r="H53" s="38">
         <v>0.76851899999999995</v>
       </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="L53" s="12"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I53" s="38">
+        <v>0.74074099999999998</v>
+      </c>
+      <c r="J53" s="38">
+        <v>0.78240699999999996</v>
+      </c>
+      <c r="K53" s="38">
+        <v>0.71296300000000001</v>
+      </c>
+      <c r="L53" s="38">
+        <v>0.67592600000000003</v>
+      </c>
+      <c r="M53" s="38">
+        <v>0.80092600000000003</v>
+      </c>
+      <c r="N53" s="38">
+        <v>0.71296300000000001</v>
+      </c>
+      <c r="O53" s="38">
+        <v>0.73148100000000005</v>
+      </c>
+      <c r="P53" s="38">
+        <v>0.72685200000000005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>6</v>
       </c>
       <c r="B54" s="3">
         <f t="shared" si="9"/>
-        <v>0.72916700000000001</v>
+        <v>0.75961553846153851</v>
       </c>
       <c r="C54" s="4">
         <f t="shared" si="10"/>
+        <v>0.80092600000000003</v>
+      </c>
+      <c r="D54" s="40">
+        <v>0.71759300000000004</v>
+      </c>
+      <c r="E54" s="40">
         <v>0.74074099999999998</v>
       </c>
-      <c r="D54" s="41">
+      <c r="F54" s="38">
+        <v>0.77314799999999995</v>
+      </c>
+      <c r="G54" s="38">
+        <v>0.76388900000000004</v>
+      </c>
+      <c r="H54" s="38">
+        <v>0.72685200000000005</v>
+      </c>
+      <c r="I54" s="38">
+        <v>0.75463000000000002</v>
+      </c>
+      <c r="J54" s="38">
+        <v>0.79166700000000001</v>
+      </c>
+      <c r="K54" s="38">
+        <v>0.76388900000000004</v>
+      </c>
+      <c r="L54" s="38">
         <v>0.71759300000000004</v>
       </c>
-      <c r="E54" s="41">
-        <v>0.74074099999999998</v>
-      </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="L54" s="12"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M54" s="38">
+        <v>0.76388900000000004</v>
+      </c>
+      <c r="N54" s="38">
+        <v>0.77314799999999995</v>
+      </c>
+      <c r="O54" s="38">
+        <v>0.80092600000000003</v>
+      </c>
+      <c r="P54" s="38">
+        <v>0.78703699999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <v>7</v>
       </c>
       <c r="B55" s="3">
         <f t="shared" si="9"/>
-        <v>0.79398150000000001</v>
+        <v>0.80591176923076935</v>
       </c>
       <c r="C55" s="4">
         <f t="shared" si="10"/>
+        <v>0.84259300000000004</v>
+      </c>
+      <c r="D55" s="40">
+        <v>0.78240699999999996</v>
+      </c>
+      <c r="E55" s="40">
         <v>0.80555600000000005</v>
       </c>
-      <c r="D55" s="41">
-        <v>0.78240699999999996</v>
-      </c>
-      <c r="E55" s="41">
+      <c r="F55" s="38">
+        <v>0.80092600000000003</v>
+      </c>
+      <c r="G55" s="38">
+        <v>0.84259300000000004</v>
+      </c>
+      <c r="H55" s="38">
+        <v>0.81481499999999996</v>
+      </c>
+      <c r="I55" s="38">
+        <v>0.81481499999999996</v>
+      </c>
+      <c r="J55" s="38">
+        <v>0.79166700000000001</v>
+      </c>
+      <c r="K55" s="38">
         <v>0.80555600000000005</v>
       </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="L55" s="12"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L55" s="38">
+        <v>0.78703699999999999</v>
+      </c>
+      <c r="M55" s="38">
+        <v>0.82407399999999997</v>
+      </c>
+      <c r="N55" s="38">
+        <v>0.78703699999999999</v>
+      </c>
+      <c r="O55" s="38">
+        <v>0.81944399999999995</v>
+      </c>
+      <c r="P55" s="38">
+        <v>0.80092600000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <v>8</v>
       </c>
       <c r="B56" s="3">
         <f t="shared" si="9"/>
-        <v>0.84259300000000004</v>
+        <v>0.8173076923076924</v>
       </c>
       <c r="C56" s="4">
         <f t="shared" si="10"/>
         <v>0.87963000000000002</v>
       </c>
-      <c r="D56" s="41">
+      <c r="D56" s="40">
         <v>0.87963000000000002</v>
       </c>
-      <c r="E56" s="41">
+      <c r="E56" s="40">
         <v>0.80555600000000005</v>
       </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="L56" s="12"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F56" s="38">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="G56" s="38">
+        <v>0.80555600000000005</v>
+      </c>
+      <c r="H56" s="38">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="I56" s="38">
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="J56" s="38">
+        <v>0.81481499999999996</v>
+      </c>
+      <c r="K56" s="38">
+        <v>0.80092600000000003</v>
+      </c>
+      <c r="L56" s="38">
+        <v>0.81018500000000004</v>
+      </c>
+      <c r="M56" s="38">
+        <v>0.796296</v>
+      </c>
+      <c r="N56" s="38">
+        <v>0.81944399999999995</v>
+      </c>
+      <c r="O56" s="38">
+        <v>0.81944399999999995</v>
+      </c>
+      <c r="P56" s="38">
+        <v>0.81481499999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
         <v>9</v>
       </c>
       <c r="B57" s="5">
         <f t="shared" si="9"/>
-        <v>0.86805549999999998</v>
+        <v>0.87072653846153847</v>
       </c>
       <c r="C57" s="6">
         <f t="shared" si="10"/>
         <v>0.91203699999999999</v>
       </c>
-      <c r="D57" s="41">
+      <c r="D57" s="40">
         <v>0.91203699999999999</v>
       </c>
-      <c r="E57" s="41">
+      <c r="E57" s="40">
         <v>0.82407399999999997</v>
       </c>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="L57" s="12"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F57" s="38">
+        <v>0.87963000000000002</v>
+      </c>
+      <c r="G57" s="38">
+        <v>0.88425900000000002</v>
+      </c>
+      <c r="H57" s="38">
+        <v>0.89351899999999995</v>
+      </c>
+      <c r="I57" s="38">
+        <v>0.87036999999999998</v>
+      </c>
+      <c r="J57" s="38">
+        <v>0.85648100000000005</v>
+      </c>
+      <c r="K57" s="38">
+        <v>0.83796300000000001</v>
+      </c>
+      <c r="L57" s="38">
+        <v>0.88425900000000002</v>
+      </c>
+      <c r="M57" s="38">
+        <v>0.86574099999999998</v>
+      </c>
+      <c r="N57" s="38">
+        <v>0.86574099999999998</v>
+      </c>
+      <c r="O57" s="38">
+        <v>0.90277799999999997</v>
+      </c>
+      <c r="P57" s="38">
+        <v>0.84259300000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B58" s="10">
         <f>AVERAGE(B49:B57)</f>
-        <v>0.75720177777777775</v>
+        <v>0.76365154700854709</v>
       </c>
       <c r="C58" s="10">
         <f>AVERAGE(C49:C57)</f>
-        <v>0.77803511111111101</v>
+        <v>0.81018533333333331</v>
       </c>
       <c r="D58" s="36">
-        <f t="shared" ref="D58:E58" si="11">AVERAGE(D49:D57)</f>
+        <f t="shared" ref="D58:P58" si="11">AVERAGE(D49:D57)</f>
         <v>0.75591577777777774</v>
       </c>
       <c r="E58" s="36">
         <f t="shared" si="11"/>
         <v>0.75848777777777776</v>
       </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F58" s="38">
+        <f t="shared" si="11"/>
+        <v>0.77134777777777774</v>
+      </c>
+      <c r="G58" s="38">
+        <f t="shared" si="11"/>
+        <v>0.7772635555555556</v>
+      </c>
+      <c r="H58" s="38">
+        <f t="shared" si="11"/>
+        <v>0.76903311111111117</v>
+      </c>
+      <c r="I58" s="38">
+        <f t="shared" si="11"/>
+        <v>0.77520588888888897</v>
+      </c>
+      <c r="J58" s="38">
+        <f t="shared" si="11"/>
+        <v>0.75257200000000013</v>
+      </c>
+      <c r="K58" s="38">
+        <f t="shared" si="11"/>
+        <v>0.76028822222222225</v>
+      </c>
+      <c r="L58" s="38">
+        <f t="shared" si="11"/>
+        <v>0.75205766666666662</v>
+      </c>
+      <c r="M58" s="38">
+        <f t="shared" si="11"/>
+        <v>0.75694444444444442</v>
+      </c>
+      <c r="N58" s="38">
+        <f t="shared" si="11"/>
+        <v>0.7592592222222222</v>
+      </c>
+      <c r="O58" s="38">
+        <f t="shared" si="11"/>
+        <v>0.77752044444444435</v>
+      </c>
+      <c r="P58" s="38">
+        <f t="shared" si="11"/>
+        <v>0.76157422222222215</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B64" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="B63:G63"/>
     <mergeCell ref="K5:O5"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="B63:G63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L8:U8">
-    <cfRule type="top10" dxfId="1009" priority="301" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="1008" priority="302" rank="2"/>
+    <cfRule type="top10" dxfId="1163" priority="301" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1162" priority="302" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:U9">
-    <cfRule type="top10" dxfId="1007" priority="299" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="1006" priority="300" rank="2"/>
+    <cfRule type="top10" dxfId="1161" priority="299" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1160" priority="300" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:U10">
-    <cfRule type="top10" dxfId="1005" priority="297" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="1004" priority="298" rank="2"/>
+    <cfRule type="top10" dxfId="1159" priority="297" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1158" priority="298" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:U11">
-    <cfRule type="top10" dxfId="1003" priority="295" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="1002" priority="296" rank="2"/>
+    <cfRule type="top10" dxfId="1157" priority="295" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1156" priority="296" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:U12">
-    <cfRule type="top10" dxfId="1001" priority="293" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="1000" priority="294" rank="2"/>
+    <cfRule type="top10" dxfId="1155" priority="293" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1154" priority="294" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:U13">
-    <cfRule type="top10" dxfId="999" priority="291" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="998" priority="292" rank="2"/>
+    <cfRule type="top10" dxfId="1153" priority="291" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1152" priority="292" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:U14">
-    <cfRule type="top10" dxfId="997" priority="289" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="996" priority="290" rank="2"/>
+    <cfRule type="top10" dxfId="1151" priority="289" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1150" priority="290" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:U15">
-    <cfRule type="top10" dxfId="995" priority="287" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="994" priority="288" rank="2"/>
+    <cfRule type="top10" dxfId="1149" priority="287" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1148" priority="288" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:U16">
-    <cfRule type="top10" dxfId="993" priority="285" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="992" priority="286" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M17:U17">
-    <cfRule type="top10" dxfId="991" priority="283" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="990" priority="284" rank="2"/>
+    <cfRule type="top10" dxfId="1147" priority="285" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1146" priority="286" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q17:U17">
+    <cfRule type="top10" dxfId="1145" priority="283" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1144" priority="284" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22:U22 L22:M22 L37">
-    <cfRule type="top10" dxfId="989" priority="281" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="988" priority="282" rank="2"/>
+    <cfRule type="top10" dxfId="1143" priority="281" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1142" priority="282" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:U23 L23:M23 L38">
-    <cfRule type="top10" dxfId="987" priority="279" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="986" priority="280" rank="2"/>
+    <cfRule type="top10" dxfId="1141" priority="279" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1140" priority="280" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24:U24 L24:M24 L39">
-    <cfRule type="top10" dxfId="985" priority="277" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="984" priority="278" rank="2"/>
+    <cfRule type="top10" dxfId="1139" priority="277" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1138" priority="278" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:U25 L25:M25 L40">
-    <cfRule type="top10" dxfId="983" priority="275" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="982" priority="276" rank="2"/>
+    <cfRule type="top10" dxfId="1137" priority="275" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1136" priority="276" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26:U26 L26:M26 L41">
-    <cfRule type="top10" dxfId="981" priority="273" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="980" priority="274" rank="2"/>
+    <cfRule type="top10" dxfId="1135" priority="273" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1134" priority="274" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27:U27 L27:M27 L42">
-    <cfRule type="top10" dxfId="979" priority="271" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="978" priority="272" rank="2"/>
+    <cfRule type="top10" dxfId="1133" priority="271" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1132" priority="272" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:U28 L28:M28 L43">
-    <cfRule type="top10" dxfId="977" priority="269" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="976" priority="270" rank="2"/>
+    <cfRule type="top10" dxfId="1131" priority="269" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1130" priority="270" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29:U29 L29:M29 L44">
-    <cfRule type="top10" dxfId="975" priority="267" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="974" priority="268" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L30:U30">
-    <cfRule type="top10" dxfId="973" priority="265" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="972" priority="266" rank="2"/>
+    <cfRule type="top10" dxfId="1129" priority="267" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1128" priority="268" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q30:U30">
+    <cfRule type="top10" dxfId="1127" priority="265" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1126" priority="266" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M37:U37">
-    <cfRule type="top10" dxfId="971" priority="263" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="970" priority="264" rank="2"/>
+    <cfRule type="top10" dxfId="1125" priority="263" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1124" priority="264" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:U38">
-    <cfRule type="top10" dxfId="969" priority="261" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="968" priority="262" rank="2"/>
+    <cfRule type="top10" dxfId="1123" priority="261" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1122" priority="262" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M39:U39">
-    <cfRule type="top10" dxfId="967" priority="259" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="966" priority="260" rank="2"/>
+    <cfRule type="top10" dxfId="1121" priority="259" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1120" priority="260" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M40:U40">
-    <cfRule type="top10" dxfId="965" priority="257" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="964" priority="258" rank="2"/>
+    <cfRule type="top10" dxfId="1119" priority="257" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1118" priority="258" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M41:U41">
-    <cfRule type="top10" dxfId="963" priority="255" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="962" priority="256" rank="2"/>
+    <cfRule type="top10" dxfId="1117" priority="255" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1116" priority="256" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M42:U42">
-    <cfRule type="top10" dxfId="961" priority="253" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="960" priority="254" rank="2"/>
+    <cfRule type="top10" dxfId="1115" priority="253" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1114" priority="254" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M43:U43">
-    <cfRule type="top10" dxfId="959" priority="251" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="958" priority="252" rank="2"/>
+    <cfRule type="top10" dxfId="1113" priority="251" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1112" priority="252" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M44:U44">
-    <cfRule type="top10" dxfId="957" priority="249" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="956" priority="250" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L45:U45">
-    <cfRule type="top10" dxfId="955" priority="247" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="954" priority="248" rank="2"/>
+    <cfRule type="top10" dxfId="1111" priority="249" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1110" priority="250" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q45:U45">
+    <cfRule type="top10" dxfId="1109" priority="247" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1108" priority="248" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L50:U50">
-    <cfRule type="top10" dxfId="953" priority="245" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="952" priority="246" rank="2"/>
+    <cfRule type="top10" dxfId="1107" priority="245" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1106" priority="246" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51:U51">
-    <cfRule type="top10" dxfId="951" priority="243" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="950" priority="244" rank="2"/>
+    <cfRule type="top10" dxfId="1105" priority="243" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1104" priority="244" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:U52">
-    <cfRule type="top10" dxfId="949" priority="241" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="948" priority="242" rank="2"/>
+    <cfRule type="top10" dxfId="1103" priority="241" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1102" priority="242" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L53:U53">
-    <cfRule type="top10" dxfId="947" priority="239" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="946" priority="240" rank="2"/>
+    <cfRule type="top10" dxfId="1101" priority="239" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1100" priority="240" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L54:U54">
-    <cfRule type="top10" dxfId="945" priority="237" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="944" priority="238" rank="2"/>
+    <cfRule type="top10" dxfId="1099" priority="237" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1098" priority="238" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55:U55">
-    <cfRule type="top10" dxfId="943" priority="235" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="942" priority="236" rank="2"/>
+    <cfRule type="top10" dxfId="1097" priority="235" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1096" priority="236" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L56:U56">
-    <cfRule type="top10" dxfId="941" priority="233" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="940" priority="234" rank="2"/>
+    <cfRule type="top10" dxfId="1095" priority="233" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1094" priority="234" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57:U57">
-    <cfRule type="top10" dxfId="939" priority="231" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="938" priority="232" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L58:U58">
-    <cfRule type="top10" dxfId="937" priority="229" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="936" priority="230" rank="2"/>
+    <cfRule type="top10" dxfId="1093" priority="231" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1092" priority="232" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q58:U58">
+    <cfRule type="top10" dxfId="1091" priority="229" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1090" priority="230" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:K8">
-    <cfRule type="top10" dxfId="935" priority="79" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="934" priority="80" rank="2"/>
+    <cfRule type="top10" dxfId="1089" priority="79" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1088" priority="80" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:K9">
-    <cfRule type="top10" dxfId="933" priority="77" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="932" priority="78" rank="2"/>
+    <cfRule type="top10" dxfId="1087" priority="77" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1086" priority="78" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:K10">
-    <cfRule type="top10" dxfId="931" priority="75" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="930" priority="76" rank="2"/>
+    <cfRule type="top10" dxfId="1085" priority="75" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1084" priority="76" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:K11">
-    <cfRule type="top10" dxfId="929" priority="73" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="928" priority="74" rank="2"/>
+    <cfRule type="top10" dxfId="1083" priority="73" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1082" priority="74" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:K12">
-    <cfRule type="top10" dxfId="927" priority="71" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="926" priority="72" rank="2"/>
+    <cfRule type="top10" dxfId="1081" priority="71" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1080" priority="72" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:K13">
-    <cfRule type="top10" dxfId="925" priority="69" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="924" priority="70" rank="2"/>
+    <cfRule type="top10" dxfId="1079" priority="69" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1078" priority="70" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:K14">
-    <cfRule type="top10" dxfId="923" priority="67" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="922" priority="68" rank="2"/>
+    <cfRule type="top10" dxfId="1077" priority="67" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1076" priority="68" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:K15">
-    <cfRule type="top10" dxfId="921" priority="65" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="920" priority="66" rank="2"/>
+    <cfRule type="top10" dxfId="1075" priority="65" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1074" priority="66" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:K16">
-    <cfRule type="top10" dxfId="919" priority="63" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="918" priority="64" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17:L17">
-    <cfRule type="top10" dxfId="917" priority="61" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="916" priority="62" rank="2"/>
+    <cfRule type="top10" dxfId="1073" priority="63" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1072" priority="64" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:K21">
-    <cfRule type="top10" dxfId="915" priority="59" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="914" priority="60" rank="2"/>
+    <cfRule type="top10" dxfId="1069" priority="59" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1068" priority="60" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:K22">
-    <cfRule type="top10" dxfId="913" priority="57" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="912" priority="58" rank="2"/>
+    <cfRule type="top10" dxfId="1067" priority="57" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1066" priority="58" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:K23">
-    <cfRule type="top10" dxfId="911" priority="55" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="910" priority="56" rank="2"/>
+    <cfRule type="top10" dxfId="1065" priority="55" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1064" priority="56" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:K24">
-    <cfRule type="top10" dxfId="909" priority="53" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="908" priority="54" rank="2"/>
+    <cfRule type="top10" dxfId="1063" priority="53" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1062" priority="54" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:K25">
-    <cfRule type="top10" dxfId="907" priority="51" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="906" priority="52" rank="2"/>
+    <cfRule type="top10" dxfId="1061" priority="51" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1060" priority="52" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:K26">
-    <cfRule type="top10" dxfId="905" priority="49" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="904" priority="50" rank="2"/>
+    <cfRule type="top10" dxfId="1059" priority="49" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1058" priority="50" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:K27">
-    <cfRule type="top10" dxfId="903" priority="47" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="902" priority="48" rank="2"/>
+    <cfRule type="top10" dxfId="1057" priority="47" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1056" priority="48" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:K28">
-    <cfRule type="top10" dxfId="901" priority="45" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="900" priority="46" rank="2"/>
+    <cfRule type="top10" dxfId="1055" priority="45" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1054" priority="46" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:K29">
-    <cfRule type="top10" dxfId="899" priority="43" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="898" priority="44" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30:K30">
-    <cfRule type="top10" dxfId="897" priority="41" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="896" priority="42" rank="2"/>
+    <cfRule type="top10" dxfId="1053" priority="43" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1052" priority="44" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36:K36">
-    <cfRule type="top10" dxfId="895" priority="39" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="894" priority="40" rank="2"/>
+    <cfRule type="top10" dxfId="1049" priority="39" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1048" priority="40" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:K37">
-    <cfRule type="top10" dxfId="893" priority="37" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="892" priority="38" rank="2"/>
+    <cfRule type="top10" dxfId="1047" priority="37" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1046" priority="38" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38:K38">
-    <cfRule type="top10" dxfId="891" priority="35" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="890" priority="36" rank="2"/>
+    <cfRule type="top10" dxfId="1045" priority="35" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1044" priority="36" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:K39">
-    <cfRule type="top10" dxfId="889" priority="33" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="888" priority="34" rank="2"/>
+    <cfRule type="top10" dxfId="1043" priority="33" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1042" priority="34" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:K40">
-    <cfRule type="top10" dxfId="887" priority="31" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="886" priority="32" rank="2"/>
+    <cfRule type="top10" dxfId="1041" priority="31" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1040" priority="32" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:K41">
-    <cfRule type="top10" dxfId="885" priority="29" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="884" priority="30" rank="2"/>
+    <cfRule type="top10" dxfId="1039" priority="29" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1038" priority="30" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42:K42">
-    <cfRule type="top10" dxfId="883" priority="27" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="882" priority="28" rank="2"/>
+    <cfRule type="top10" dxfId="1037" priority="27" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1036" priority="28" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:K43">
-    <cfRule type="top10" dxfId="881" priority="25" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="880" priority="26" rank="2"/>
+    <cfRule type="top10" dxfId="1035" priority="25" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1034" priority="26" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:K44">
-    <cfRule type="top10" dxfId="879" priority="23" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="878" priority="24" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45:K45">
-    <cfRule type="top10" dxfId="877" priority="21" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="876" priority="22" rank="2"/>
+    <cfRule type="top10" dxfId="1033" priority="23" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1032" priority="24" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:K49">
-    <cfRule type="top10" dxfId="875" priority="19" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="874" priority="20" rank="2"/>
+    <cfRule type="top10" dxfId="1029" priority="19" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1028" priority="20" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50:K50">
-    <cfRule type="top10" dxfId="873" priority="17" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="872" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="1027" priority="17" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1026" priority="18" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51:K51">
-    <cfRule type="top10" dxfId="871" priority="15" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="870" priority="16" rank="2"/>
+    <cfRule type="top10" dxfId="1025" priority="15" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1024" priority="16" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52:K52">
-    <cfRule type="top10" dxfId="869" priority="13" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="868" priority="14" rank="2"/>
+    <cfRule type="top10" dxfId="1023" priority="13" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1022" priority="14" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53:K53">
-    <cfRule type="top10" dxfId="867" priority="11" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="866" priority="12" rank="2"/>
+    <cfRule type="top10" dxfId="1021" priority="11" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1020" priority="12" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:K54">
-    <cfRule type="top10" dxfId="865" priority="9" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="864" priority="10" rank="2"/>
+    <cfRule type="top10" dxfId="1019" priority="9" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1018" priority="10" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55:K55">
-    <cfRule type="top10" dxfId="863" priority="7" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="862" priority="8" rank="2"/>
+    <cfRule type="top10" dxfId="1017" priority="7" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1016" priority="8" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:K56">
-    <cfRule type="top10" dxfId="861" priority="5" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="860" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="1015" priority="5" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1014" priority="6" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57:K57">
-    <cfRule type="top10" dxfId="859" priority="3" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="858" priority="4" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58:K58">
-    <cfRule type="top10" dxfId="857" priority="1" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="856" priority="2" rank="2"/>
+    <cfRule type="top10" dxfId="1013" priority="3" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1012" priority="4" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12385,27 +15123,27 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="7" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40" t="s">
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
     </row>
     <row r="7" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
@@ -12859,11 +15597,11 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
@@ -13317,11 +16055,11 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
@@ -13775,11 +16513,11 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
@@ -14233,331 +16971,331 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B64" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="B63:E63"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:M5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="B63:E63"/>
   </mergeCells>
   <conditionalFormatting sqref="N8:S8">
-    <cfRule type="top10" dxfId="855" priority="233" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="854" priority="234" rank="2"/>
+    <cfRule type="top10" dxfId="1009" priority="233" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1008" priority="234" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:S9">
-    <cfRule type="top10" dxfId="853" priority="231" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="852" priority="232" rank="2"/>
+    <cfRule type="top10" dxfId="1007" priority="231" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1006" priority="232" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:S10">
-    <cfRule type="top10" dxfId="851" priority="229" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="850" priority="230" rank="2"/>
+    <cfRule type="top10" dxfId="1005" priority="229" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1004" priority="230" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:S11">
-    <cfRule type="top10" dxfId="849" priority="227" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="848" priority="228" rank="2"/>
+    <cfRule type="top10" dxfId="1003" priority="227" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1002" priority="228" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:S12">
-    <cfRule type="top10" dxfId="847" priority="225" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="846" priority="226" rank="2"/>
+    <cfRule type="top10" dxfId="1001" priority="225" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="1000" priority="226" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:S13">
-    <cfRule type="top10" dxfId="845" priority="223" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="844" priority="224" rank="2"/>
+    <cfRule type="top10" dxfId="999" priority="223" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="998" priority="224" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14:S14">
-    <cfRule type="top10" dxfId="843" priority="221" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="842" priority="222" rank="2"/>
+    <cfRule type="top10" dxfId="997" priority="221" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="996" priority="222" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:S15">
-    <cfRule type="top10" dxfId="841" priority="219" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="840" priority="220" rank="2"/>
+    <cfRule type="top10" dxfId="995" priority="219" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="994" priority="220" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:S16">
-    <cfRule type="top10" dxfId="839" priority="217" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="838" priority="218" rank="2"/>
+    <cfRule type="top10" dxfId="993" priority="217" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="992" priority="218" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17:S17">
-    <cfRule type="top10" dxfId="837" priority="215" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="836" priority="216" rank="2"/>
+    <cfRule type="top10" dxfId="991" priority="215" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="990" priority="216" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22:S22">
-    <cfRule type="top10" dxfId="835" priority="213" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="834" priority="214" rank="2"/>
+    <cfRule type="top10" dxfId="989" priority="213" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="988" priority="214" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23:S23">
-    <cfRule type="top10" dxfId="833" priority="211" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="832" priority="212" rank="2"/>
+    <cfRule type="top10" dxfId="987" priority="211" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="986" priority="212" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24:S24">
-    <cfRule type="top10" dxfId="831" priority="209" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="830" priority="210" rank="2"/>
+    <cfRule type="top10" dxfId="985" priority="209" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="984" priority="210" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25:S25">
-    <cfRule type="top10" dxfId="829" priority="207" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="828" priority="208" rank="2"/>
+    <cfRule type="top10" dxfId="983" priority="207" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="982" priority="208" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26:S26">
-    <cfRule type="top10" dxfId="827" priority="205" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="826" priority="206" rank="2"/>
+    <cfRule type="top10" dxfId="981" priority="205" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="980" priority="206" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27:S27">
-    <cfRule type="top10" dxfId="825" priority="203" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="824" priority="204" rank="2"/>
+    <cfRule type="top10" dxfId="979" priority="203" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="978" priority="204" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:S28">
-    <cfRule type="top10" dxfId="823" priority="201" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="822" priority="202" rank="2"/>
+    <cfRule type="top10" dxfId="977" priority="201" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="976" priority="202" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29:S29">
-    <cfRule type="top10" dxfId="821" priority="199" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="820" priority="200" rank="2"/>
+    <cfRule type="top10" dxfId="975" priority="199" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="974" priority="200" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30:S30">
-    <cfRule type="top10" dxfId="819" priority="197" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="818" priority="198" rank="2"/>
+    <cfRule type="top10" dxfId="973" priority="197" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="972" priority="198" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N37:S37">
-    <cfRule type="top10" dxfId="817" priority="195" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="816" priority="196" rank="2"/>
+    <cfRule type="top10" dxfId="971" priority="195" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="970" priority="196" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38:S38">
-    <cfRule type="top10" dxfId="815" priority="193" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="814" priority="194" rank="2"/>
+    <cfRule type="top10" dxfId="969" priority="193" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="968" priority="194" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39:S39">
-    <cfRule type="top10" dxfId="813" priority="191" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="812" priority="192" rank="2"/>
+    <cfRule type="top10" dxfId="967" priority="191" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="966" priority="192" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40:S40">
-    <cfRule type="top10" dxfId="811" priority="189" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="810" priority="190" rank="2"/>
+    <cfRule type="top10" dxfId="965" priority="189" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="964" priority="190" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41:S41">
-    <cfRule type="top10" dxfId="809" priority="187" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="808" priority="188" rank="2"/>
+    <cfRule type="top10" dxfId="963" priority="187" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="962" priority="188" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42:S42">
-    <cfRule type="top10" dxfId="807" priority="185" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="806" priority="186" rank="2"/>
+    <cfRule type="top10" dxfId="961" priority="185" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="960" priority="186" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43:S43">
-    <cfRule type="top10" dxfId="805" priority="183" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="804" priority="184" rank="2"/>
+    <cfRule type="top10" dxfId="959" priority="183" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="958" priority="184" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44:S44">
-    <cfRule type="top10" dxfId="803" priority="181" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="802" priority="182" rank="2"/>
+    <cfRule type="top10" dxfId="957" priority="181" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="956" priority="182" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45:S45">
-    <cfRule type="top10" dxfId="801" priority="179" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="800" priority="180" rank="2"/>
+    <cfRule type="top10" dxfId="955" priority="179" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="954" priority="180" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50:S50">
-    <cfRule type="top10" dxfId="799" priority="177" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="798" priority="178" rank="2"/>
+    <cfRule type="top10" dxfId="953" priority="177" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="952" priority="178" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51:S51">
-    <cfRule type="top10" dxfId="797" priority="175" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="796" priority="176" rank="2"/>
+    <cfRule type="top10" dxfId="951" priority="175" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="950" priority="176" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N52:S52">
-    <cfRule type="top10" dxfId="795" priority="173" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="794" priority="174" rank="2"/>
+    <cfRule type="top10" dxfId="949" priority="173" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="948" priority="174" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N53:S53">
-    <cfRule type="top10" dxfId="793" priority="171" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="792" priority="172" rank="2"/>
+    <cfRule type="top10" dxfId="947" priority="171" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="946" priority="172" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N54:S54">
-    <cfRule type="top10" dxfId="791" priority="169" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="790" priority="170" rank="2"/>
+    <cfRule type="top10" dxfId="945" priority="169" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="944" priority="170" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N55:S55">
-    <cfRule type="top10" dxfId="789" priority="167" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="788" priority="168" rank="2"/>
+    <cfRule type="top10" dxfId="943" priority="167" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="942" priority="168" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N56:S56">
-    <cfRule type="top10" dxfId="787" priority="165" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="786" priority="166" rank="2"/>
+    <cfRule type="top10" dxfId="941" priority="165" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="940" priority="166" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N57:S57">
-    <cfRule type="top10" dxfId="785" priority="163" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="784" priority="164" rank="2"/>
+    <cfRule type="top10" dxfId="939" priority="163" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="938" priority="164" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N58:S58">
-    <cfRule type="top10" dxfId="783" priority="161" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="782" priority="162" rank="2"/>
+    <cfRule type="top10" dxfId="937" priority="161" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="936" priority="162" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:M49">
-    <cfRule type="top10" dxfId="781" priority="79" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="780" priority="80" rank="2"/>
+    <cfRule type="top10" dxfId="935" priority="79" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="934" priority="80" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:M50">
-    <cfRule type="top10" dxfId="779" priority="77" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="778" priority="78" rank="2"/>
+    <cfRule type="top10" dxfId="933" priority="77" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="932" priority="78" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:M51">
-    <cfRule type="top10" dxfId="777" priority="75" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="776" priority="76" rank="2"/>
+    <cfRule type="top10" dxfId="931" priority="75" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="930" priority="76" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:M52">
-    <cfRule type="top10" dxfId="775" priority="73" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="774" priority="74" rank="2"/>
+    <cfRule type="top10" dxfId="929" priority="73" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="928" priority="74" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:M53">
-    <cfRule type="top10" dxfId="773" priority="71" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="772" priority="72" rank="2"/>
+    <cfRule type="top10" dxfId="927" priority="71" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="926" priority="72" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:M54">
-    <cfRule type="top10" dxfId="771" priority="69" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="770" priority="70" rank="2"/>
+    <cfRule type="top10" dxfId="925" priority="69" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="924" priority="70" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:M55">
-    <cfRule type="top10" dxfId="769" priority="67" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="768" priority="68" rank="2"/>
+    <cfRule type="top10" dxfId="923" priority="67" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="922" priority="68" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:M56">
-    <cfRule type="top10" dxfId="767" priority="65" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="766" priority="66" rank="2"/>
+    <cfRule type="top10" dxfId="921" priority="65" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="920" priority="66" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57:M57">
-    <cfRule type="top10" dxfId="765" priority="63" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="764" priority="64" rank="2"/>
+    <cfRule type="top10" dxfId="919" priority="63" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="918" priority="64" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58:M58">
-    <cfRule type="top10" dxfId="763" priority="61" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="762" priority="62" rank="2"/>
+    <cfRule type="top10" dxfId="917" priority="61" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="916" priority="62" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:M36">
-    <cfRule type="top10" dxfId="761" priority="59" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="760" priority="60" rank="2"/>
+    <cfRule type="top10" dxfId="915" priority="59" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="914" priority="60" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:M37">
-    <cfRule type="top10" dxfId="759" priority="57" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="758" priority="58" rank="2"/>
+    <cfRule type="top10" dxfId="913" priority="57" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="912" priority="58" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:M38">
-    <cfRule type="top10" dxfId="757" priority="55" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="756" priority="56" rank="2"/>
+    <cfRule type="top10" dxfId="911" priority="55" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="910" priority="56" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:M39">
-    <cfRule type="top10" dxfId="755" priority="53" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="754" priority="54" rank="2"/>
+    <cfRule type="top10" dxfId="909" priority="53" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="908" priority="54" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:M40">
-    <cfRule type="top10" dxfId="753" priority="51" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="752" priority="52" rank="2"/>
+    <cfRule type="top10" dxfId="907" priority="51" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="906" priority="52" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:M41">
-    <cfRule type="top10" dxfId="751" priority="49" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="750" priority="50" rank="2"/>
+    <cfRule type="top10" dxfId="905" priority="49" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="904" priority="50" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:M42">
-    <cfRule type="top10" dxfId="749" priority="47" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="748" priority="48" rank="2"/>
+    <cfRule type="top10" dxfId="903" priority="47" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="902" priority="48" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:M43">
-    <cfRule type="top10" dxfId="747" priority="45" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="746" priority="46" rank="2"/>
+    <cfRule type="top10" dxfId="901" priority="45" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="900" priority="46" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:M44">
-    <cfRule type="top10" dxfId="745" priority="43" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="744" priority="44" rank="2"/>
+    <cfRule type="top10" dxfId="899" priority="43" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="898" priority="44" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:M45">
-    <cfRule type="top10" dxfId="743" priority="41" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="742" priority="42" rank="2"/>
+    <cfRule type="top10" dxfId="897" priority="41" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="896" priority="42" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:M21">
-    <cfRule type="top10" dxfId="741" priority="39" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="740" priority="40" rank="2"/>
+    <cfRule type="top10" dxfId="895" priority="39" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="894" priority="40" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:M22">
-    <cfRule type="top10" dxfId="739" priority="37" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="738" priority="38" rank="2"/>
+    <cfRule type="top10" dxfId="893" priority="37" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="892" priority="38" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:M23">
-    <cfRule type="top10" dxfId="737" priority="35" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="736" priority="36" rank="2"/>
+    <cfRule type="top10" dxfId="891" priority="35" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="890" priority="36" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="top10" dxfId="735" priority="33" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="734" priority="34" rank="2"/>
+    <cfRule type="top10" dxfId="889" priority="33" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="888" priority="34" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:M25">
-    <cfRule type="top10" dxfId="733" priority="31" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="732" priority="32" rank="2"/>
+    <cfRule type="top10" dxfId="887" priority="31" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="886" priority="32" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:M26">
-    <cfRule type="top10" dxfId="731" priority="29" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="730" priority="30" rank="2"/>
+    <cfRule type="top10" dxfId="885" priority="29" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="884" priority="30" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:M27">
-    <cfRule type="top10" dxfId="729" priority="27" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="728" priority="28" rank="2"/>
+    <cfRule type="top10" dxfId="883" priority="27" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="882" priority="28" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:M28">
-    <cfRule type="top10" dxfId="727" priority="25" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="726" priority="26" rank="2"/>
+    <cfRule type="top10" dxfId="881" priority="25" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="880" priority="26" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:M29">
-    <cfRule type="top10" dxfId="725" priority="23" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="724" priority="24" rank="2"/>
+    <cfRule type="top10" dxfId="879" priority="23" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="878" priority="24" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:M30">
-    <cfRule type="top10" dxfId="723" priority="21" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="722" priority="22" rank="2"/>
+    <cfRule type="top10" dxfId="877" priority="21" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="876" priority="22" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:M8">
-    <cfRule type="top10" dxfId="721" priority="19" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="720" priority="20" rank="2"/>
+    <cfRule type="top10" dxfId="875" priority="19" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="874" priority="20" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:M9">
-    <cfRule type="top10" dxfId="719" priority="17" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="718" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="873" priority="17" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="872" priority="18" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:M10">
-    <cfRule type="top10" dxfId="717" priority="15" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="716" priority="16" rank="2"/>
+    <cfRule type="top10" dxfId="871" priority="15" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="870" priority="16" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:M11">
-    <cfRule type="top10" dxfId="715" priority="13" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="714" priority="14" rank="2"/>
+    <cfRule type="top10" dxfId="869" priority="13" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="868" priority="14" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:M12">
-    <cfRule type="top10" dxfId="713" priority="11" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="712" priority="12" rank="2"/>
+    <cfRule type="top10" dxfId="867" priority="11" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="866" priority="12" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:M13">
-    <cfRule type="top10" dxfId="711" priority="9" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="710" priority="10" rank="2"/>
+    <cfRule type="top10" dxfId="865" priority="9" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="864" priority="10" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:M14">
-    <cfRule type="top10" dxfId="709" priority="7" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="708" priority="8" rank="2"/>
+    <cfRule type="top10" dxfId="863" priority="7" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="862" priority="8" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:M15">
-    <cfRule type="top10" dxfId="707" priority="5" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="706" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="861" priority="5" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="860" priority="6" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:M16">
-    <cfRule type="top10" dxfId="705" priority="3" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="704" priority="4" rank="2"/>
+    <cfRule type="top10" dxfId="859" priority="3" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="858" priority="4" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:M17">
-    <cfRule type="top10" dxfId="703" priority="1" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="702" priority="2" rank="2"/>
+    <cfRule type="top10" dxfId="857" priority="1" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="856" priority="2" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14726,27 +17464,27 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="7" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40" t="s">
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
     </row>
     <row r="7" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
@@ -15201,11 +17939,11 @@
       <c r="N17" s="14"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
@@ -15660,11 +18398,11 @@
       <c r="N30" s="14"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
@@ -16119,11 +18857,11 @@
       <c r="N45" s="14"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
@@ -16578,10 +19316,10 @@
       <c r="N58" s="14"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8"/>
@@ -16597,312 +19335,312 @@
     <mergeCell ref="A34:C34"/>
   </mergeCells>
   <conditionalFormatting sqref="N8:S8">
-    <cfRule type="top10" dxfId="701" priority="355" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="700" priority="356" rank="2"/>
+    <cfRule type="top10" dxfId="855" priority="355" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="854" priority="356" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:S9">
-    <cfRule type="top10" dxfId="699" priority="353" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="698" priority="354" rank="2"/>
+    <cfRule type="top10" dxfId="853" priority="353" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="852" priority="354" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:S10">
-    <cfRule type="top10" dxfId="697" priority="351" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="696" priority="352" rank="2"/>
+    <cfRule type="top10" dxfId="851" priority="351" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="850" priority="352" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:S11">
-    <cfRule type="top10" dxfId="695" priority="349" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="694" priority="350" rank="2"/>
+    <cfRule type="top10" dxfId="849" priority="349" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="848" priority="350" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:S12">
-    <cfRule type="top10" dxfId="693" priority="347" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="692" priority="348" rank="2"/>
+    <cfRule type="top10" dxfId="847" priority="347" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="846" priority="348" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:S13">
-    <cfRule type="top10" dxfId="691" priority="345" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="690" priority="346" rank="2"/>
+    <cfRule type="top10" dxfId="845" priority="345" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="844" priority="346" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14:S14">
-    <cfRule type="top10" dxfId="689" priority="343" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="688" priority="344" rank="2"/>
+    <cfRule type="top10" dxfId="843" priority="343" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="842" priority="344" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:S15">
-    <cfRule type="top10" dxfId="687" priority="341" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="686" priority="342" rank="2"/>
+    <cfRule type="top10" dxfId="841" priority="341" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="840" priority="342" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:S16">
-    <cfRule type="top10" dxfId="685" priority="339" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="684" priority="340" rank="2"/>
+    <cfRule type="top10" dxfId="839" priority="339" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="838" priority="340" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:S17">
-    <cfRule type="top10" dxfId="683" priority="337" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="682" priority="338" rank="2"/>
+    <cfRule type="top10" dxfId="837" priority="337" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="836" priority="338" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22:S22">
-    <cfRule type="top10" dxfId="681" priority="335" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="680" priority="336" rank="2"/>
+    <cfRule type="top10" dxfId="835" priority="335" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="834" priority="336" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23:S23">
-    <cfRule type="top10" dxfId="679" priority="333" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="678" priority="334" rank="2"/>
+    <cfRule type="top10" dxfId="833" priority="333" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="832" priority="334" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24:S24">
-    <cfRule type="top10" dxfId="677" priority="331" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="676" priority="332" rank="2"/>
+    <cfRule type="top10" dxfId="831" priority="331" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="830" priority="332" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25:S25">
-    <cfRule type="top10" dxfId="675" priority="329" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="674" priority="330" rank="2"/>
+    <cfRule type="top10" dxfId="829" priority="329" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="828" priority="330" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26:S26">
-    <cfRule type="top10" dxfId="673" priority="327" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="672" priority="328" rank="2"/>
+    <cfRule type="top10" dxfId="827" priority="327" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="826" priority="328" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27:S27">
-    <cfRule type="top10" dxfId="671" priority="325" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="670" priority="326" rank="2"/>
+    <cfRule type="top10" dxfId="825" priority="325" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="824" priority="326" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:S28">
-    <cfRule type="top10" dxfId="669" priority="323" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="668" priority="324" rank="2"/>
+    <cfRule type="top10" dxfId="823" priority="323" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="822" priority="324" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29:S29">
-    <cfRule type="top10" dxfId="667" priority="321" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="666" priority="322" rank="2"/>
+    <cfRule type="top10" dxfId="821" priority="321" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="820" priority="322" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30:S30">
-    <cfRule type="top10" dxfId="665" priority="319" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="664" priority="320" rank="2"/>
+    <cfRule type="top10" dxfId="819" priority="319" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="818" priority="320" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N37:S37">
-    <cfRule type="top10" dxfId="663" priority="317" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="662" priority="318" rank="2"/>
+    <cfRule type="top10" dxfId="817" priority="317" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="816" priority="318" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38:S38">
-    <cfRule type="top10" dxfId="661" priority="315" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="660" priority="316" rank="2"/>
+    <cfRule type="top10" dxfId="815" priority="315" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="814" priority="316" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39:S39">
-    <cfRule type="top10" dxfId="659" priority="313" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="658" priority="314" rank="2"/>
+    <cfRule type="top10" dxfId="813" priority="313" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="812" priority="314" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40:S40">
-    <cfRule type="top10" dxfId="657" priority="311" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="656" priority="312" rank="2"/>
+    <cfRule type="top10" dxfId="811" priority="311" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="810" priority="312" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41:S41">
-    <cfRule type="top10" dxfId="655" priority="309" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="654" priority="310" rank="2"/>
+    <cfRule type="top10" dxfId="809" priority="309" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="808" priority="310" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42:S42">
-    <cfRule type="top10" dxfId="653" priority="307" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="652" priority="308" rank="2"/>
+    <cfRule type="top10" dxfId="807" priority="307" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="806" priority="308" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43:S43">
-    <cfRule type="top10" dxfId="651" priority="305" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="650" priority="306" rank="2"/>
+    <cfRule type="top10" dxfId="805" priority="305" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="804" priority="306" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44:S44">
-    <cfRule type="top10" dxfId="649" priority="303" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="648" priority="304" rank="2"/>
+    <cfRule type="top10" dxfId="803" priority="303" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="802" priority="304" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O45:S45">
-    <cfRule type="top10" dxfId="647" priority="301" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="646" priority="302" rank="2"/>
+    <cfRule type="top10" dxfId="801" priority="301" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="800" priority="302" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50:S50">
-    <cfRule type="top10" dxfId="645" priority="299" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="644" priority="300" rank="2"/>
+    <cfRule type="top10" dxfId="799" priority="299" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="798" priority="300" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51:S51">
-    <cfRule type="top10" dxfId="643" priority="297" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="642" priority="298" rank="2"/>
+    <cfRule type="top10" dxfId="797" priority="297" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="796" priority="298" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N52:S52">
-    <cfRule type="top10" dxfId="641" priority="295" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="640" priority="296" rank="2"/>
+    <cfRule type="top10" dxfId="795" priority="295" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="794" priority="296" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N53:S53">
-    <cfRule type="top10" dxfId="639" priority="293" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="638" priority="294" rank="2"/>
+    <cfRule type="top10" dxfId="793" priority="293" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="792" priority="294" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N54:S54">
-    <cfRule type="top10" dxfId="637" priority="291" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="636" priority="292" rank="2"/>
+    <cfRule type="top10" dxfId="791" priority="291" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="790" priority="292" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N55:S55">
-    <cfRule type="top10" dxfId="635" priority="289" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="634" priority="290" rank="2"/>
+    <cfRule type="top10" dxfId="789" priority="289" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="788" priority="290" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N56:S56">
-    <cfRule type="top10" dxfId="633" priority="287" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="632" priority="288" rank="2"/>
+    <cfRule type="top10" dxfId="787" priority="287" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="786" priority="288" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N57:S57">
-    <cfRule type="top10" dxfId="631" priority="285" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="630" priority="286" rank="2"/>
+    <cfRule type="top10" dxfId="785" priority="285" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="784" priority="286" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O58:S58">
-    <cfRule type="top10" dxfId="629" priority="283" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="628" priority="284" rank="2"/>
+    <cfRule type="top10" dxfId="783" priority="283" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="782" priority="284" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:M17">
-    <cfRule type="top10" dxfId="627" priority="115" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="626" priority="116" rank="2"/>
+    <cfRule type="top10" dxfId="781" priority="115" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="780" priority="116" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:M8">
-    <cfRule type="top10" dxfId="625" priority="97" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="624" priority="98" rank="2"/>
+    <cfRule type="top10" dxfId="779" priority="97" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="778" priority="98" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:M9">
-    <cfRule type="top10" dxfId="623" priority="99" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="622" priority="100" rank="2"/>
+    <cfRule type="top10" dxfId="777" priority="99" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="776" priority="100" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:M10">
-    <cfRule type="top10" dxfId="621" priority="101" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="620" priority="102" rank="2"/>
+    <cfRule type="top10" dxfId="775" priority="101" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="774" priority="102" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:M11">
-    <cfRule type="top10" dxfId="619" priority="103" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="618" priority="104" rank="2"/>
+    <cfRule type="top10" dxfId="773" priority="103" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="772" priority="104" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:M12">
-    <cfRule type="top10" dxfId="617" priority="105" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="616" priority="106" rank="2"/>
+    <cfRule type="top10" dxfId="771" priority="105" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="770" priority="106" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:M13">
-    <cfRule type="top10" dxfId="615" priority="107" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="614" priority="108" rank="2"/>
+    <cfRule type="top10" dxfId="769" priority="107" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="768" priority="108" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:M14">
-    <cfRule type="top10" dxfId="613" priority="109" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="612" priority="110" rank="2"/>
+    <cfRule type="top10" dxfId="767" priority="109" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="766" priority="110" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:M15">
-    <cfRule type="top10" dxfId="611" priority="111" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="610" priority="112" rank="2"/>
+    <cfRule type="top10" dxfId="765" priority="111" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="764" priority="112" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:M16">
-    <cfRule type="top10" dxfId="609" priority="113" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="608" priority="114" rank="2"/>
+    <cfRule type="top10" dxfId="763" priority="113" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="762" priority="114" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:M30">
-    <cfRule type="top10" dxfId="607" priority="95" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="606" priority="96" rank="2"/>
+    <cfRule type="top10" dxfId="761" priority="95" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="760" priority="96" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:M21">
-    <cfRule type="top10" dxfId="605" priority="77" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="604" priority="78" rank="2"/>
+    <cfRule type="top10" dxfId="759" priority="77" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="758" priority="78" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:M22">
-    <cfRule type="top10" dxfId="603" priority="79" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="602" priority="80" rank="2"/>
+    <cfRule type="top10" dxfId="757" priority="79" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="756" priority="80" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:M23">
-    <cfRule type="top10" dxfId="601" priority="81" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="600" priority="82" rank="2"/>
+    <cfRule type="top10" dxfId="755" priority="81" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="754" priority="82" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="top10" dxfId="599" priority="83" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="598" priority="84" rank="2"/>
+    <cfRule type="top10" dxfId="753" priority="83" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="752" priority="84" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:M25">
-    <cfRule type="top10" dxfId="597" priority="85" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="596" priority="86" rank="2"/>
+    <cfRule type="top10" dxfId="751" priority="85" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="750" priority="86" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:M26">
-    <cfRule type="top10" dxfId="595" priority="87" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="594" priority="88" rank="2"/>
+    <cfRule type="top10" dxfId="749" priority="87" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="748" priority="88" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:M27">
-    <cfRule type="top10" dxfId="593" priority="89" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="592" priority="90" rank="2"/>
+    <cfRule type="top10" dxfId="747" priority="89" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="746" priority="90" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:M28">
-    <cfRule type="top10" dxfId="591" priority="91" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="590" priority="92" rank="2"/>
+    <cfRule type="top10" dxfId="745" priority="91" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="744" priority="92" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:M29">
-    <cfRule type="top10" dxfId="589" priority="93" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="588" priority="94" rank="2"/>
+    <cfRule type="top10" dxfId="743" priority="93" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="742" priority="94" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:M45">
-    <cfRule type="top10" dxfId="587" priority="39" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="586" priority="40" rank="2"/>
+    <cfRule type="top10" dxfId="741" priority="39" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="740" priority="40" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:M36">
-    <cfRule type="top10" dxfId="585" priority="21" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="584" priority="22" rank="2"/>
+    <cfRule type="top10" dxfId="739" priority="21" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="738" priority="22" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:M37">
-    <cfRule type="top10" dxfId="583" priority="23" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="582" priority="24" rank="2"/>
+    <cfRule type="top10" dxfId="737" priority="23" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="736" priority="24" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:M38">
-    <cfRule type="top10" dxfId="581" priority="25" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="580" priority="26" rank="2"/>
+    <cfRule type="top10" dxfId="735" priority="25" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="734" priority="26" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:M39">
-    <cfRule type="top10" dxfId="579" priority="27" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="578" priority="28" rank="2"/>
+    <cfRule type="top10" dxfId="733" priority="27" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="732" priority="28" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:M40">
-    <cfRule type="top10" dxfId="577" priority="29" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="576" priority="30" rank="2"/>
+    <cfRule type="top10" dxfId="731" priority="29" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="730" priority="30" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:M41">
-    <cfRule type="top10" dxfId="575" priority="31" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="574" priority="32" rank="2"/>
+    <cfRule type="top10" dxfId="729" priority="31" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="728" priority="32" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:M42">
-    <cfRule type="top10" dxfId="573" priority="33" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="572" priority="34" rank="2"/>
+    <cfRule type="top10" dxfId="727" priority="33" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="726" priority="34" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:M43">
-    <cfRule type="top10" dxfId="571" priority="35" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="570" priority="36" rank="2"/>
+    <cfRule type="top10" dxfId="725" priority="35" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="724" priority="36" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:M44">
-    <cfRule type="top10" dxfId="569" priority="37" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="568" priority="38" rank="2"/>
+    <cfRule type="top10" dxfId="723" priority="37" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="722" priority="38" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58:M58">
-    <cfRule type="top10" dxfId="567" priority="19" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="566" priority="20" rank="2"/>
+    <cfRule type="top10" dxfId="721" priority="19" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="720" priority="20" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:M49">
-    <cfRule type="top10" dxfId="565" priority="1" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="564" priority="2" rank="2"/>
+    <cfRule type="top10" dxfId="719" priority="1" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="718" priority="2" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:M50">
-    <cfRule type="top10" dxfId="563" priority="3" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="562" priority="4" rank="2"/>
+    <cfRule type="top10" dxfId="717" priority="3" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="716" priority="4" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:M51">
-    <cfRule type="top10" dxfId="561" priority="5" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="560" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="715" priority="5" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="714" priority="6" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:M52">
-    <cfRule type="top10" dxfId="559" priority="7" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="558" priority="8" rank="2"/>
+    <cfRule type="top10" dxfId="713" priority="7" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="712" priority="8" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:M53">
-    <cfRule type="top10" dxfId="557" priority="9" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="556" priority="10" rank="2"/>
+    <cfRule type="top10" dxfId="711" priority="9" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="710" priority="10" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:M54">
-    <cfRule type="top10" dxfId="555" priority="11" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="554" priority="12" rank="2"/>
+    <cfRule type="top10" dxfId="709" priority="11" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="708" priority="12" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:M55">
-    <cfRule type="top10" dxfId="553" priority="13" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="552" priority="14" rank="2"/>
+    <cfRule type="top10" dxfId="707" priority="13" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="706" priority="14" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:M56">
-    <cfRule type="top10" dxfId="551" priority="15" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="550" priority="16" rank="2"/>
+    <cfRule type="top10" dxfId="705" priority="15" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="704" priority="16" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57:M57">
-    <cfRule type="top10" dxfId="549" priority="17" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="548" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="703" priority="17" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="702" priority="18" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17068,27 +19806,27 @@
       </c>
     </row>
     <row r="5" spans="1:16" s="7" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40" t="s">
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
     </row>
     <row r="7" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
@@ -17550,11 +20288,11 @@
       <c r="M18" s="19"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
@@ -18020,11 +20758,11 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
@@ -18478,11 +21216,11 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
@@ -18936,12 +21674,12 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B63" s="39" t="s">
+      <c r="B63" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
@@ -18963,336 +21701,336 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N8:P8">
-    <cfRule type="top10" dxfId="547" priority="641" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="546" priority="642" rank="2"/>
+    <cfRule type="top10" dxfId="701" priority="641" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="700" priority="642" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:P9">
-    <cfRule type="top10" dxfId="545" priority="639" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="544" priority="640" rank="2"/>
+    <cfRule type="top10" dxfId="699" priority="639" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="698" priority="640" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:P10">
-    <cfRule type="top10" dxfId="543" priority="637" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="542" priority="638" rank="2"/>
+    <cfRule type="top10" dxfId="697" priority="637" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="696" priority="638" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:P11">
-    <cfRule type="top10" dxfId="541" priority="635" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="540" priority="636" rank="2"/>
+    <cfRule type="top10" dxfId="695" priority="635" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="694" priority="636" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:P12">
-    <cfRule type="top10" dxfId="539" priority="633" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="538" priority="634" rank="2"/>
+    <cfRule type="top10" dxfId="693" priority="633" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="692" priority="634" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:P13">
-    <cfRule type="top10" dxfId="537" priority="631" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="536" priority="632" rank="2"/>
+    <cfRule type="top10" dxfId="691" priority="631" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="690" priority="632" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14:P14">
-    <cfRule type="top10" dxfId="535" priority="629" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="534" priority="630" rank="2"/>
+    <cfRule type="top10" dxfId="689" priority="629" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="688" priority="630" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:P15">
-    <cfRule type="top10" dxfId="533" priority="627" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="532" priority="628" rank="2"/>
+    <cfRule type="top10" dxfId="687" priority="627" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="686" priority="628" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:P16">
-    <cfRule type="top10" dxfId="531" priority="625" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="530" priority="626" rank="2"/>
+    <cfRule type="top10" dxfId="685" priority="625" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="684" priority="626" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17:P17">
-    <cfRule type="top10" dxfId="529" priority="623" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="528" priority="624" rank="2"/>
+    <cfRule type="top10" dxfId="683" priority="623" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="682" priority="624" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22:P22">
-    <cfRule type="top10" dxfId="527" priority="621" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="526" priority="622" rank="2"/>
+    <cfRule type="top10" dxfId="681" priority="621" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="680" priority="622" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23:P23">
-    <cfRule type="top10" dxfId="525" priority="619" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="524" priority="620" rank="2"/>
+    <cfRule type="top10" dxfId="679" priority="619" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="678" priority="620" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24:P24">
-    <cfRule type="top10" dxfId="523" priority="617" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="522" priority="618" rank="2"/>
+    <cfRule type="top10" dxfId="677" priority="617" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="676" priority="618" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25:P25">
-    <cfRule type="top10" dxfId="521" priority="615" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="520" priority="616" rank="2"/>
+    <cfRule type="top10" dxfId="675" priority="615" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="674" priority="616" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26:P26">
-    <cfRule type="top10" dxfId="519" priority="613" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="518" priority="614" rank="2"/>
+    <cfRule type="top10" dxfId="673" priority="613" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="672" priority="614" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27:P27">
-    <cfRule type="top10" dxfId="517" priority="611" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="516" priority="612" rank="2"/>
+    <cfRule type="top10" dxfId="671" priority="611" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="670" priority="612" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:P28">
-    <cfRule type="top10" dxfId="515" priority="609" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="514" priority="610" rank="2"/>
+    <cfRule type="top10" dxfId="669" priority="609" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="668" priority="610" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29:P29">
-    <cfRule type="top10" dxfId="513" priority="607" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="512" priority="608" rank="2"/>
+    <cfRule type="top10" dxfId="667" priority="607" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="666" priority="608" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30:P30">
-    <cfRule type="top10" dxfId="511" priority="605" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="510" priority="606" rank="2"/>
+    <cfRule type="top10" dxfId="665" priority="605" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="664" priority="606" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N37:P37">
-    <cfRule type="top10" dxfId="509" priority="603" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="508" priority="604" rank="2"/>
+    <cfRule type="top10" dxfId="663" priority="603" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="662" priority="604" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38:P38">
-    <cfRule type="top10" dxfId="507" priority="601" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="506" priority="602" rank="2"/>
+    <cfRule type="top10" dxfId="661" priority="601" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="660" priority="602" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39:P39">
-    <cfRule type="top10" dxfId="505" priority="599" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="504" priority="600" rank="2"/>
+    <cfRule type="top10" dxfId="659" priority="599" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="658" priority="600" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40:P40">
-    <cfRule type="top10" dxfId="503" priority="597" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="502" priority="598" rank="2"/>
+    <cfRule type="top10" dxfId="657" priority="597" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="656" priority="598" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41:P41">
-    <cfRule type="top10" dxfId="501" priority="595" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="500" priority="596" rank="2"/>
+    <cfRule type="top10" dxfId="655" priority="595" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="654" priority="596" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42:P42">
-    <cfRule type="top10" dxfId="499" priority="593" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="498" priority="594" rank="2"/>
+    <cfRule type="top10" dxfId="653" priority="593" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="652" priority="594" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43:P43">
-    <cfRule type="top10" dxfId="497" priority="591" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="496" priority="592" rank="2"/>
+    <cfRule type="top10" dxfId="651" priority="591" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="650" priority="592" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44:P44">
-    <cfRule type="top10" dxfId="495" priority="589" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="494" priority="590" rank="2"/>
+    <cfRule type="top10" dxfId="649" priority="589" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="648" priority="590" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45:P45">
-    <cfRule type="top10" dxfId="493" priority="587" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="492" priority="588" rank="2"/>
+    <cfRule type="top10" dxfId="647" priority="587" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="646" priority="588" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50:P50">
-    <cfRule type="top10" dxfId="491" priority="585" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="490" priority="586" rank="2"/>
+    <cfRule type="top10" dxfId="645" priority="585" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="644" priority="586" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51:P51">
-    <cfRule type="top10" dxfId="489" priority="583" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="488" priority="584" rank="2"/>
+    <cfRule type="top10" dxfId="643" priority="583" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="642" priority="584" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N52:P52">
-    <cfRule type="top10" dxfId="487" priority="581" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="486" priority="582" rank="2"/>
+    <cfRule type="top10" dxfId="641" priority="581" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="640" priority="582" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N53:P53">
-    <cfRule type="top10" dxfId="485" priority="579" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="484" priority="580" rank="2"/>
+    <cfRule type="top10" dxfId="639" priority="579" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="638" priority="580" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N54:P54">
-    <cfRule type="top10" dxfId="483" priority="577" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="482" priority="578" rank="2"/>
+    <cfRule type="top10" dxfId="637" priority="577" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="636" priority="578" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N55:P55">
-    <cfRule type="top10" dxfId="481" priority="575" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="480" priority="576" rank="2"/>
+    <cfRule type="top10" dxfId="635" priority="575" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="634" priority="576" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N56:P56">
-    <cfRule type="top10" dxfId="479" priority="573" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="478" priority="574" rank="2"/>
+    <cfRule type="top10" dxfId="633" priority="573" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="632" priority="574" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N57:P57">
-    <cfRule type="top10" dxfId="477" priority="571" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="476" priority="572" rank="2"/>
+    <cfRule type="top10" dxfId="631" priority="571" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="630" priority="572" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N58:P58">
-    <cfRule type="top10" dxfId="475" priority="569" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="474" priority="570" rank="2"/>
+    <cfRule type="top10" dxfId="629" priority="569" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="628" priority="570" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18">
-    <cfRule type="top10" dxfId="473" priority="489" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="472" priority="490" rank="2"/>
+    <cfRule type="top10" dxfId="627" priority="489" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="626" priority="490" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="top10" dxfId="471" priority="487" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="470" priority="488" rank="2"/>
+    <cfRule type="top10" dxfId="625" priority="487" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="624" priority="488" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="top10" dxfId="469" priority="485" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="468" priority="486" rank="2"/>
+    <cfRule type="top10" dxfId="623" priority="485" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="622" priority="486" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:L18">
-    <cfRule type="top10" dxfId="467" priority="691" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="466" priority="692" rank="2"/>
+    <cfRule type="top10" dxfId="621" priority="691" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="620" priority="692" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:L19">
-    <cfRule type="top10" dxfId="465" priority="693" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="464" priority="694" rank="2"/>
+    <cfRule type="top10" dxfId="619" priority="693" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="618" priority="694" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:L20">
-    <cfRule type="top10" dxfId="463" priority="695" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="462" priority="696" rank="2"/>
+    <cfRule type="top10" dxfId="617" priority="695" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="616" priority="696" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58:M58">
-    <cfRule type="top10" dxfId="461" priority="79" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="460" priority="80" rank="2"/>
+    <cfRule type="top10" dxfId="615" priority="79" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="614" priority="80" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:M49">
-    <cfRule type="top10" dxfId="459" priority="61" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="458" priority="62" rank="2"/>
+    <cfRule type="top10" dxfId="613" priority="61" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="612" priority="62" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:M50">
-    <cfRule type="top10" dxfId="457" priority="63" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="456" priority="64" rank="2"/>
+    <cfRule type="top10" dxfId="611" priority="63" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="610" priority="64" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:M51">
-    <cfRule type="top10" dxfId="455" priority="65" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="454" priority="66" rank="2"/>
+    <cfRule type="top10" dxfId="609" priority="65" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="608" priority="66" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:M52">
-    <cfRule type="top10" dxfId="453" priority="67" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="452" priority="68" rank="2"/>
+    <cfRule type="top10" dxfId="607" priority="67" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="606" priority="68" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:M53">
-    <cfRule type="top10" dxfId="451" priority="69" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="450" priority="70" rank="2"/>
+    <cfRule type="top10" dxfId="605" priority="69" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="604" priority="70" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:M54">
-    <cfRule type="top10" dxfId="449" priority="71" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="448" priority="72" rank="2"/>
+    <cfRule type="top10" dxfId="603" priority="71" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="602" priority="72" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:M55">
-    <cfRule type="top10" dxfId="447" priority="73" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="446" priority="74" rank="2"/>
+    <cfRule type="top10" dxfId="601" priority="73" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="600" priority="74" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:M56">
-    <cfRule type="top10" dxfId="445" priority="75" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="444" priority="76" rank="2"/>
+    <cfRule type="top10" dxfId="599" priority="75" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="598" priority="76" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57:M57">
-    <cfRule type="top10" dxfId="443" priority="77" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="442" priority="78" rank="2"/>
+    <cfRule type="top10" dxfId="597" priority="77" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="596" priority="78" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:M45">
-    <cfRule type="top10" dxfId="441" priority="59" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="440" priority="60" rank="2"/>
+    <cfRule type="top10" dxfId="595" priority="59" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="594" priority="60" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:M36">
-    <cfRule type="top10" dxfId="439" priority="41" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="438" priority="42" rank="2"/>
+    <cfRule type="top10" dxfId="593" priority="41" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="592" priority="42" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:M37">
-    <cfRule type="top10" dxfId="437" priority="43" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="436" priority="44" rank="2"/>
+    <cfRule type="top10" dxfId="591" priority="43" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="590" priority="44" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:M38">
-    <cfRule type="top10" dxfId="435" priority="45" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="434" priority="46" rank="2"/>
+    <cfRule type="top10" dxfId="589" priority="45" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="588" priority="46" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:M39">
-    <cfRule type="top10" dxfId="433" priority="47" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="432" priority="48" rank="2"/>
+    <cfRule type="top10" dxfId="587" priority="47" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="586" priority="48" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:M40">
-    <cfRule type="top10" dxfId="431" priority="49" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="430" priority="50" rank="2"/>
+    <cfRule type="top10" dxfId="585" priority="49" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="584" priority="50" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:M41">
-    <cfRule type="top10" dxfId="429" priority="51" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="428" priority="52" rank="2"/>
+    <cfRule type="top10" dxfId="583" priority="51" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="582" priority="52" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:M42">
-    <cfRule type="top10" dxfId="427" priority="53" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="426" priority="54" rank="2"/>
+    <cfRule type="top10" dxfId="581" priority="53" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="580" priority="54" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:M43">
-    <cfRule type="top10" dxfId="425" priority="55" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="424" priority="56" rank="2"/>
+    <cfRule type="top10" dxfId="579" priority="55" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="578" priority="56" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:M44">
-    <cfRule type="top10" dxfId="423" priority="57" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="422" priority="58" rank="2"/>
+    <cfRule type="top10" dxfId="577" priority="57" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="576" priority="58" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:M30">
-    <cfRule type="top10" dxfId="421" priority="39" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="420" priority="40" rank="2"/>
+    <cfRule type="top10" dxfId="575" priority="39" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="574" priority="40" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:M21">
-    <cfRule type="top10" dxfId="419" priority="21" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="418" priority="22" rank="2"/>
+    <cfRule type="top10" dxfId="573" priority="21" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="572" priority="22" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:M22">
-    <cfRule type="top10" dxfId="417" priority="23" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="416" priority="24" rank="2"/>
+    <cfRule type="top10" dxfId="571" priority="23" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="570" priority="24" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:M23">
-    <cfRule type="top10" dxfId="415" priority="25" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="414" priority="26" rank="2"/>
+    <cfRule type="top10" dxfId="569" priority="25" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="568" priority="26" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="top10" dxfId="413" priority="27" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="412" priority="28" rank="2"/>
+    <cfRule type="top10" dxfId="567" priority="27" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="566" priority="28" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:M25">
-    <cfRule type="top10" dxfId="411" priority="29" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="410" priority="30" rank="2"/>
+    <cfRule type="top10" dxfId="565" priority="29" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="564" priority="30" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:M26">
-    <cfRule type="top10" dxfId="409" priority="31" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="408" priority="32" rank="2"/>
+    <cfRule type="top10" dxfId="563" priority="31" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="562" priority="32" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:M27">
-    <cfRule type="top10" dxfId="407" priority="33" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="406" priority="34" rank="2"/>
+    <cfRule type="top10" dxfId="561" priority="33" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="560" priority="34" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:M28">
-    <cfRule type="top10" dxfId="405" priority="35" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="404" priority="36" rank="2"/>
+    <cfRule type="top10" dxfId="559" priority="35" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="558" priority="36" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:M29">
-    <cfRule type="top10" dxfId="403" priority="37" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="402" priority="38" rank="2"/>
+    <cfRule type="top10" dxfId="557" priority="37" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="556" priority="38" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:M17">
-    <cfRule type="top10" dxfId="401" priority="19" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="400" priority="20" rank="2"/>
+    <cfRule type="top10" dxfId="555" priority="19" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="554" priority="20" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:M8">
-    <cfRule type="top10" dxfId="399" priority="1" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="398" priority="2" rank="2"/>
+    <cfRule type="top10" dxfId="553" priority="1" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="552" priority="2" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:M9">
-    <cfRule type="top10" dxfId="397" priority="3" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="396" priority="4" rank="2"/>
+    <cfRule type="top10" dxfId="551" priority="3" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="550" priority="4" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:M10">
-    <cfRule type="top10" dxfId="395" priority="5" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="394" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="549" priority="5" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="548" priority="6" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:M11">
-    <cfRule type="top10" dxfId="393" priority="7" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="392" priority="8" rank="2"/>
+    <cfRule type="top10" dxfId="547" priority="7" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="546" priority="8" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:M12">
-    <cfRule type="top10" dxfId="391" priority="9" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="390" priority="10" rank="2"/>
+    <cfRule type="top10" dxfId="545" priority="9" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="544" priority="10" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:M13">
-    <cfRule type="top10" dxfId="389" priority="11" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="388" priority="12" rank="2"/>
+    <cfRule type="top10" dxfId="543" priority="11" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="542" priority="12" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:M14">
-    <cfRule type="top10" dxfId="387" priority="13" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="386" priority="14" rank="2"/>
+    <cfRule type="top10" dxfId="541" priority="13" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="540" priority="14" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:M15">
-    <cfRule type="top10" dxfId="385" priority="15" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="384" priority="16" rank="2"/>
+    <cfRule type="top10" dxfId="539" priority="15" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="538" priority="16" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:M16">
-    <cfRule type="top10" dxfId="383" priority="17" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="382" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="537" priority="17" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="536" priority="18" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19460,30 +22198,30 @@
       </c>
     </row>
     <row r="5" spans="1:18" s="23" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40" t="s">
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
       <c r="N5" s="31"/>
       <c r="O5" s="31"/>
       <c r="P5" s="31"/>
     </row>
     <row r="6" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
     </row>
     <row r="7" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
@@ -19968,11 +22706,11 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
@@ -20457,11 +23195,11 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
@@ -20946,11 +23684,11 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="22" t="s">
@@ -21435,11 +24173,11 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B63" s="39" t="s">
+      <c r="B63" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
@@ -21457,460 +24195,460 @@
     <mergeCell ref="A47:C47"/>
   </mergeCells>
   <conditionalFormatting sqref="Q30:R30">
-    <cfRule type="top10" dxfId="381" priority="385" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="380" priority="386" rank="2"/>
+    <cfRule type="top10" dxfId="535" priority="385" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="534" priority="386" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q45:R45">
-    <cfRule type="top10" dxfId="379" priority="383" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="378" priority="384" rank="2"/>
+    <cfRule type="top10" dxfId="533" priority="383" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="532" priority="384" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q50:R50">
-    <cfRule type="top10" dxfId="377" priority="381" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="376" priority="382" rank="2"/>
+    <cfRule type="top10" dxfId="531" priority="381" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="530" priority="382" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q51:R51">
-    <cfRule type="top10" dxfId="375" priority="379" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="374" priority="380" rank="2"/>
+    <cfRule type="top10" dxfId="529" priority="379" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="528" priority="380" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q52:R52">
-    <cfRule type="top10" dxfId="373" priority="377" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="372" priority="378" rank="2"/>
+    <cfRule type="top10" dxfId="527" priority="377" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="526" priority="378" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q53:R53">
-    <cfRule type="top10" dxfId="371" priority="375" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="370" priority="376" rank="2"/>
+    <cfRule type="top10" dxfId="525" priority="375" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="524" priority="376" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q54:R54">
-    <cfRule type="top10" dxfId="369" priority="373" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="368" priority="374" rank="2"/>
+    <cfRule type="top10" dxfId="523" priority="373" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="522" priority="374" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q55:R55">
-    <cfRule type="top10" dxfId="367" priority="371" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="366" priority="372" rank="2"/>
+    <cfRule type="top10" dxfId="521" priority="371" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="520" priority="372" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q56:R56">
-    <cfRule type="top10" dxfId="365" priority="369" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="364" priority="370" rank="2"/>
+    <cfRule type="top10" dxfId="519" priority="369" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="518" priority="370" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q57:R57">
-    <cfRule type="top10" dxfId="363" priority="367" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="362" priority="368" rank="2"/>
+    <cfRule type="top10" dxfId="517" priority="367" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="516" priority="368" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q58:R58">
-    <cfRule type="top10" dxfId="361" priority="365" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="360" priority="366" rank="2"/>
+    <cfRule type="top10" dxfId="515" priority="365" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="514" priority="366" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:R8">
-    <cfRule type="top10" dxfId="359" priority="387" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="358" priority="388" rank="2"/>
+    <cfRule type="top10" dxfId="513" priority="387" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="512" priority="388" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9:R9">
-    <cfRule type="top10" dxfId="357" priority="389" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="356" priority="390" rank="2"/>
+    <cfRule type="top10" dxfId="511" priority="389" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="510" priority="390" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10:R10">
-    <cfRule type="top10" dxfId="355" priority="391" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="354" priority="392" rank="2"/>
+    <cfRule type="top10" dxfId="509" priority="391" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="508" priority="392" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:R11">
-    <cfRule type="top10" dxfId="353" priority="393" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="352" priority="394" rank="2"/>
+    <cfRule type="top10" dxfId="507" priority="393" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="506" priority="394" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:R12">
-    <cfRule type="top10" dxfId="351" priority="395" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="350" priority="396" rank="2"/>
+    <cfRule type="top10" dxfId="505" priority="395" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="504" priority="396" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:R13">
-    <cfRule type="top10" dxfId="349" priority="397" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="348" priority="398" rank="2"/>
+    <cfRule type="top10" dxfId="503" priority="397" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="502" priority="398" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14:R14">
-    <cfRule type="top10" dxfId="347" priority="399" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="346" priority="400" rank="2"/>
+    <cfRule type="top10" dxfId="501" priority="399" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="500" priority="400" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15:R15">
-    <cfRule type="top10" dxfId="345" priority="401" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="344" priority="402" rank="2"/>
+    <cfRule type="top10" dxfId="499" priority="401" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="498" priority="402" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16:R16">
-    <cfRule type="top10" dxfId="343" priority="403" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="342" priority="404" rank="2"/>
+    <cfRule type="top10" dxfId="497" priority="403" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="496" priority="404" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17:R17">
-    <cfRule type="top10" dxfId="341" priority="405" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="340" priority="406" rank="2"/>
+    <cfRule type="top10" dxfId="495" priority="405" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="494" priority="406" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22:R22">
-    <cfRule type="top10" dxfId="339" priority="407" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="338" priority="408" rank="2"/>
+    <cfRule type="top10" dxfId="493" priority="407" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="492" priority="408" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q23:R23">
-    <cfRule type="top10" dxfId="337" priority="409" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="336" priority="410" rank="2"/>
+    <cfRule type="top10" dxfId="491" priority="409" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="490" priority="410" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q24:R24">
-    <cfRule type="top10" dxfId="335" priority="411" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="334" priority="412" rank="2"/>
+    <cfRule type="top10" dxfId="489" priority="411" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="488" priority="412" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q25:R25">
-    <cfRule type="top10" dxfId="333" priority="413" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="332" priority="414" rank="2"/>
+    <cfRule type="top10" dxfId="487" priority="413" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="486" priority="414" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q26:R26">
-    <cfRule type="top10" dxfId="331" priority="415" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="330" priority="416" rank="2"/>
+    <cfRule type="top10" dxfId="485" priority="415" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="484" priority="416" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27:R27">
-    <cfRule type="top10" dxfId="329" priority="417" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="328" priority="418" rank="2"/>
+    <cfRule type="top10" dxfId="483" priority="417" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="482" priority="418" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28:R28">
-    <cfRule type="top10" dxfId="327" priority="419" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="326" priority="420" rank="2"/>
+    <cfRule type="top10" dxfId="481" priority="419" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="480" priority="420" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q29:R29">
-    <cfRule type="top10" dxfId="325" priority="421" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="324" priority="422" rank="2"/>
+    <cfRule type="top10" dxfId="479" priority="421" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="478" priority="422" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q37:R37">
-    <cfRule type="top10" dxfId="323" priority="423" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="322" priority="424" rank="2"/>
+    <cfRule type="top10" dxfId="477" priority="423" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="476" priority="424" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q38:R38">
-    <cfRule type="top10" dxfId="321" priority="425" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="320" priority="426" rank="2"/>
+    <cfRule type="top10" dxfId="475" priority="425" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="474" priority="426" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q39:R39">
-    <cfRule type="top10" dxfId="319" priority="427" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="318" priority="428" rank="2"/>
+    <cfRule type="top10" dxfId="473" priority="427" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="472" priority="428" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q40:R40">
-    <cfRule type="top10" dxfId="317" priority="429" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="316" priority="430" rank="2"/>
+    <cfRule type="top10" dxfId="471" priority="429" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="470" priority="430" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q41:R41">
-    <cfRule type="top10" dxfId="315" priority="431" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="314" priority="432" rank="2"/>
+    <cfRule type="top10" dxfId="469" priority="431" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="468" priority="432" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q42:R42">
-    <cfRule type="top10" dxfId="313" priority="433" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="312" priority="434" rank="2"/>
+    <cfRule type="top10" dxfId="467" priority="433" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="466" priority="434" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q43:R43">
-    <cfRule type="top10" dxfId="311" priority="435" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="310" priority="436" rank="2"/>
+    <cfRule type="top10" dxfId="465" priority="435" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="464" priority="436" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q44:R44">
-    <cfRule type="top10" dxfId="309" priority="437" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="308" priority="438" rank="2"/>
+    <cfRule type="top10" dxfId="463" priority="437" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="462" priority="438" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O36:P36">
-    <cfRule type="top10" dxfId="307" priority="363" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="306" priority="364" rank="2"/>
+    <cfRule type="top10" dxfId="461" priority="363" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="460" priority="364" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O37:P37">
-    <cfRule type="top10" dxfId="305" priority="361" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="304" priority="362" rank="2"/>
+    <cfRule type="top10" dxfId="459" priority="361" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="458" priority="362" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O38:P38">
-    <cfRule type="top10" dxfId="303" priority="359" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="302" priority="360" rank="2"/>
+    <cfRule type="top10" dxfId="457" priority="359" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="456" priority="360" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O39:P39">
-    <cfRule type="top10" dxfId="301" priority="357" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="300" priority="358" rank="2"/>
+    <cfRule type="top10" dxfId="455" priority="357" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="454" priority="358" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O40:P40">
-    <cfRule type="top10" dxfId="299" priority="355" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="298" priority="356" rank="2"/>
+    <cfRule type="top10" dxfId="453" priority="355" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="452" priority="356" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O41:P41">
-    <cfRule type="top10" dxfId="297" priority="353" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="296" priority="354" rank="2"/>
+    <cfRule type="top10" dxfId="451" priority="353" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="450" priority="354" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O42:P42">
-    <cfRule type="top10" dxfId="295" priority="351" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="294" priority="352" rank="2"/>
+    <cfRule type="top10" dxfId="449" priority="351" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="448" priority="352" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O43:P43">
-    <cfRule type="top10" dxfId="293" priority="349" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="292" priority="350" rank="2"/>
+    <cfRule type="top10" dxfId="447" priority="349" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="446" priority="350" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O44:P44">
-    <cfRule type="top10" dxfId="291" priority="347" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="290" priority="348" rank="2"/>
+    <cfRule type="top10" dxfId="445" priority="347" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="444" priority="348" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O49:P49">
-    <cfRule type="top10" dxfId="289" priority="345" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="288" priority="346" rank="2"/>
+    <cfRule type="top10" dxfId="443" priority="345" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="442" priority="346" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O50:P50">
-    <cfRule type="top10" dxfId="287" priority="343" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="286" priority="344" rank="2"/>
+    <cfRule type="top10" dxfId="441" priority="343" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="440" priority="344" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O51:P51">
-    <cfRule type="top10" dxfId="285" priority="341" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="284" priority="342" rank="2"/>
+    <cfRule type="top10" dxfId="439" priority="341" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="438" priority="342" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O52:P52">
-    <cfRule type="top10" dxfId="283" priority="339" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="282" priority="340" rank="2"/>
+    <cfRule type="top10" dxfId="437" priority="339" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="436" priority="340" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O53:P53">
-    <cfRule type="top10" dxfId="281" priority="337" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="280" priority="338" rank="2"/>
+    <cfRule type="top10" dxfId="435" priority="337" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="434" priority="338" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O54:P54">
-    <cfRule type="top10" dxfId="279" priority="335" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="278" priority="336" rank="2"/>
+    <cfRule type="top10" dxfId="433" priority="335" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="432" priority="336" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O55:P55">
-    <cfRule type="top10" dxfId="277" priority="333" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="276" priority="334" rank="2"/>
+    <cfRule type="top10" dxfId="431" priority="333" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="430" priority="334" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O56:P56">
-    <cfRule type="top10" dxfId="275" priority="331" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="274" priority="332" rank="2"/>
+    <cfRule type="top10" dxfId="429" priority="331" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="428" priority="332" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O57:P57">
-    <cfRule type="top10" dxfId="273" priority="329" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="272" priority="330" rank="2"/>
+    <cfRule type="top10" dxfId="427" priority="329" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="426" priority="330" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21:P21">
-    <cfRule type="top10" dxfId="271" priority="327" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="270" priority="328" rank="2"/>
+    <cfRule type="top10" dxfId="425" priority="327" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="424" priority="328" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22:P22">
-    <cfRule type="top10" dxfId="269" priority="325" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="268" priority="326" rank="2"/>
+    <cfRule type="top10" dxfId="423" priority="325" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="422" priority="326" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:P23">
-    <cfRule type="top10" dxfId="267" priority="323" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="266" priority="324" rank="2"/>
+    <cfRule type="top10" dxfId="421" priority="323" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="420" priority="324" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24:P24">
-    <cfRule type="top10" dxfId="265" priority="321" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="264" priority="322" rank="2"/>
+    <cfRule type="top10" dxfId="419" priority="321" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="418" priority="322" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:P25">
-    <cfRule type="top10" dxfId="263" priority="319" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="262" priority="320" rank="2"/>
+    <cfRule type="top10" dxfId="417" priority="319" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="416" priority="320" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26:P26">
-    <cfRule type="top10" dxfId="261" priority="317" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="260" priority="318" rank="2"/>
+    <cfRule type="top10" dxfId="415" priority="317" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="414" priority="318" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27:P27">
-    <cfRule type="top10" dxfId="259" priority="315" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="258" priority="316" rank="2"/>
+    <cfRule type="top10" dxfId="413" priority="315" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="412" priority="316" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:P28">
-    <cfRule type="top10" dxfId="257" priority="313" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="256" priority="314" rank="2"/>
+    <cfRule type="top10" dxfId="411" priority="313" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="410" priority="314" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29:P29">
-    <cfRule type="top10" dxfId="255" priority="311" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="254" priority="312" rank="2"/>
+    <cfRule type="top10" dxfId="409" priority="311" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="408" priority="312" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8:P8">
-    <cfRule type="top10" dxfId="253" priority="309" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="252" priority="310" rank="2"/>
+    <cfRule type="top10" dxfId="407" priority="309" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="406" priority="310" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:P9">
-    <cfRule type="top10" dxfId="251" priority="307" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="250" priority="308" rank="2"/>
+    <cfRule type="top10" dxfId="405" priority="307" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="404" priority="308" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10:P10">
-    <cfRule type="top10" dxfId="249" priority="305" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="248" priority="306" rank="2"/>
+    <cfRule type="top10" dxfId="403" priority="305" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="402" priority="306" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:P11">
-    <cfRule type="top10" dxfId="247" priority="303" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="246" priority="304" rank="2"/>
+    <cfRule type="top10" dxfId="401" priority="303" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="400" priority="304" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12:P12">
-    <cfRule type="top10" dxfId="245" priority="301" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="244" priority="302" rank="2"/>
+    <cfRule type="top10" dxfId="399" priority="301" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="398" priority="302" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:P13">
-    <cfRule type="top10" dxfId="243" priority="299" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="242" priority="300" rank="2"/>
+    <cfRule type="top10" dxfId="397" priority="299" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="396" priority="300" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:P14">
-    <cfRule type="top10" dxfId="241" priority="297" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="240" priority="298" rank="2"/>
+    <cfRule type="top10" dxfId="395" priority="297" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="394" priority="298" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15:P15">
-    <cfRule type="top10" dxfId="239" priority="295" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="238" priority="296" rank="2"/>
+    <cfRule type="top10" dxfId="393" priority="295" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="392" priority="296" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16:P16">
-    <cfRule type="top10" dxfId="237" priority="293" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="236" priority="294" rank="2"/>
+    <cfRule type="top10" dxfId="391" priority="293" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="390" priority="294" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:P17">
-    <cfRule type="top10" dxfId="235" priority="291" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="234" priority="292" rank="2"/>
+    <cfRule type="top10" dxfId="389" priority="291" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="388" priority="292" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:N21">
-    <cfRule type="top10" dxfId="233" priority="79" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="232" priority="80" rank="2"/>
+    <cfRule type="top10" dxfId="387" priority="79" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="386" priority="80" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:N22">
-    <cfRule type="top10" dxfId="231" priority="77" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="230" priority="78" rank="2"/>
+    <cfRule type="top10" dxfId="385" priority="77" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="384" priority="78" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:N23">
-    <cfRule type="top10" dxfId="229" priority="75" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="228" priority="76" rank="2"/>
+    <cfRule type="top10" dxfId="383" priority="75" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="382" priority="76" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:N24">
-    <cfRule type="top10" dxfId="227" priority="73" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="226" priority="74" rank="2"/>
+    <cfRule type="top10" dxfId="381" priority="73" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="380" priority="74" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:N25">
-    <cfRule type="top10" dxfId="225" priority="71" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="224" priority="72" rank="2"/>
+    <cfRule type="top10" dxfId="379" priority="71" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="378" priority="72" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:N26">
-    <cfRule type="top10" dxfId="223" priority="69" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="222" priority="70" rank="2"/>
+    <cfRule type="top10" dxfId="377" priority="69" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="376" priority="70" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:N27">
-    <cfRule type="top10" dxfId="221" priority="67" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="220" priority="68" rank="2"/>
+    <cfRule type="top10" dxfId="375" priority="67" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="374" priority="68" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:N28">
-    <cfRule type="top10" dxfId="219" priority="65" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="218" priority="66" rank="2"/>
+    <cfRule type="top10" dxfId="373" priority="65" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="372" priority="66" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:N29">
-    <cfRule type="top10" dxfId="217" priority="63" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="216" priority="64" rank="2"/>
+    <cfRule type="top10" dxfId="371" priority="63" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="370" priority="64" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:N30">
-    <cfRule type="top10" dxfId="215" priority="61" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="214" priority="62" rank="2"/>
+    <cfRule type="top10" dxfId="369" priority="61" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="368" priority="62" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:N8">
-    <cfRule type="top10" dxfId="213" priority="59" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="212" priority="60" rank="2"/>
+    <cfRule type="top10" dxfId="367" priority="59" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="366" priority="60" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:N9">
-    <cfRule type="top10" dxfId="211" priority="57" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="210" priority="58" rank="2"/>
+    <cfRule type="top10" dxfId="365" priority="57" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="364" priority="58" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:N10">
-    <cfRule type="top10" dxfId="209" priority="55" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="208" priority="56" rank="2"/>
+    <cfRule type="top10" dxfId="363" priority="55" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="362" priority="56" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:N11">
-    <cfRule type="top10" dxfId="207" priority="53" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="206" priority="54" rank="2"/>
+    <cfRule type="top10" dxfId="361" priority="53" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="360" priority="54" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:N12">
-    <cfRule type="top10" dxfId="205" priority="51" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="204" priority="52" rank="2"/>
+    <cfRule type="top10" dxfId="359" priority="51" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="358" priority="52" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:N13">
-    <cfRule type="top10" dxfId="203" priority="49" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="202" priority="50" rank="2"/>
+    <cfRule type="top10" dxfId="357" priority="49" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="356" priority="50" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:N14">
-    <cfRule type="top10" dxfId="201" priority="47" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="200" priority="48" rank="2"/>
+    <cfRule type="top10" dxfId="355" priority="47" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="354" priority="48" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:N15">
-    <cfRule type="top10" dxfId="199" priority="45" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="198" priority="46" rank="2"/>
+    <cfRule type="top10" dxfId="353" priority="45" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="352" priority="46" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:N16">
-    <cfRule type="top10" dxfId="197" priority="43" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="196" priority="44" rank="2"/>
+    <cfRule type="top10" dxfId="351" priority="43" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="350" priority="44" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:N17">
-    <cfRule type="top10" dxfId="195" priority="41" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="194" priority="42" rank="2"/>
+    <cfRule type="top10" dxfId="349" priority="41" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="348" priority="42" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:N36">
-    <cfRule type="top10" dxfId="193" priority="39" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="192" priority="40" rank="2"/>
+    <cfRule type="top10" dxfId="347" priority="39" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="346" priority="40" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:N37">
-    <cfRule type="top10" dxfId="191" priority="37" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="190" priority="38" rank="2"/>
+    <cfRule type="top10" dxfId="345" priority="37" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="344" priority="38" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:N38">
-    <cfRule type="top10" dxfId="189" priority="35" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="188" priority="36" rank="2"/>
+    <cfRule type="top10" dxfId="343" priority="35" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="342" priority="36" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:N39">
-    <cfRule type="top10" dxfId="187" priority="33" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="186" priority="34" rank="2"/>
+    <cfRule type="top10" dxfId="341" priority="33" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="340" priority="34" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:N40">
-    <cfRule type="top10" dxfId="185" priority="31" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="184" priority="32" rank="2"/>
+    <cfRule type="top10" dxfId="339" priority="31" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="338" priority="32" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:N41">
-    <cfRule type="top10" dxfId="183" priority="29" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="182" priority="30" rank="2"/>
+    <cfRule type="top10" dxfId="337" priority="29" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="336" priority="30" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:N42">
-    <cfRule type="top10" dxfId="181" priority="27" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="180" priority="28" rank="2"/>
+    <cfRule type="top10" dxfId="335" priority="27" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="334" priority="28" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:N43">
-    <cfRule type="top10" dxfId="179" priority="25" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="178" priority="26" rank="2"/>
+    <cfRule type="top10" dxfId="333" priority="25" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="332" priority="26" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:N44">
-    <cfRule type="top10" dxfId="177" priority="23" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="176" priority="24" rank="2"/>
+    <cfRule type="top10" dxfId="331" priority="23" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="330" priority="24" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:N45">
-    <cfRule type="top10" dxfId="175" priority="21" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="174" priority="22" rank="2"/>
+    <cfRule type="top10" dxfId="329" priority="21" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="328" priority="22" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:N49">
-    <cfRule type="top10" dxfId="173" priority="19" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="172" priority="20" rank="2"/>
+    <cfRule type="top10" dxfId="327" priority="19" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="326" priority="20" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:N50">
-    <cfRule type="top10" dxfId="171" priority="17" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="170" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="325" priority="17" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="324" priority="18" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:N51">
-    <cfRule type="top10" dxfId="169" priority="15" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="168" priority="16" rank="2"/>
+    <cfRule type="top10" dxfId="323" priority="15" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="322" priority="16" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:N52">
-    <cfRule type="top10" dxfId="167" priority="13" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="166" priority="14" rank="2"/>
+    <cfRule type="top10" dxfId="321" priority="13" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="320" priority="14" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:N53">
-    <cfRule type="top10" dxfId="165" priority="11" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="164" priority="12" rank="2"/>
+    <cfRule type="top10" dxfId="319" priority="11" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="318" priority="12" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:N54">
-    <cfRule type="top10" dxfId="163" priority="9" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="162" priority="10" rank="2"/>
+    <cfRule type="top10" dxfId="317" priority="9" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="316" priority="10" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:N55">
-    <cfRule type="top10" dxfId="161" priority="7" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="160" priority="8" rank="2"/>
+    <cfRule type="top10" dxfId="315" priority="7" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="314" priority="8" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:N56">
-    <cfRule type="top10" dxfId="159" priority="5" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="158" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="313" priority="5" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="312" priority="6" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57:N57">
-    <cfRule type="top10" dxfId="157" priority="3" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="156" priority="4" rank="2"/>
+    <cfRule type="top10" dxfId="311" priority="3" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="310" priority="4" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58:N58">
-    <cfRule type="top10" dxfId="155" priority="1" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="154" priority="2" rank="2"/>
+    <cfRule type="top10" dxfId="309" priority="1" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="308" priority="2" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21920,7 +24658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0AF600-1D0C-43BD-94A2-1F3930266D1C}">
   <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D8" sqref="D8:N17"/>
     </sheetView>
   </sheetViews>
@@ -22109,20 +24847,20 @@
       <c r="T4" s="26"/>
     </row>
     <row r="5" spans="1:21" s="18" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40" t="s">
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
       <c r="N5" s="31"/>
       <c r="O5" s="31"/>
       <c r="P5" s="31"/>
@@ -22132,11 +24870,11 @@
       <c r="T5" s="29"/>
     </row>
     <row r="6" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
     </row>
     <row r="7" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
@@ -22712,11 +25450,11 @@
       <c r="N18" s="22"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
       <c r="N19" s="22"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -23290,11 +26028,11 @@
       <c r="N33" s="30"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
       <c r="N34" s="30"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
@@ -23862,11 +26600,11 @@
       <c r="N46" s="30"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
       <c r="N47" s="30"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
@@ -24431,11 +27169,11 @@
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B63" s="39" t="s">
+      <c r="B63" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
@@ -24454,154 +27192,2238 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="O17:U17">
-    <cfRule type="top10" dxfId="153" priority="1005" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="152" priority="1006" rank="2"/>
+    <cfRule type="top10" dxfId="307" priority="1005" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="306" priority="1006" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8:T8">
-    <cfRule type="top10" dxfId="151" priority="215" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="150" priority="216" rank="2"/>
+    <cfRule type="top10" dxfId="305" priority="215" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="304" priority="216" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:T9">
-    <cfRule type="top10" dxfId="149" priority="217" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="148" priority="218" rank="2"/>
+    <cfRule type="top10" dxfId="303" priority="217" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="302" priority="218" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10:T10">
-    <cfRule type="top10" dxfId="147" priority="219" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="146" priority="220" rank="2"/>
+    <cfRule type="top10" dxfId="301" priority="219" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="300" priority="220" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:T11">
-    <cfRule type="top10" dxfId="145" priority="221" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="144" priority="222" rank="2"/>
+    <cfRule type="top10" dxfId="299" priority="221" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="298" priority="222" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12:T12">
-    <cfRule type="top10" dxfId="143" priority="223" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="142" priority="224" rank="2"/>
+    <cfRule type="top10" dxfId="297" priority="223" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="296" priority="224" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:T13">
-    <cfRule type="top10" dxfId="141" priority="225" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="140" priority="226" rank="2"/>
+    <cfRule type="top10" dxfId="295" priority="225" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="294" priority="226" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:T14">
-    <cfRule type="top10" dxfId="139" priority="227" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="138" priority="228" rank="2"/>
+    <cfRule type="top10" dxfId="293" priority="227" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="292" priority="228" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15:T15">
-    <cfRule type="top10" dxfId="137" priority="229" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="136" priority="230" rank="2"/>
+    <cfRule type="top10" dxfId="291" priority="229" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="290" priority="230" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16:T16">
-    <cfRule type="top10" dxfId="135" priority="231" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="134" priority="232" rank="2"/>
+    <cfRule type="top10" dxfId="289" priority="231" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="288" priority="232" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21:T21">
-    <cfRule type="top10" dxfId="133" priority="197" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="132" priority="198" rank="2"/>
+    <cfRule type="top10" dxfId="287" priority="197" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="286" priority="198" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22:T22">
-    <cfRule type="top10" dxfId="131" priority="199" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="130" priority="200" rank="2"/>
+    <cfRule type="top10" dxfId="285" priority="199" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="284" priority="200" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:T23">
-    <cfRule type="top10" dxfId="129" priority="201" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="128" priority="202" rank="2"/>
+    <cfRule type="top10" dxfId="283" priority="201" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="282" priority="202" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24:T24">
-    <cfRule type="top10" dxfId="127" priority="203" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="126" priority="204" rank="2"/>
+    <cfRule type="top10" dxfId="281" priority="203" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="280" priority="204" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:T25">
-    <cfRule type="top10" dxfId="125" priority="205" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="124" priority="206" rank="2"/>
+    <cfRule type="top10" dxfId="279" priority="205" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="278" priority="206" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26:T26">
-    <cfRule type="top10" dxfId="123" priority="207" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="122" priority="208" rank="2"/>
+    <cfRule type="top10" dxfId="277" priority="207" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="276" priority="208" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27:T27">
-    <cfRule type="top10" dxfId="121" priority="209" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="120" priority="210" rank="2"/>
+    <cfRule type="top10" dxfId="275" priority="209" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="274" priority="210" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:T28">
-    <cfRule type="top10" dxfId="119" priority="211" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="118" priority="212" rank="2"/>
+    <cfRule type="top10" dxfId="273" priority="211" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="272" priority="212" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29:T29">
-    <cfRule type="top10" dxfId="117" priority="213" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="116" priority="214" rank="2"/>
+    <cfRule type="top10" dxfId="271" priority="213" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="270" priority="214" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O36:T36">
-    <cfRule type="top10" dxfId="115" priority="179" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="114" priority="180" rank="2"/>
+    <cfRule type="top10" dxfId="269" priority="179" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="268" priority="180" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O37:T37">
-    <cfRule type="top10" dxfId="113" priority="181" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="112" priority="182" rank="2"/>
+    <cfRule type="top10" dxfId="267" priority="181" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="266" priority="182" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O38:T38">
-    <cfRule type="top10" dxfId="111" priority="183" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="110" priority="184" rank="2"/>
+    <cfRule type="top10" dxfId="265" priority="183" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="264" priority="184" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O39:T39">
-    <cfRule type="top10" dxfId="109" priority="185" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="108" priority="186" rank="2"/>
+    <cfRule type="top10" dxfId="263" priority="185" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="262" priority="186" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O40:T40">
-    <cfRule type="top10" dxfId="107" priority="187" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="106" priority="188" rank="2"/>
+    <cfRule type="top10" dxfId="261" priority="187" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="260" priority="188" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O41:T41">
-    <cfRule type="top10" dxfId="105" priority="189" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="104" priority="190" rank="2"/>
+    <cfRule type="top10" dxfId="259" priority="189" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="258" priority="190" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O42:T42">
-    <cfRule type="top10" dxfId="103" priority="191" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="102" priority="192" rank="2"/>
+    <cfRule type="top10" dxfId="257" priority="191" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="256" priority="192" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O43:T43">
-    <cfRule type="top10" dxfId="101" priority="193" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="100" priority="194" rank="2"/>
+    <cfRule type="top10" dxfId="255" priority="193" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="254" priority="194" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O44:T44">
-    <cfRule type="top10" dxfId="99" priority="195" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="98" priority="196" rank="2"/>
+    <cfRule type="top10" dxfId="253" priority="195" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="252" priority="196" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O49:T49">
-    <cfRule type="top10" dxfId="97" priority="161" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="96" priority="162" rank="2"/>
+    <cfRule type="top10" dxfId="251" priority="161" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="250" priority="162" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O50:T50">
-    <cfRule type="top10" dxfId="95" priority="163" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="94" priority="164" rank="2"/>
+    <cfRule type="top10" dxfId="249" priority="163" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="248" priority="164" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O51:T51">
-    <cfRule type="top10" dxfId="93" priority="165" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="92" priority="166" rank="2"/>
+    <cfRule type="top10" dxfId="247" priority="165" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="246" priority="166" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O52:T52">
-    <cfRule type="top10" dxfId="91" priority="167" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="90" priority="168" rank="2"/>
+    <cfRule type="top10" dxfId="245" priority="167" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="244" priority="168" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O53:T53">
-    <cfRule type="top10" dxfId="89" priority="169" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="88" priority="170" rank="2"/>
+    <cfRule type="top10" dxfId="243" priority="169" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="242" priority="170" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O54:T54">
-    <cfRule type="top10" dxfId="87" priority="171" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="86" priority="172" rank="2"/>
+    <cfRule type="top10" dxfId="241" priority="171" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="240" priority="172" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O55:T55">
-    <cfRule type="top10" dxfId="85" priority="173" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="84" priority="174" rank="2"/>
+    <cfRule type="top10" dxfId="239" priority="173" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="238" priority="174" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O56:T56">
-    <cfRule type="top10" dxfId="83" priority="175" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="82" priority="176" rank="2"/>
+    <cfRule type="top10" dxfId="237" priority="175" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="236" priority="176" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O57:T57">
-    <cfRule type="top10" dxfId="81" priority="177" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="80" priority="178" rank="2"/>
+    <cfRule type="top10" dxfId="235" priority="177" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="234" priority="178" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:N30">
+    <cfRule type="top10" dxfId="233" priority="79" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="232" priority="80" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:N21">
+    <cfRule type="top10" dxfId="231" priority="61" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="230" priority="62" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:N22">
+    <cfRule type="top10" dxfId="229" priority="63" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="228" priority="64" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:N23">
+    <cfRule type="top10" dxfId="227" priority="65" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="226" priority="66" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:N24">
+    <cfRule type="top10" dxfId="225" priority="67" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="224" priority="68" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:N25">
+    <cfRule type="top10" dxfId="223" priority="69" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="222" priority="70" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:N26">
+    <cfRule type="top10" dxfId="221" priority="71" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="220" priority="72" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:N27">
+    <cfRule type="top10" dxfId="219" priority="73" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="218" priority="74" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:N28">
+    <cfRule type="top10" dxfId="217" priority="75" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="216" priority="76" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:N29">
+    <cfRule type="top10" dxfId="215" priority="77" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="214" priority="78" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:N17">
+    <cfRule type="top10" dxfId="213" priority="59" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="212" priority="60" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:N8">
+    <cfRule type="top10" dxfId="211" priority="41" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="210" priority="42" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:N9">
+    <cfRule type="top10" dxfId="209" priority="43" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="208" priority="44" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:N10">
+    <cfRule type="top10" dxfId="207" priority="45" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="206" priority="46" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:N11">
+    <cfRule type="top10" dxfId="205" priority="47" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="204" priority="48" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:N12">
+    <cfRule type="top10" dxfId="203" priority="49" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="202" priority="50" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:N13">
+    <cfRule type="top10" dxfId="201" priority="51" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="200" priority="52" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:N14">
+    <cfRule type="top10" dxfId="199" priority="53" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="198" priority="54" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:N15">
+    <cfRule type="top10" dxfId="197" priority="55" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="196" priority="56" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:N16">
+    <cfRule type="top10" dxfId="195" priority="57" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="194" priority="58" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:N45">
+    <cfRule type="top10" dxfId="193" priority="39" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="192" priority="40" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:N36">
+    <cfRule type="top10" dxfId="191" priority="21" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="190" priority="22" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:N37">
+    <cfRule type="top10" dxfId="189" priority="23" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="188" priority="24" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:N38">
+    <cfRule type="top10" dxfId="187" priority="25" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="186" priority="26" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:N39">
+    <cfRule type="top10" dxfId="185" priority="27" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="184" priority="28" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:N40">
+    <cfRule type="top10" dxfId="183" priority="29" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="182" priority="30" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:N41">
+    <cfRule type="top10" dxfId="181" priority="31" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="180" priority="32" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:N42">
+    <cfRule type="top10" dxfId="179" priority="33" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="178" priority="34" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:N43">
+    <cfRule type="top10" dxfId="177" priority="35" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="176" priority="36" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:N44">
+    <cfRule type="top10" dxfId="175" priority="37" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="174" priority="38" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58:N58">
+    <cfRule type="top10" dxfId="173" priority="19" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="172" priority="20" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49:N49">
+    <cfRule type="top10" dxfId="171" priority="1" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="170" priority="2" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:N50">
+    <cfRule type="top10" dxfId="169" priority="3" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="168" priority="4" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51:N51">
+    <cfRule type="top10" dxfId="167" priority="5" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="166" priority="6" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52:N52">
+    <cfRule type="top10" dxfId="165" priority="7" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="164" priority="8" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53:N53">
+    <cfRule type="top10" dxfId="163" priority="9" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="162" priority="10" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54:N54">
+    <cfRule type="top10" dxfId="161" priority="11" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="160" priority="12" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55:N55">
+    <cfRule type="top10" dxfId="159" priority="13" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="158" priority="14" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56:N56">
+    <cfRule type="top10" dxfId="157" priority="15" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="156" priority="16" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57:N57">
+    <cfRule type="top10" dxfId="155" priority="17" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="154" priority="18" rank="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA72C736-B3A2-4653-9F6C-9028AD4796AB}">
+  <dimension ref="A1:T64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58:J58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" style="38" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="38"/>
+    <col min="4" max="18" width="11.6640625" style="38" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="E1" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="F1" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="G1" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="H1" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="I1" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="J1" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="K1" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="L1" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M1" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="N1" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="38">
+        <v>500</v>
+      </c>
+      <c r="E2" s="38">
+        <v>500</v>
+      </c>
+      <c r="F2" s="38">
+        <v>500</v>
+      </c>
+      <c r="G2" s="38">
+        <v>500</v>
+      </c>
+      <c r="H2" s="38">
+        <v>500</v>
+      </c>
+      <c r="I2" s="38">
+        <v>500</v>
+      </c>
+      <c r="J2" s="38">
+        <v>500</v>
+      </c>
+      <c r="K2" s="38">
+        <v>500</v>
+      </c>
+      <c r="L2" s="38">
+        <v>500</v>
+      </c>
+      <c r="M2" s="38">
+        <v>500</v>
+      </c>
+      <c r="N2" s="38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="39" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="31"/>
+    </row>
+    <row r="4" spans="1:20" s="39" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="39" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+    </row>
+    <row r="6" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+    </row>
+    <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="38">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <f>AVERAGE(D8:M8,P8:T8)</f>
+        <v>0.83085314285714273</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" ref="C8:C16" si="0">MAX(D8:AI8)</f>
+        <v>0.85763900000000004</v>
+      </c>
+      <c r="D8" s="38">
+        <v>0.80208299999999999</v>
+      </c>
+      <c r="E8" s="38">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="F8" s="38">
+        <v>0.82638900000000004</v>
+      </c>
+      <c r="G8" s="38">
+        <v>0.85763900000000004</v>
+      </c>
+      <c r="H8" s="38">
+        <v>0.84375</v>
+      </c>
+      <c r="I8" s="38">
+        <v>0.80902799999999997</v>
+      </c>
+      <c r="J8" s="38">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="38">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" ref="B9:B16" si="1">AVERAGE(D9:M9,P9:T9)</f>
+        <v>0.73759928571428568</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.78125</v>
+      </c>
+      <c r="D9" s="38">
+        <v>0.71527799999999997</v>
+      </c>
+      <c r="E9" s="38">
+        <v>0.71527799999999997</v>
+      </c>
+      <c r="F9" s="38">
+        <v>0.78125</v>
+      </c>
+      <c r="G9" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="H9" s="38">
+        <v>0.73958299999999999</v>
+      </c>
+      <c r="I9" s="38">
+        <v>0.71527799999999997</v>
+      </c>
+      <c r="J9" s="38">
+        <v>0.74652799999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="38">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.8784724285714286</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="D10" s="38">
+        <v>0.875</v>
+      </c>
+      <c r="E10" s="38">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="F10" s="38">
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="G10" s="38">
+        <v>0.89930600000000005</v>
+      </c>
+      <c r="H10" s="38">
+        <v>0.86805600000000005</v>
+      </c>
+      <c r="I10" s="38">
+        <v>0.86805600000000005</v>
+      </c>
+      <c r="J10" s="38">
+        <v>0.86111099999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="38">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.7410715714285715</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.76041700000000001</v>
+      </c>
+      <c r="D11" s="38">
+        <v>0.74479200000000001</v>
+      </c>
+      <c r="E11" s="38">
+        <v>0.71354200000000001</v>
+      </c>
+      <c r="F11" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="G11" s="38">
+        <v>0.734375</v>
+      </c>
+      <c r="H11" s="38">
+        <v>0.72916700000000001</v>
+      </c>
+      <c r="I11" s="38">
+        <v>0.75520799999999999</v>
+      </c>
+      <c r="J11" s="38">
+        <v>0.76041700000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="38">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.83829357142857142</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="D12" s="38">
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="E12" s="38">
+        <v>0.81597200000000003</v>
+      </c>
+      <c r="F12" s="38">
+        <v>0.85416700000000001</v>
+      </c>
+      <c r="G12" s="38">
+        <v>0.82986099999999996</v>
+      </c>
+      <c r="H12" s="38">
+        <v>0.79861099999999996</v>
+      </c>
+      <c r="I12" s="38">
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="J12" s="38">
+        <v>0.85763900000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="38">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.83382928571428561</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.85763900000000004</v>
+      </c>
+      <c r="D13" s="38">
+        <v>0.81944399999999995</v>
+      </c>
+      <c r="E13" s="38">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="F13" s="38">
+        <v>0.85416700000000001</v>
+      </c>
+      <c r="G13" s="38">
+        <v>0.81597200000000003</v>
+      </c>
+      <c r="H13" s="38">
+        <v>0.82291700000000001</v>
+      </c>
+      <c r="I13" s="38">
+        <v>0.85763900000000004</v>
+      </c>
+      <c r="J13" s="38">
+        <v>0.83333299999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="38">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.86160700000000001</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88194399999999995</v>
+      </c>
+      <c r="D14" s="38">
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="E14" s="38">
+        <v>0.82986099999999996</v>
+      </c>
+      <c r="F14" s="38">
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="G14" s="38">
+        <v>0.875</v>
+      </c>
+      <c r="H14" s="38">
+        <v>0.88194399999999995</v>
+      </c>
+      <c r="I14" s="38">
+        <v>0.86805600000000005</v>
+      </c>
+      <c r="J14" s="38">
+        <v>0.86458299999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="38">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.87499985714285711</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91319399999999995</v>
+      </c>
+      <c r="D15" s="38">
+        <v>0.85416700000000001</v>
+      </c>
+      <c r="E15" s="38">
+        <v>0.91319399999999995</v>
+      </c>
+      <c r="F15" s="38">
+        <v>0.875</v>
+      </c>
+      <c r="G15" s="38">
+        <v>0.87847200000000003</v>
+      </c>
+      <c r="H15" s="38">
+        <v>0.86458299999999999</v>
+      </c>
+      <c r="I15" s="38">
+        <v>0.88194399999999995</v>
+      </c>
+      <c r="J15" s="38">
+        <v>0.85763900000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="38">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" si="1"/>
+        <v>0.89930557142857137</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" si="0"/>
+        <v>0.92361099999999996</v>
+      </c>
+      <c r="D16" s="38">
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="E16" s="38">
+        <v>0.92361099999999996</v>
+      </c>
+      <c r="F16" s="38">
+        <v>0.89236099999999996</v>
+      </c>
+      <c r="G16" s="38">
+        <v>0.90972200000000003</v>
+      </c>
+      <c r="H16" s="38">
+        <v>0.90625</v>
+      </c>
+      <c r="I16" s="38">
+        <v>0.89930600000000005</v>
+      </c>
+      <c r="J16" s="38">
+        <v>0.90277799999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="38">
+        <f>AVERAGE(B8:B16)</f>
+        <v>0.83289241269841263</v>
+      </c>
+      <c r="C17" s="38">
+        <f>AVERAGE(C8:C16)</f>
+        <v>0.86149688888888887</v>
+      </c>
+      <c r="D17" s="38">
+        <f t="shared" ref="D17:J17" si="2">AVERAGE(D8:D16)</f>
+        <v>0.81925144444444453</v>
+      </c>
+      <c r="E17" s="38">
+        <f t="shared" si="2"/>
+        <v>0.83275455555555555</v>
+      </c>
+      <c r="F17" s="38">
+        <f t="shared" si="2"/>
+        <v>0.83950622222222238</v>
+      </c>
+      <c r="G17" s="38">
+        <f t="shared" si="2"/>
+        <v>0.83892744444444456</v>
+      </c>
+      <c r="H17" s="38">
+        <f t="shared" si="2"/>
+        <v>0.82831788888888891</v>
+      </c>
+      <c r="I17" s="38">
+        <f t="shared" si="2"/>
+        <v>0.83506955555555562</v>
+      </c>
+      <c r="J17" s="38">
+        <f t="shared" si="2"/>
+        <v>0.83641977777777765</v>
+      </c>
+      <c r="O17" s="38" t="e">
+        <f t="shared" ref="D17:T17" si="3">AVERAGE(O8:O16)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P17" s="38" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q17" s="38" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R17" s="38" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S17" s="38" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T17" s="38" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="38">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <f>AVERAGE(D21:M21,P21:T21)</f>
+        <v>0.77447100000000002</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" ref="C21:C29" si="4">MAX(D21:AI21)</f>
+        <v>0.81018500000000004</v>
+      </c>
+      <c r="D21" s="38">
+        <v>0.73611099999999996</v>
+      </c>
+      <c r="E21" s="38">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="F21" s="38">
+        <v>0.76851899999999995</v>
+      </c>
+      <c r="G21" s="38">
+        <v>0.81018500000000004</v>
+      </c>
+      <c r="H21" s="38">
+        <v>0.79166700000000001</v>
+      </c>
+      <c r="I21" s="38">
+        <v>0.74536999999999998</v>
+      </c>
+      <c r="J21" s="38">
+        <v>0.79166700000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="38">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3">
+        <f t="shared" ref="B22:B29" si="5">AVERAGE(D22:M22,P22:T22)</f>
+        <v>0.65013214285714283</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="4"/>
+        <v>0.70833299999999999</v>
+      </c>
+      <c r="D22" s="38">
+        <v>0.62036999999999998</v>
+      </c>
+      <c r="E22" s="38">
+        <v>0.62036999999999998</v>
+      </c>
+      <c r="F22" s="38">
+        <v>0.70833299999999999</v>
+      </c>
+      <c r="G22" s="38">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="H22" s="38">
+        <v>0.65277799999999997</v>
+      </c>
+      <c r="I22" s="38">
+        <v>0.62036999999999998</v>
+      </c>
+      <c r="J22" s="38">
+        <v>0.66203699999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="38">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3">
+        <f t="shared" si="5"/>
+        <v>0.8379629999999999</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="4"/>
+        <v>0.88888900000000004</v>
+      </c>
+      <c r="D23" s="38">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="E23" s="38">
+        <v>0.88888900000000004</v>
+      </c>
+      <c r="F23" s="38">
+        <v>0.81481499999999996</v>
+      </c>
+      <c r="G23" s="38">
+        <v>0.86574099999999998</v>
+      </c>
+      <c r="H23" s="38">
+        <v>0.82407399999999997</v>
+      </c>
+      <c r="I23" s="38">
+        <v>0.82407399999999997</v>
+      </c>
+      <c r="J23" s="38">
+        <v>0.81481499999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="38">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3">
+        <f t="shared" si="5"/>
+        <v>0.65476200000000007</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="4"/>
+        <v>0.68055600000000005</v>
+      </c>
+      <c r="D24" s="38">
+        <v>0.65972200000000003</v>
+      </c>
+      <c r="E24" s="38">
+        <v>0.61805600000000005</v>
+      </c>
+      <c r="F24" s="38">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G24" s="38">
+        <v>0.64583299999999999</v>
+      </c>
+      <c r="H24" s="38">
+        <v>0.63888900000000004</v>
+      </c>
+      <c r="I24" s="38">
+        <v>0.67361099999999996</v>
+      </c>
+      <c r="J24" s="38">
+        <v>0.68055600000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="38">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3">
+        <f t="shared" si="5"/>
+        <v>0.78439157142857141</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="4"/>
+        <v>0.81481499999999996</v>
+      </c>
+      <c r="D25" s="38">
+        <v>0.80092600000000003</v>
+      </c>
+      <c r="E25" s="38">
+        <v>0.75463000000000002</v>
+      </c>
+      <c r="F25" s="38">
+        <v>0.80555600000000005</v>
+      </c>
+      <c r="G25" s="38">
+        <v>0.77314799999999995</v>
+      </c>
+      <c r="H25" s="38">
+        <v>0.73148100000000005</v>
+      </c>
+      <c r="I25" s="38">
+        <v>0.81481499999999996</v>
+      </c>
+      <c r="J25" s="38">
+        <v>0.81018500000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="38">
+        <v>6</v>
+      </c>
+      <c r="B26" s="3">
+        <f t="shared" si="5"/>
+        <v>0.77843928571428567</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="4"/>
+        <v>0.81018500000000004</v>
+      </c>
+      <c r="D26" s="38">
+        <v>0.75925900000000002</v>
+      </c>
+      <c r="E26" s="38">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="F26" s="38">
+        <v>0.80555600000000005</v>
+      </c>
+      <c r="G26" s="38">
+        <v>0.75463000000000002</v>
+      </c>
+      <c r="H26" s="38">
+        <v>0.76388900000000004</v>
+      </c>
+      <c r="I26" s="38">
+        <v>0.81018500000000004</v>
+      </c>
+      <c r="J26" s="38">
+        <v>0.77777799999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="38">
+        <v>7</v>
+      </c>
+      <c r="B27" s="3">
+        <f t="shared" si="5"/>
+        <v>0.81547614285714298</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="4"/>
+        <v>0.84259300000000004</v>
+      </c>
+      <c r="D27" s="38">
+        <v>0.80092600000000003</v>
+      </c>
+      <c r="E27" s="38">
+        <v>0.77314799999999995</v>
+      </c>
+      <c r="F27" s="38">
+        <v>0.81481499999999996</v>
+      </c>
+      <c r="G27" s="38">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="H27" s="38">
+        <v>0.84259300000000004</v>
+      </c>
+      <c r="I27" s="38">
+        <v>0.82407399999999997</v>
+      </c>
+      <c r="J27" s="38">
+        <v>0.81944399999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="38">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3">
+        <f t="shared" si="5"/>
+        <v>0.83333328571428567</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="4"/>
+        <v>0.88425900000000002</v>
+      </c>
+      <c r="D28" s="38">
+        <v>0.80555600000000005</v>
+      </c>
+      <c r="E28" s="38">
+        <v>0.88425900000000002</v>
+      </c>
+      <c r="F28" s="38">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="G28" s="38">
+        <v>0.83796300000000001</v>
+      </c>
+      <c r="H28" s="38">
+        <v>0.81944399999999995</v>
+      </c>
+      <c r="I28" s="38">
+        <v>0.84259300000000004</v>
+      </c>
+      <c r="J28" s="38">
+        <v>0.81018500000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="38">
+        <v>9</v>
+      </c>
+      <c r="B29" s="5">
+        <f t="shared" si="5"/>
+        <v>0.8657407142857142</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" si="4"/>
+        <v>0.89814799999999995</v>
+      </c>
+      <c r="D29" s="38">
+        <v>0.81481499999999996</v>
+      </c>
+      <c r="E29" s="38">
+        <v>0.89814799999999995</v>
+      </c>
+      <c r="F29" s="38">
+        <v>0.85648100000000005</v>
+      </c>
+      <c r="G29" s="38">
+        <v>0.87963000000000002</v>
+      </c>
+      <c r="H29" s="38">
+        <v>0.875</v>
+      </c>
+      <c r="I29" s="38">
+        <v>0.86574099999999998</v>
+      </c>
+      <c r="J29" s="38">
+        <v>0.87036999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="38">
+        <f>AVERAGE(B21:B29)</f>
+        <v>0.77718990476190475</v>
+      </c>
+      <c r="C30" s="38">
+        <f>AVERAGE(C21:C29)</f>
+        <v>0.81532922222222226</v>
+      </c>
+      <c r="D30" s="38">
+        <f t="shared" ref="D30" si="6">AVERAGE(D21:D29)</f>
+        <v>0.75900200000000007</v>
+      </c>
+      <c r="E30" s="38">
+        <f t="shared" ref="E30" si="7">AVERAGE(E21:E29)</f>
+        <v>0.77700622222222226</v>
+      </c>
+      <c r="F30" s="38">
+        <f t="shared" ref="F30" si="8">AVERAGE(F21:F29)</f>
+        <v>0.78600833333333342</v>
+      </c>
+      <c r="G30" s="38">
+        <f t="shared" ref="G30" si="9">AVERAGE(G21:G29)</f>
+        <v>0.78523666666666658</v>
+      </c>
+      <c r="H30" s="38">
+        <f t="shared" ref="H30" si="10">AVERAGE(H21:H29)</f>
+        <v>0.77109055555555561</v>
+      </c>
+      <c r="I30" s="38">
+        <f t="shared" ref="I30" si="11">AVERAGE(I21:I29)</f>
+        <v>0.78009255555555557</v>
+      </c>
+      <c r="J30" s="38">
+        <f t="shared" ref="J30" si="12">AVERAGE(J21:J29)</f>
+        <v>0.78189299999999995</v>
+      </c>
+      <c r="O30" s="38" t="e">
+        <f t="shared" ref="D30:T30" si="13">AVERAGE(O21:O29)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P30" s="38" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q30" s="38" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R30" s="38" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S30" s="38" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T30" s="38" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="38">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1">
+        <f>AVERAGE(D36:M36,P36:T36)</f>
+        <v>0.83134914285714301</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" ref="C36:C44" si="14">MAX(D36:AI36)</f>
+        <v>0.85416700000000001</v>
+      </c>
+      <c r="D36" s="38">
+        <v>0.82638900000000004</v>
+      </c>
+      <c r="E36" s="38">
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="F36" s="38">
+        <v>0.81944399999999995</v>
+      </c>
+      <c r="G36" s="38">
+        <v>0.82291700000000001</v>
+      </c>
+      <c r="H36" s="38">
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="I36" s="38">
+        <v>0.79861099999999996</v>
+      </c>
+      <c r="J36" s="38">
+        <v>0.85416700000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37" s="38">
+        <v>2</v>
+      </c>
+      <c r="B37" s="3">
+        <f t="shared" ref="B37:B44" si="15">AVERAGE(D37:M37,P37:T37)</f>
+        <v>0.72916671428571433</v>
+      </c>
+      <c r="C37" s="4">
+        <f t="shared" si="14"/>
+        <v>0.77083299999999999</v>
+      </c>
+      <c r="D37" s="38">
+        <v>0.72916700000000001</v>
+      </c>
+      <c r="E37" s="38">
+        <v>0.69097200000000003</v>
+      </c>
+      <c r="F37" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="G37" s="38">
+        <v>0.71180600000000005</v>
+      </c>
+      <c r="H37" s="38">
+        <v>0.74652799999999997</v>
+      </c>
+      <c r="I37" s="38">
+        <v>0.77083299999999999</v>
+      </c>
+      <c r="J37" s="38">
+        <v>0.70486099999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38" s="38">
+        <v>3</v>
+      </c>
+      <c r="B38" s="3">
+        <f t="shared" si="15"/>
+        <v>0.87202400000000002</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" si="14"/>
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="D38" s="38">
+        <v>0.87152799999999997</v>
+      </c>
+      <c r="E38" s="38">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="F38" s="38">
+        <v>0.87152799999999997</v>
+      </c>
+      <c r="G38" s="38">
+        <v>0.87152799999999997</v>
+      </c>
+      <c r="H38" s="38">
+        <v>0.87152799999999997</v>
+      </c>
+      <c r="I38" s="38">
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="J38" s="38">
+        <v>0.85416700000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" s="38">
+        <v>4</v>
+      </c>
+      <c r="B39" s="3">
+        <f t="shared" si="15"/>
+        <v>0.71726200000000007</v>
+      </c>
+      <c r="C39" s="4">
+        <f t="shared" si="14"/>
+        <v>0.76041700000000001</v>
+      </c>
+      <c r="D39" s="38">
+        <v>0.734375</v>
+      </c>
+      <c r="E39" s="38">
+        <v>0.703125</v>
+      </c>
+      <c r="F39" s="38">
+        <v>0.71875</v>
+      </c>
+      <c r="G39" s="38">
+        <v>0.72395799999999999</v>
+      </c>
+      <c r="H39" s="38">
+        <v>0.69791700000000001</v>
+      </c>
+      <c r="I39" s="38">
+        <v>0.76041700000000001</v>
+      </c>
+      <c r="J39" s="38">
+        <v>0.68229200000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" s="38">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3">
+        <f t="shared" si="15"/>
+        <v>0.80605157142857142</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" si="14"/>
+        <v>0.85763900000000004</v>
+      </c>
+      <c r="D40" s="38">
+        <v>0.79513900000000004</v>
+      </c>
+      <c r="E40" s="38">
+        <v>0.78472200000000003</v>
+      </c>
+      <c r="F40" s="38">
+        <v>0.85763900000000004</v>
+      </c>
+      <c r="G40" s="38">
+        <v>0.82291700000000001</v>
+      </c>
+      <c r="H40" s="38">
+        <v>0.78472200000000003</v>
+      </c>
+      <c r="I40" s="38">
+        <v>0.8125</v>
+      </c>
+      <c r="J40" s="38">
+        <v>0.78472200000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" s="38">
+        <v>6</v>
+      </c>
+      <c r="B41" s="3">
+        <f t="shared" si="15"/>
+        <v>0.82787685714285708</v>
+      </c>
+      <c r="C41" s="4">
+        <f t="shared" si="14"/>
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="D41" s="38">
+        <v>0.84027799999999997</v>
+      </c>
+      <c r="E41" s="38">
+        <v>0.81944399999999995</v>
+      </c>
+      <c r="F41" s="38">
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="G41" s="38">
+        <v>0.81944399999999995</v>
+      </c>
+      <c r="H41" s="38">
+        <v>0.82291700000000001</v>
+      </c>
+      <c r="I41" s="38">
+        <v>0.8125</v>
+      </c>
+      <c r="J41" s="38">
+        <v>0.83333299999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" s="38">
+        <v>7</v>
+      </c>
+      <c r="B42" s="3">
+        <f t="shared" si="15"/>
+        <v>0.85515857142857143</v>
+      </c>
+      <c r="C42" s="4">
+        <f t="shared" si="14"/>
+        <v>0.88194399999999995</v>
+      </c>
+      <c r="D42" s="38">
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="E42" s="38">
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="F42" s="38">
+        <v>0.85069399999999995</v>
+      </c>
+      <c r="G42" s="38">
+        <v>0.84027799999999997</v>
+      </c>
+      <c r="H42" s="38">
+        <v>0.88194399999999995</v>
+      </c>
+      <c r="I42" s="38">
+        <v>0.87152799999999997</v>
+      </c>
+      <c r="J42" s="38">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43" s="38">
+        <v>8</v>
+      </c>
+      <c r="B43" s="3">
+        <f t="shared" si="15"/>
+        <v>0.87152785714285697</v>
+      </c>
+      <c r="C43" s="4">
+        <f t="shared" si="14"/>
+        <v>0.89930600000000005</v>
+      </c>
+      <c r="D43" s="38">
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="E43" s="38">
+        <v>0.89930600000000005</v>
+      </c>
+      <c r="F43" s="38">
+        <v>0.85416700000000001</v>
+      </c>
+      <c r="G43" s="38">
+        <v>0.89583299999999999</v>
+      </c>
+      <c r="H43" s="38">
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="I43" s="38">
+        <v>0.87152799999999997</v>
+      </c>
+      <c r="J43" s="38">
+        <v>0.85763900000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44" s="38">
+        <v>9</v>
+      </c>
+      <c r="B44" s="5">
+        <f t="shared" si="15"/>
+        <v>0.89484128571428567</v>
+      </c>
+      <c r="C44" s="6">
+        <f t="shared" si="14"/>
+        <v>0.92013900000000004</v>
+      </c>
+      <c r="D44" s="38">
+        <v>0.88194399999999995</v>
+      </c>
+      <c r="E44" s="38">
+        <v>0.91319399999999995</v>
+      </c>
+      <c r="F44" s="38">
+        <v>0.88888900000000004</v>
+      </c>
+      <c r="G44" s="38">
+        <v>0.86805600000000005</v>
+      </c>
+      <c r="H44" s="38">
+        <v>0.92013900000000004</v>
+      </c>
+      <c r="I44" s="38">
+        <v>0.88888900000000004</v>
+      </c>
+      <c r="J44" s="38">
+        <v>0.90277799999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="38">
+        <f>AVERAGE(B36:B44)</f>
+        <v>0.82280644444444428</v>
+      </c>
+      <c r="C45" s="38">
+        <f>AVERAGE(C36:C44)</f>
+        <v>0.8564815555555555</v>
+      </c>
+      <c r="D45" s="38">
+        <f t="shared" ref="D45" si="16">AVERAGE(D36:D44)</f>
+        <v>0.82118055555555558</v>
+      </c>
+      <c r="E45" s="38">
+        <f t="shared" ref="E45" si="17">AVERAGE(E36:E44)</f>
+        <v>0.82503844444444452</v>
+      </c>
+      <c r="F45" s="38">
+        <f t="shared" ref="F45" si="18">AVERAGE(F36:F44)</f>
+        <v>0.82870366666666673</v>
+      </c>
+      <c r="G45" s="38">
+        <f t="shared" ref="G45" si="19">AVERAGE(G36:G44)</f>
+        <v>0.81963744444444442</v>
+      </c>
+      <c r="H45" s="38">
+        <f t="shared" ref="H45" si="20">AVERAGE(H36:H44)</f>
+        <v>0.82600311111111102</v>
+      </c>
+      <c r="I45" s="38">
+        <f t="shared" ref="I45" si="21">AVERAGE(I36:I44)</f>
+        <v>0.82600311111111102</v>
+      </c>
+      <c r="J45" s="38">
+        <f t="shared" ref="J45" si="22">AVERAGE(J36:J44)</f>
+        <v>0.81307877777777771</v>
+      </c>
+      <c r="O45" s="38" t="e">
+        <f t="shared" ref="D45:T45" si="23">AVERAGE(O36:O44)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P45" s="38" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q45" s="38" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R45" s="38" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S45" s="38" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T45" s="38" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A48" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A49" s="38">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1">
+        <f>AVERAGE(D49:M49,P49:T49)</f>
+        <v>0.77513228571428561</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" ref="C49:C57" si="24">MAX(D49:AI49)</f>
+        <v>0.80555600000000005</v>
+      </c>
+      <c r="D49" s="38">
+        <v>0.76851899999999995</v>
+      </c>
+      <c r="E49" s="38">
+        <v>0.80092600000000003</v>
+      </c>
+      <c r="F49" s="38">
+        <v>0.75925900000000002</v>
+      </c>
+      <c r="G49" s="38">
+        <v>0.76388900000000004</v>
+      </c>
+      <c r="H49" s="38">
+        <v>0.796296</v>
+      </c>
+      <c r="I49" s="38">
+        <v>0.73148100000000005</v>
+      </c>
+      <c r="J49" s="38">
+        <v>0.80555600000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A50" s="38">
+        <v>2</v>
+      </c>
+      <c r="B50" s="3">
+        <f t="shared" ref="B50:B57" si="25">AVERAGE(D50:M50,P50:T50)</f>
+        <v>0.63888885714285715</v>
+      </c>
+      <c r="C50" s="4">
+        <f t="shared" si="24"/>
+        <v>0.69444399999999995</v>
+      </c>
+      <c r="D50" s="38">
+        <v>0.63888900000000004</v>
+      </c>
+      <c r="E50" s="38">
+        <v>0.58796300000000001</v>
+      </c>
+      <c r="F50" s="38">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G50" s="38">
+        <v>0.61574099999999998</v>
+      </c>
+      <c r="H50" s="38">
+        <v>0.66203699999999999</v>
+      </c>
+      <c r="I50" s="38">
+        <v>0.69444399999999995</v>
+      </c>
+      <c r="J50" s="38">
+        <v>0.60648100000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A51" s="38">
+        <v>3</v>
+      </c>
+      <c r="B51" s="3">
+        <f t="shared" si="25"/>
+        <v>0.8293652857142858</v>
+      </c>
+      <c r="C51" s="4">
+        <f t="shared" si="24"/>
+        <v>0.88888900000000004</v>
+      </c>
+      <c r="D51" s="38">
+        <v>0.828704</v>
+      </c>
+      <c r="E51" s="38">
+        <v>0.88888900000000004</v>
+      </c>
+      <c r="F51" s="38">
+        <v>0.828704</v>
+      </c>
+      <c r="G51" s="38">
+        <v>0.828704</v>
+      </c>
+      <c r="H51" s="38">
+        <v>0.828704</v>
+      </c>
+      <c r="I51" s="38">
+        <v>0.796296</v>
+      </c>
+      <c r="J51" s="38">
+        <v>0.80555600000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A52" s="38">
+        <v>4</v>
+      </c>
+      <c r="B52" s="3">
+        <f t="shared" si="25"/>
+        <v>0.62301585714285712</v>
+      </c>
+      <c r="C52" s="4">
+        <f t="shared" si="24"/>
+        <v>0.68055600000000005</v>
+      </c>
+      <c r="D52" s="38">
+        <v>0.64583299999999999</v>
+      </c>
+      <c r="E52" s="38">
+        <v>0.60416700000000001</v>
+      </c>
+      <c r="F52" s="38">
+        <v>0.625</v>
+      </c>
+      <c r="G52" s="38">
+        <v>0.63194399999999995</v>
+      </c>
+      <c r="H52" s="38">
+        <v>0.59722200000000003</v>
+      </c>
+      <c r="I52" s="38">
+        <v>0.68055600000000005</v>
+      </c>
+      <c r="J52" s="38">
+        <v>0.57638900000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A53" s="38">
+        <v>5</v>
+      </c>
+      <c r="B53" s="3">
+        <f t="shared" si="25"/>
+        <v>0.7414021428571429</v>
+      </c>
+      <c r="C53" s="4">
+        <f t="shared" si="24"/>
+        <v>0.81018500000000004</v>
+      </c>
+      <c r="D53" s="38">
+        <v>0.72685200000000005</v>
+      </c>
+      <c r="E53" s="38">
+        <v>0.71296300000000001</v>
+      </c>
+      <c r="F53" s="38">
+        <v>0.81018500000000004</v>
+      </c>
+      <c r="G53" s="38">
+        <v>0.76388900000000004</v>
+      </c>
+      <c r="H53" s="38">
+        <v>0.71296300000000001</v>
+      </c>
+      <c r="I53" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="J53" s="38">
+        <v>0.71296300000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A54" s="38">
+        <v>6</v>
+      </c>
+      <c r="B54" s="3">
+        <f t="shared" si="25"/>
+        <v>0.77050257142857137</v>
+      </c>
+      <c r="C54" s="4">
+        <f t="shared" si="24"/>
+        <v>0.796296</v>
+      </c>
+      <c r="D54" s="38">
+        <v>0.78703699999999999</v>
+      </c>
+      <c r="E54" s="38">
+        <v>0.75925900000000002</v>
+      </c>
+      <c r="F54" s="38">
+        <v>0.796296</v>
+      </c>
+      <c r="G54" s="38">
+        <v>0.75925900000000002</v>
+      </c>
+      <c r="H54" s="38">
+        <v>0.76388900000000004</v>
+      </c>
+      <c r="I54" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="J54" s="38">
+        <v>0.77777799999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A55" s="38">
+        <v>7</v>
+      </c>
+      <c r="B55" s="3">
+        <f t="shared" si="25"/>
+        <v>0.80687842857142855</v>
+      </c>
+      <c r="C55" s="4">
+        <f t="shared" si="24"/>
+        <v>0.84259300000000004</v>
+      </c>
+      <c r="D55" s="38">
+        <v>0.80092600000000003</v>
+      </c>
+      <c r="E55" s="38">
+        <v>0.796296</v>
+      </c>
+      <c r="F55" s="38">
+        <v>0.80092600000000003</v>
+      </c>
+      <c r="G55" s="38">
+        <v>0.78703699999999999</v>
+      </c>
+      <c r="H55" s="38">
+        <v>0.84259300000000004</v>
+      </c>
+      <c r="I55" s="38">
+        <v>0.828704</v>
+      </c>
+      <c r="J55" s="38">
+        <v>0.79166700000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A56" s="38">
+        <v>8</v>
+      </c>
+      <c r="B56" s="3">
+        <f t="shared" si="25"/>
+        <v>0.8287038571428571</v>
+      </c>
+      <c r="C56" s="4">
+        <f t="shared" si="24"/>
+        <v>0.86574099999999998</v>
+      </c>
+      <c r="D56" s="38">
+        <v>0.81481499999999996</v>
+      </c>
+      <c r="E56" s="38">
+        <v>0.86574099999999998</v>
+      </c>
+      <c r="F56" s="38">
+        <v>0.80555600000000005</v>
+      </c>
+      <c r="G56" s="38">
+        <v>0.86111099999999996</v>
+      </c>
+      <c r="H56" s="38">
+        <v>0.81481499999999996</v>
+      </c>
+      <c r="I56" s="38">
+        <v>0.828704</v>
+      </c>
+      <c r="J56" s="38">
+        <v>0.81018500000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A57" s="38">
+        <v>9</v>
+      </c>
+      <c r="B57" s="5">
+        <f t="shared" si="25"/>
+        <v>0.85978842857142868</v>
+      </c>
+      <c r="C57" s="6">
+        <f t="shared" si="24"/>
+        <v>0.89351899999999995</v>
+      </c>
+      <c r="D57" s="38">
+        <v>0.84259300000000004</v>
+      </c>
+      <c r="E57" s="38">
+        <v>0.88425900000000002</v>
+      </c>
+      <c r="F57" s="38">
+        <v>0.85185200000000005</v>
+      </c>
+      <c r="G57" s="38">
+        <v>0.82407399999999997</v>
+      </c>
+      <c r="H57" s="38">
+        <v>0.89351899999999995</v>
+      </c>
+      <c r="I57" s="38">
+        <v>0.85185200000000005</v>
+      </c>
+      <c r="J57" s="38">
+        <v>0.87036999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A58" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="38">
+        <f>AVERAGE(B49:B57)</f>
+        <v>0.76374196825396834</v>
+      </c>
+      <c r="C58" s="38">
+        <f>AVERAGE(C49:C57)</f>
+        <v>0.80864211111111117</v>
+      </c>
+      <c r="D58" s="38">
+        <f t="shared" ref="D58" si="26">AVERAGE(D49:D57)</f>
+        <v>0.76157422222222215</v>
+      </c>
+      <c r="E58" s="38">
+        <f t="shared" ref="E58" si="27">AVERAGE(E49:E57)</f>
+        <v>0.7667181111111111</v>
+      </c>
+      <c r="F58" s="38">
+        <f t="shared" ref="F58" si="28">AVERAGE(F49:F57)</f>
+        <v>0.77160499999999999</v>
+      </c>
+      <c r="G58" s="38">
+        <f t="shared" ref="G58" si="29">AVERAGE(G49:G57)</f>
+        <v>0.75951644444444455</v>
+      </c>
+      <c r="H58" s="38">
+        <f t="shared" ref="H58" si="30">AVERAGE(H49:H57)</f>
+        <v>0.76800422222222231</v>
+      </c>
+      <c r="I58" s="38">
+        <f t="shared" ref="I58" si="31">AVERAGE(I49:I57)</f>
+        <v>0.76800411111111122</v>
+      </c>
+      <c r="J58" s="38">
+        <f t="shared" ref="J58" si="32">AVERAGE(J49:J57)</f>
+        <v>0.75077166666666673</v>
+      </c>
+      <c r="O58" s="38" t="e">
+        <f t="shared" ref="D58:T58" si="33">AVERAGE(O49:O57)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P58" s="38" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q58" s="38" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R58" s="38" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S58" s="38" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T58" s="38" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B63" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B64" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A47:C47"/>
+  </mergeCells>
+  <conditionalFormatting sqref="O17:U17">
+    <cfRule type="top10" dxfId="153" priority="153" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="152" priority="154" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8:T8">
+    <cfRule type="top10" dxfId="151" priority="135" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="150" priority="136" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9:T9">
+    <cfRule type="top10" dxfId="149" priority="137" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="148" priority="138" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10:T10">
+    <cfRule type="top10" dxfId="147" priority="139" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="146" priority="140" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11:T11">
+    <cfRule type="top10" dxfId="145" priority="141" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="144" priority="142" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12:T12">
+    <cfRule type="top10" dxfId="143" priority="143" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="142" priority="144" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13:T13">
+    <cfRule type="top10" dxfId="141" priority="145" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="140" priority="146" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14:T14">
+    <cfRule type="top10" dxfId="139" priority="147" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="138" priority="148" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O15:T15">
+    <cfRule type="top10" dxfId="137" priority="149" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="136" priority="150" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O16:T16">
+    <cfRule type="top10" dxfId="135" priority="151" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="134" priority="152" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O21:T21">
+    <cfRule type="top10" dxfId="133" priority="117" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="132" priority="118" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O22:T22">
+    <cfRule type="top10" dxfId="131" priority="119" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="130" priority="120" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O23:T23">
+    <cfRule type="top10" dxfId="129" priority="121" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="128" priority="122" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O24:T24">
+    <cfRule type="top10" dxfId="127" priority="123" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="126" priority="124" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O25:T25">
+    <cfRule type="top10" dxfId="125" priority="125" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="124" priority="126" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O26:T26">
+    <cfRule type="top10" dxfId="123" priority="127" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="122" priority="128" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27:T27">
+    <cfRule type="top10" dxfId="121" priority="129" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="120" priority="130" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O28:T28">
+    <cfRule type="top10" dxfId="119" priority="131" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="118" priority="132" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O29:T29">
+    <cfRule type="top10" dxfId="117" priority="133" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="116" priority="134" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O36:T36">
+    <cfRule type="top10" dxfId="115" priority="99" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="114" priority="100" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O37:T37">
+    <cfRule type="top10" dxfId="113" priority="101" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="112" priority="102" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O38:T38">
+    <cfRule type="top10" dxfId="111" priority="103" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="110" priority="104" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O39:T39">
+    <cfRule type="top10" dxfId="109" priority="105" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="108" priority="106" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O40:T40">
+    <cfRule type="top10" dxfId="107" priority="107" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="106" priority="108" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O41:T41">
+    <cfRule type="top10" dxfId="105" priority="109" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="104" priority="110" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O42:T42">
+    <cfRule type="top10" dxfId="103" priority="111" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="102" priority="112" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O43:T43">
+    <cfRule type="top10" dxfId="101" priority="113" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="100" priority="114" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O44:T44">
+    <cfRule type="top10" dxfId="99" priority="115" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="98" priority="116" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O49:T49">
+    <cfRule type="top10" dxfId="97" priority="81" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="96" priority="82" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O50:T50">
+    <cfRule type="top10" dxfId="95" priority="83" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="94" priority="84" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O51:T51">
+    <cfRule type="top10" dxfId="93" priority="85" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="92" priority="86" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O52:T52">
+    <cfRule type="top10" dxfId="91" priority="87" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="90" priority="88" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O53:T53">
+    <cfRule type="top10" dxfId="89" priority="89" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="88" priority="90" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O54:T54">
+    <cfRule type="top10" dxfId="87" priority="91" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="86" priority="92" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O55:T55">
+    <cfRule type="top10" dxfId="85" priority="93" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="84" priority="94" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O56:T56">
+    <cfRule type="top10" dxfId="83" priority="95" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="82" priority="96" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O57:T57">
+    <cfRule type="top10" dxfId="81" priority="97" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="80" priority="98" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:N30">
     <cfRule type="top10" dxfId="79" priority="79" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="78" priority="80" rank="2"/>
   </conditionalFormatting>
@@ -24641,7 +29463,7 @@
     <cfRule type="top10" dxfId="61" priority="77" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="60" priority="78" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:N17">
+  <conditionalFormatting sqref="K17:N17">
     <cfRule type="top10" dxfId="59" priority="59" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="58" priority="60" rank="2"/>
   </conditionalFormatting>
@@ -24681,7 +29503,7 @@
     <cfRule type="top10" dxfId="41" priority="57" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="40" priority="58" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45:N45">
+  <conditionalFormatting sqref="K45:N45">
     <cfRule type="top10" dxfId="39" priority="39" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="38" priority="40" rank="2"/>
   </conditionalFormatting>
@@ -24721,7 +29543,7 @@
     <cfRule type="top10" dxfId="21" priority="37" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="20" priority="38" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58:N58">
+  <conditionalFormatting sqref="K58:N58">
     <cfRule type="top10" dxfId="19" priority="19" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="18" priority="20" rank="2"/>
   </conditionalFormatting>
